--- a/table_corhmm/SummaryTable_corHMM.xlsx
+++ b/table_corhmm/SummaryTable_corHMM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesboyko/2021_SeedDispersal/table_corhmm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C1F45DC-68BE-DB42-AA0F-6AF83A2A5CA0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5A6441-5321-2847-A010-C5649CE6E24D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11040" yWindow="820" windowWidth="28800" windowHeight="16120" xr2:uid="{E8FAF0D3-A3C2-C441-AEDE-9CF197D671DA}"/>
+    <workbookView xWindow="580" yWindow="-19540" windowWidth="28800" windowHeight="16120" xr2:uid="{E8FAF0D3-A3C2-C441-AEDE-9CF197D671DA}"/>
   </bookViews>
   <sheets>
     <sheet name="General Info" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="60">
   <si>
     <t>k.rate</t>
   </si>
@@ -582,7 +582,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -591,9 +591,7 @@
       <c r="A1" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="I1" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -720,7 +718,7 @@
   <dimension ref="A1:P446"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+      <selection activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1158,7 +1156,7 @@
         <v>28</v>
       </c>
       <c r="N14">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="O14">
         <v>5.7000000000000002E-2</v>
@@ -1178,7 +1176,7 @@
         <v>26</v>
       </c>
       <c r="M15">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="N15" t="s">
         <v>28</v>
@@ -5173,7 +5171,7 @@
   <dimension ref="A1:P1718"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19799,7 +19797,7 @@
   <dimension ref="A1:P1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+      <selection activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -30600,7 +30598,7 @@
   <dimension ref="A1:P1022"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/table_corhmm/SummaryTable_corHMM.xlsx
+++ b/table_corhmm/SummaryTable_corHMM.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesboyko/2021_SeedDispersal/table_corhmm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5A6441-5321-2847-A010-C5649CE6E24D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347DB19A-73E6-B542-885C-C021BDF5E1EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="-19540" windowWidth="28800" windowHeight="16120" xr2:uid="{E8FAF0D3-A3C2-C441-AEDE-9CF197D671DA}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19600" activeTab="1" xr2:uid="{E8FAF0D3-A3C2-C441-AEDE-9CF197D671DA}"/>
   </bookViews>
   <sheets>
     <sheet name="General Info" sheetId="1" r:id="rId1"/>
-    <sheet name="Ericaceae" sheetId="2" r:id="rId2"/>
-    <sheet name="Melastomataceae" sheetId="3" r:id="rId3"/>
-    <sheet name="Rosaceae" sheetId="4" r:id="rId4"/>
-    <sheet name="Solanaceae" sheetId="5" r:id="rId5"/>
+    <sheet name="Apocynaceae" sheetId="6" r:id="rId2"/>
+    <sheet name="Ericaceae" sheetId="2" r:id="rId3"/>
+    <sheet name="Melastomataceae" sheetId="3" r:id="rId4"/>
+    <sheet name="Rosaceae" sheetId="4" r:id="rId5"/>
+    <sheet name="Solanaceae" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="68">
   <si>
     <t>k.rate</t>
   </si>
@@ -218,6 +219,30 @@
   </si>
   <si>
     <t>Rate class 1: equal rates, Rate class 2: all rates differ, Parametr process: all rates differ</t>
+  </si>
+  <si>
+    <t>(1,R1) 71%</t>
+  </si>
+  <si>
+    <t>(2,R1) 96%</t>
+  </si>
+  <si>
+    <t>(1,R1) 56%</t>
+  </si>
+  <si>
+    <t>(1,R1) 63%</t>
+  </si>
+  <si>
+    <t>(2,R2) 83%</t>
+  </si>
+  <si>
+    <t>(2,R2) 74%</t>
+  </si>
+  <si>
+    <t>(2,R1) 99%</t>
+  </si>
+  <si>
+    <t>(2,R1) 95%</t>
   </si>
 </sst>
 </file>
@@ -581,7 +606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89DE289F-74B7-1B4A-87DA-6F6B16CFC35D}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
@@ -714,11 +739,9232 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED5F347F-75C7-CF48-AEED-73DA62BF4F4D}">
+  <dimension ref="A1:P1043"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>232.46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4">
+        <v>0.238157708822649</v>
+      </c>
+      <c r="I4">
+        <v>0.76184229117735003</v>
+      </c>
+      <c r="L4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="O4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>207.54</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>0.01</v>
+      </c>
+      <c r="F5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5">
+        <v>0.217181056231876</v>
+      </c>
+      <c r="I5">
+        <v>0.782818943768124</v>
+      </c>
+      <c r="L5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>175.47</v>
+      </c>
+      <c r="D6">
+        <v>0.04</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6">
+        <v>0.17820930129920601</v>
+      </c>
+      <c r="I6">
+        <v>0.82179069870079402</v>
+      </c>
+      <c r="M6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>172.52</v>
+      </c>
+      <c r="D7">
+        <v>0.17</v>
+      </c>
+      <c r="E7">
+        <v>0.01</v>
+      </c>
+      <c r="F7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7">
+        <v>0.18665972291969399</v>
+      </c>
+      <c r="I7">
+        <v>0.81334027708030598</v>
+      </c>
+      <c r="M7" t="s">
+        <v>40</v>
+      </c>
+      <c r="N7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>173.14</v>
+      </c>
+      <c r="D8">
+        <v>0.12</v>
+      </c>
+      <c r="E8">
+        <v>0.04</v>
+      </c>
+      <c r="F8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8">
+        <v>0.18708059356995399</v>
+      </c>
+      <c r="I8">
+        <v>0.81291940643004601</v>
+      </c>
+      <c r="K8" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N8" t="s">
+        <v>26</v>
+      </c>
+      <c r="O8" t="s">
+        <v>39</v>
+      </c>
+      <c r="P8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>171.19</v>
+      </c>
+      <c r="D9">
+        <v>0.33</v>
+      </c>
+      <c r="E9">
+        <v>0.03</v>
+      </c>
+      <c r="F9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9">
+        <v>0.18736134885171801</v>
+      </c>
+      <c r="I9">
+        <v>0.81263865114828204</v>
+      </c>
+      <c r="L9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N9">
+        <v>1E-3</v>
+      </c>
+      <c r="O9" t="s">
+        <v>39</v>
+      </c>
+      <c r="P9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>172.29</v>
+      </c>
+      <c r="D10">
+        <v>0.19</v>
+      </c>
+      <c r="E10">
+        <v>0.03</v>
+      </c>
+      <c r="F10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10">
+        <v>0.188445079667413</v>
+      </c>
+      <c r="I10">
+        <v>0.81155492033258703</v>
+      </c>
+      <c r="L10" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10">
+        <v>0.01</v>
+      </c>
+      <c r="N10" t="s">
+        <v>28</v>
+      </c>
+      <c r="O10" t="s">
+        <v>39</v>
+      </c>
+      <c r="P10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>172.82</v>
+      </c>
+      <c r="D11">
+        <v>0.15</v>
+      </c>
+      <c r="E11">
+        <v>0.03</v>
+      </c>
+      <c r="F11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11">
+        <v>0.196287825353787</v>
+      </c>
+      <c r="I11">
+        <v>0.80371217464621303</v>
+      </c>
+      <c r="M11" t="s">
+        <v>29</v>
+      </c>
+      <c r="N11" t="s">
+        <v>29</v>
+      </c>
+      <c r="O11" t="s">
+        <v>29</v>
+      </c>
+      <c r="P11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H12">
+        <v>0.20474715899771401</v>
+      </c>
+      <c r="I12">
+        <v>0.79525284100228599</v>
+      </c>
+      <c r="M12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N12" t="s">
+        <v>40</v>
+      </c>
+      <c r="O12" t="s">
+        <v>40</v>
+      </c>
+      <c r="P12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H13">
+        <v>6.8423404673045099E-3</v>
+      </c>
+      <c r="I13">
+        <v>0.99315765953269597</v>
+      </c>
+      <c r="K13" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N13" t="s">
+        <v>26</v>
+      </c>
+      <c r="O13" t="s">
+        <v>30</v>
+      </c>
+      <c r="P13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H14">
+        <v>4.0943978445038198E-3</v>
+      </c>
+      <c r="I14">
+        <v>0.99590560215549595</v>
+      </c>
+      <c r="L14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" t="s">
+        <v>28</v>
+      </c>
+      <c r="N14">
+        <v>1.2E-2</v>
+      </c>
+      <c r="O14">
+        <v>1E-3</v>
+      </c>
+      <c r="P14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H15">
+        <v>4.0901458448552499E-3</v>
+      </c>
+      <c r="I15">
+        <v>0.99590985415514499</v>
+      </c>
+      <c r="L15" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15">
+        <v>1.2E-2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>28</v>
+      </c>
+      <c r="O15" t="s">
+        <v>28</v>
+      </c>
+      <c r="P15">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H16" s="1">
+        <v>6.79360686304768E-6</v>
+      </c>
+      <c r="I16">
+        <v>0.99999320639313705</v>
+      </c>
+      <c r="L16" t="s">
+        <v>30</v>
+      </c>
+      <c r="M16">
+        <v>1E-3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>28</v>
+      </c>
+      <c r="O16" t="s">
+        <v>28</v>
+      </c>
+      <c r="P16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H17" s="1">
+        <v>5.5695865577637199E-6</v>
+      </c>
+      <c r="I17">
+        <v>0.99999443041344205</v>
+      </c>
+      <c r="L17" t="s">
+        <v>31</v>
+      </c>
+      <c r="M17" t="s">
+        <v>28</v>
+      </c>
+      <c r="N17">
+        <v>1E-3</v>
+      </c>
+      <c r="O17" t="s">
+        <v>6</v>
+      </c>
+      <c r="P17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H18">
+        <v>4.23182275633719E-4</v>
+      </c>
+      <c r="I18">
+        <v>0.99957681772436602</v>
+      </c>
+      <c r="M18" t="s">
+        <v>29</v>
+      </c>
+      <c r="N18" t="s">
+        <v>29</v>
+      </c>
+      <c r="O18" t="s">
+        <v>29</v>
+      </c>
+      <c r="P18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H19">
+        <v>4.2164444447522999E-4</v>
+      </c>
+      <c r="I19">
+        <v>0.99957835555552499</v>
+      </c>
+      <c r="M19" t="s">
+        <v>40</v>
+      </c>
+      <c r="N19" t="s">
+        <v>40</v>
+      </c>
+      <c r="O19" t="s">
+        <v>40</v>
+      </c>
+      <c r="P19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H20">
+        <v>0.65143975272647503</v>
+      </c>
+      <c r="I20">
+        <v>0.34856024727352503</v>
+      </c>
+      <c r="K20" t="s">
+        <v>34</v>
+      </c>
+      <c r="M20" t="s">
+        <v>25</v>
+      </c>
+      <c r="N20" t="s">
+        <v>26</v>
+      </c>
+      <c r="O20" t="s">
+        <v>30</v>
+      </c>
+      <c r="P20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H21">
+        <v>0.80109011132886798</v>
+      </c>
+      <c r="I21">
+        <v>0.19890988867113199</v>
+      </c>
+      <c r="L21" t="s">
+        <v>25</v>
+      </c>
+      <c r="M21" t="s">
+        <v>28</v>
+      </c>
+      <c r="N21">
+        <v>2.4E-2</v>
+      </c>
+      <c r="O21">
+        <v>1.6E-2</v>
+      </c>
+      <c r="P21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H22">
+        <v>0.81646162673859901</v>
+      </c>
+      <c r="I22">
+        <v>0.18353837326140099</v>
+      </c>
+      <c r="L22" t="s">
+        <v>26</v>
+      </c>
+      <c r="M22">
+        <v>2.4E-2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>28</v>
+      </c>
+      <c r="O22" t="s">
+        <v>28</v>
+      </c>
+      <c r="P22">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H23">
+        <v>0.85656845365754897</v>
+      </c>
+      <c r="I23">
+        <v>0.14343154634245101</v>
+      </c>
+      <c r="L23" t="s">
+        <v>30</v>
+      </c>
+      <c r="M23">
+        <v>1E-3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>28</v>
+      </c>
+      <c r="O23" t="s">
+        <v>28</v>
+      </c>
+      <c r="P23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H24">
+        <v>0.86701397805095204</v>
+      </c>
+      <c r="I24">
+        <v>0.13298602194904799</v>
+      </c>
+      <c r="L24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M24" t="s">
+        <v>28</v>
+      </c>
+      <c r="N24">
+        <v>1E-3</v>
+      </c>
+      <c r="O24" t="s">
+        <v>6</v>
+      </c>
+      <c r="P24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H25">
+        <v>0.97481835333820399</v>
+      </c>
+      <c r="I25">
+        <v>2.5181646661795499E-2</v>
+      </c>
+      <c r="M25" t="s">
+        <v>29</v>
+      </c>
+      <c r="N25" t="s">
+        <v>29</v>
+      </c>
+      <c r="O25" t="s">
+        <v>29</v>
+      </c>
+      <c r="P25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H26">
+        <v>0.99316621925927595</v>
+      </c>
+      <c r="I26">
+        <v>6.83378074072441E-3</v>
+      </c>
+      <c r="M26" t="s">
+        <v>40</v>
+      </c>
+      <c r="N26" t="s">
+        <v>40</v>
+      </c>
+      <c r="O26" t="s">
+        <v>40</v>
+      </c>
+      <c r="P26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H27">
+        <v>0.99404889295044796</v>
+      </c>
+      <c r="I27">
+        <v>5.9511070495516403E-3</v>
+      </c>
+      <c r="K27" t="s">
+        <v>35</v>
+      </c>
+      <c r="M27" t="s">
+        <v>25</v>
+      </c>
+      <c r="N27" t="s">
+        <v>26</v>
+      </c>
+      <c r="O27" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H28">
+        <v>0.99750629064125695</v>
+      </c>
+      <c r="I28">
+        <v>2.4937093587427401E-3</v>
+      </c>
+      <c r="L28" t="s">
+        <v>25</v>
+      </c>
+      <c r="M28" t="s">
+        <v>28</v>
+      </c>
+      <c r="N28">
+        <v>3.9E-2</v>
+      </c>
+      <c r="O28">
+        <v>1E-3</v>
+      </c>
+      <c r="P28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H29">
+        <v>0.999526335347521</v>
+      </c>
+      <c r="I29">
+        <v>4.73664652479442E-4</v>
+      </c>
+      <c r="L29" t="s">
+        <v>26</v>
+      </c>
+      <c r="M29">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="N29" t="s">
+        <v>28</v>
+      </c>
+      <c r="O29" t="s">
+        <v>28</v>
+      </c>
+      <c r="P29">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H30">
+        <v>0.99618166546554798</v>
+      </c>
+      <c r="I30">
+        <v>3.8183345344524199E-3</v>
+      </c>
+      <c r="L30" t="s">
+        <v>30</v>
+      </c>
+      <c r="M30">
+        <v>1E-3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>28</v>
+      </c>
+      <c r="O30" t="s">
+        <v>28</v>
+      </c>
+      <c r="P30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H31">
+        <v>0.999113467104779</v>
+      </c>
+      <c r="I31">
+        <v>8.8653289522106003E-4</v>
+      </c>
+      <c r="L31" t="s">
+        <v>31</v>
+      </c>
+      <c r="M31" t="s">
+        <v>28</v>
+      </c>
+      <c r="N31">
+        <v>1E-3</v>
+      </c>
+      <c r="O31">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="P31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H32">
+        <v>0.99976206116357003</v>
+      </c>
+      <c r="I32">
+        <v>2.3793883642995301E-4</v>
+      </c>
+      <c r="M32" t="s">
+        <v>29</v>
+      </c>
+      <c r="N32" t="s">
+        <v>29</v>
+      </c>
+      <c r="O32" t="s">
+        <v>29</v>
+      </c>
+      <c r="P32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H33">
+        <v>0.99980309838932602</v>
+      </c>
+      <c r="I33">
+        <v>1.9690161067431901E-4</v>
+      </c>
+      <c r="M33" t="s">
+        <v>40</v>
+      </c>
+      <c r="N33" t="s">
+        <v>40</v>
+      </c>
+      <c r="O33" t="s">
+        <v>40</v>
+      </c>
+      <c r="P33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H34">
+        <v>0.999880078098073</v>
+      </c>
+      <c r="I34">
+        <v>1.19921901926779E-4</v>
+      </c>
+      <c r="K34" t="s">
+        <v>36</v>
+      </c>
+      <c r="M34" t="s">
+        <v>25</v>
+      </c>
+      <c r="N34" t="s">
+        <v>26</v>
+      </c>
+      <c r="O34" t="s">
+        <v>30</v>
+      </c>
+      <c r="P34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H35">
+        <v>0.99988678139307197</v>
+      </c>
+      <c r="I35">
+        <v>1.13218606928415E-4</v>
+      </c>
+      <c r="L35" t="s">
+        <v>25</v>
+      </c>
+      <c r="M35" t="s">
+        <v>28</v>
+      </c>
+      <c r="N35" t="s">
+        <v>6</v>
+      </c>
+      <c r="O35">
+        <v>1E-3</v>
+      </c>
+      <c r="P35" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H36">
+        <v>0.999786914212063</v>
+      </c>
+      <c r="I36">
+        <v>2.1308578793655599E-4</v>
+      </c>
+      <c r="L36" t="s">
+        <v>26</v>
+      </c>
+      <c r="M36">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="N36" t="s">
+        <v>28</v>
+      </c>
+      <c r="O36" t="s">
+        <v>28</v>
+      </c>
+      <c r="P36">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H37">
+        <v>0.999822551720976</v>
+      </c>
+      <c r="I37">
+        <v>1.7744827902341399E-4</v>
+      </c>
+      <c r="L37" t="s">
+        <v>30</v>
+      </c>
+      <c r="M37">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>28</v>
+      </c>
+      <c r="O37" t="s">
+        <v>28</v>
+      </c>
+      <c r="P37">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H38">
+        <v>0.99991039885719502</v>
+      </c>
+      <c r="I38" s="1">
+        <v>8.9601142804701995E-5</v>
+      </c>
+      <c r="L38" t="s">
+        <v>31</v>
+      </c>
+      <c r="M38" t="s">
+        <v>28</v>
+      </c>
+      <c r="N38">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="O38">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="P38" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H39">
+        <v>0.99991050901279099</v>
+      </c>
+      <c r="I39" s="1">
+        <v>8.94909872084457E-5</v>
+      </c>
+      <c r="M39" t="s">
+        <v>29</v>
+      </c>
+      <c r="N39" t="s">
+        <v>29</v>
+      </c>
+      <c r="O39" t="s">
+        <v>29</v>
+      </c>
+      <c r="P39" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H40">
+        <v>0.99990949365681003</v>
+      </c>
+      <c r="I40" s="1">
+        <v>9.0506343190250405E-5</v>
+      </c>
+      <c r="M40" t="s">
+        <v>40</v>
+      </c>
+      <c r="N40" t="s">
+        <v>40</v>
+      </c>
+      <c r="O40" t="s">
+        <v>40</v>
+      </c>
+      <c r="P40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H41">
+        <v>0.99989939643062198</v>
+      </c>
+      <c r="I41">
+        <v>1.0060356937750401E-4</v>
+      </c>
+      <c r="K41" t="s">
+        <v>37</v>
+      </c>
+      <c r="M41" t="s">
+        <v>25</v>
+      </c>
+      <c r="N41" t="s">
+        <v>26</v>
+      </c>
+      <c r="O41" t="s">
+        <v>30</v>
+      </c>
+      <c r="P41" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H42">
+        <v>0.99992828269696599</v>
+      </c>
+      <c r="I42" s="1">
+        <v>7.1717303034408295E-5</v>
+      </c>
+      <c r="L42" t="s">
+        <v>25</v>
+      </c>
+      <c r="M42" t="s">
+        <v>28</v>
+      </c>
+      <c r="N42">
+        <v>1E-3</v>
+      </c>
+      <c r="O42">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="P42" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H43">
+        <v>0.99990698554255497</v>
+      </c>
+      <c r="I43" s="1">
+        <v>9.3014457445158197E-5</v>
+      </c>
+      <c r="L43" t="s">
+        <v>26</v>
+      </c>
+      <c r="M43">
+        <v>1E-3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>28</v>
+      </c>
+      <c r="O43" t="s">
+        <v>28</v>
+      </c>
+      <c r="P43">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H44">
+        <v>0.99988911094380595</v>
+      </c>
+      <c r="I44">
+        <v>1.10889056193718E-4</v>
+      </c>
+      <c r="L44" t="s">
+        <v>30</v>
+      </c>
+      <c r="M44">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>28</v>
+      </c>
+      <c r="O44" t="s">
+        <v>28</v>
+      </c>
+      <c r="P44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H45">
+        <v>0.99980442065685904</v>
+      </c>
+      <c r="I45">
+        <v>1.95579343140512E-4</v>
+      </c>
+      <c r="L45" t="s">
+        <v>31</v>
+      </c>
+      <c r="M45" t="s">
+        <v>28</v>
+      </c>
+      <c r="N45">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="O45">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="P45" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H46">
+        <v>0.99982139385166902</v>
+      </c>
+      <c r="I46">
+        <v>1.78606148331381E-4</v>
+      </c>
+      <c r="M46" t="s">
+        <v>29</v>
+      </c>
+      <c r="N46" t="s">
+        <v>29</v>
+      </c>
+      <c r="O46" t="s">
+        <v>29</v>
+      </c>
+      <c r="P46" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H47">
+        <v>0.99981744700397701</v>
+      </c>
+      <c r="I47">
+        <v>1.8255299602262101E-4</v>
+      </c>
+      <c r="M47" t="s">
+        <v>40</v>
+      </c>
+      <c r="N47" t="s">
+        <v>40</v>
+      </c>
+      <c r="O47" t="s">
+        <v>40</v>
+      </c>
+      <c r="P47" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H48">
+        <v>0.99974532546952899</v>
+      </c>
+      <c r="I48">
+        <v>2.54674530471318E-4</v>
+      </c>
+      <c r="K48" t="s">
+        <v>38</v>
+      </c>
+      <c r="M48" t="s">
+        <v>25</v>
+      </c>
+      <c r="N48" t="s">
+        <v>26</v>
+      </c>
+      <c r="O48" t="s">
+        <v>30</v>
+      </c>
+      <c r="P48" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H49">
+        <v>0.99974617812760402</v>
+      </c>
+      <c r="I49">
+        <v>2.53821872396253E-4</v>
+      </c>
+      <c r="L49" t="s">
+        <v>25</v>
+      </c>
+      <c r="M49" t="s">
+        <v>28</v>
+      </c>
+      <c r="N49">
+        <v>2E-3</v>
+      </c>
+      <c r="O49">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="P49" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H50">
+        <v>0.99976826974317801</v>
+      </c>
+      <c r="I50">
+        <v>2.3173025682220099E-4</v>
+      </c>
+      <c r="L50" t="s">
+        <v>26</v>
+      </c>
+      <c r="M50">
+        <v>2E-3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>28</v>
+      </c>
+      <c r="O50" t="s">
+        <v>28</v>
+      </c>
+      <c r="P50">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H51">
+        <v>0.99984940596771299</v>
+      </c>
+      <c r="I51">
+        <v>1.50594032286608E-4</v>
+      </c>
+      <c r="L51" t="s">
+        <v>30</v>
+      </c>
+      <c r="M51">
+        <v>2E-3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>28</v>
+      </c>
+      <c r="O51" t="s">
+        <v>28</v>
+      </c>
+      <c r="P51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H52">
+        <v>0.99397664446955802</v>
+      </c>
+      <c r="I52">
+        <v>6.0233555304419397E-3</v>
+      </c>
+      <c r="L52" t="s">
+        <v>31</v>
+      </c>
+      <c r="M52" t="s">
+        <v>28</v>
+      </c>
+      <c r="N52">
+        <v>2E-3</v>
+      </c>
+      <c r="O52">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="P52" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H53">
+        <v>0.99883563225037897</v>
+      </c>
+      <c r="I53">
+        <v>1.1643677496209601E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H54">
+        <v>0.99949838162823501</v>
+      </c>
+      <c r="I54">
+        <v>5.0161837176531201E-4</v>
+      </c>
+    </row>
+    <row r="55" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H55">
+        <v>0.98441146424338299</v>
+      </c>
+      <c r="I55">
+        <v>1.55885357566167E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H56">
+        <v>0.99939734112982404</v>
+      </c>
+      <c r="I56">
+        <v>6.0265887017629598E-4</v>
+      </c>
+    </row>
+    <row r="57" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H57">
+        <v>0.86934660983123702</v>
+      </c>
+      <c r="I57">
+        <v>0.13065339016876301</v>
+      </c>
+    </row>
+    <row r="58" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H58">
+        <v>0.87458967118585895</v>
+      </c>
+      <c r="I58">
+        <v>0.12541032881414099</v>
+      </c>
+    </row>
+    <row r="59" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H59">
+        <v>0.95459679695791899</v>
+      </c>
+      <c r="I59">
+        <v>4.54032030420808E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H60">
+        <v>0.97633985792053701</v>
+      </c>
+      <c r="I60">
+        <v>2.36601420794634E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H61">
+        <v>0.98612481921277595</v>
+      </c>
+      <c r="I61">
+        <v>1.3875180787224099E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H62">
+        <v>0.98830352688284495</v>
+      </c>
+      <c r="I62">
+        <v>1.16964731171545E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H63">
+        <v>0.98997336101840505</v>
+      </c>
+      <c r="I63">
+        <v>1.00266389815951E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H64">
+        <v>0.99339283477322404</v>
+      </c>
+      <c r="I64">
+        <v>6.6071652267761204E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H65">
+        <v>0.99775191336106195</v>
+      </c>
+      <c r="I65">
+        <v>2.24808663893766E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H66">
+        <v>0.998835938800678</v>
+      </c>
+      <c r="I66">
+        <v>1.1640611993216699E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H67">
+        <v>0.99914110096276598</v>
+      </c>
+      <c r="I67">
+        <v>8.5889903723419001E-4</v>
+      </c>
+    </row>
+    <row r="68" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H68">
+        <v>0.99914776297845698</v>
+      </c>
+      <c r="I68">
+        <v>8.5223702154321301E-4</v>
+      </c>
+    </row>
+    <row r="69" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H69">
+        <v>0.99927855586549597</v>
+      </c>
+      <c r="I69">
+        <v>7.2144413450414004E-4</v>
+      </c>
+    </row>
+    <row r="70" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H70">
+        <v>0.999505740527314</v>
+      </c>
+      <c r="I70">
+        <v>4.94259472686254E-4</v>
+      </c>
+    </row>
+    <row r="71" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H71">
+        <v>0.99971664163468799</v>
+      </c>
+      <c r="I71">
+        <v>2.8335836531145702E-4</v>
+      </c>
+    </row>
+    <row r="72" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H72">
+        <v>0.99983698941767796</v>
+      </c>
+      <c r="I72">
+        <v>1.6301058232158101E-4</v>
+      </c>
+    </row>
+    <row r="73" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H73">
+        <v>0.99997581711976402</v>
+      </c>
+      <c r="I73" s="1">
+        <v>2.41828802357736E-5</v>
+      </c>
+    </row>
+    <row r="74" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H74">
+        <v>0.99997605122410105</v>
+      </c>
+      <c r="I74" s="1">
+        <v>2.3948775899008802E-5</v>
+      </c>
+    </row>
+    <row r="75" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H75">
+        <v>0.99999684106364395</v>
+      </c>
+      <c r="I75" s="1">
+        <v>3.1589363563839E-6</v>
+      </c>
+    </row>
+    <row r="76" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H76">
+        <v>0.99999777190588701</v>
+      </c>
+      <c r="I76" s="1">
+        <v>2.2280941129018802E-6</v>
+      </c>
+    </row>
+    <row r="77" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H77">
+        <v>0.99999778311331</v>
+      </c>
+      <c r="I77" s="1">
+        <v>2.2168866902934699E-6</v>
+      </c>
+    </row>
+    <row r="78" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H78">
+        <v>0.99999697901638696</v>
+      </c>
+      <c r="I78" s="1">
+        <v>3.02098361354035E-6</v>
+      </c>
+    </row>
+    <row r="79" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H79">
+        <v>0.99999152693053495</v>
+      </c>
+      <c r="I79" s="1">
+        <v>8.4730694652420099E-6</v>
+      </c>
+    </row>
+    <row r="80" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H80">
+        <v>0.99999965277340197</v>
+      </c>
+      <c r="I80" s="1">
+        <v>3.4722659829705097E-7</v>
+      </c>
+    </row>
+    <row r="81" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H81">
+        <v>0.999999513100429</v>
+      </c>
+      <c r="I81" s="1">
+        <v>4.8689957140437202E-7</v>
+      </c>
+    </row>
+    <row r="82" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H82">
+        <v>0.99999980903650099</v>
+      </c>
+      <c r="I82" s="1">
+        <v>1.9096349937570901E-7</v>
+      </c>
+    </row>
+    <row r="83" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H83">
+        <v>0.99999670267988106</v>
+      </c>
+      <c r="I83" s="1">
+        <v>3.29732011930175E-6</v>
+      </c>
+    </row>
+    <row r="84" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H84">
+        <v>0.99999983599773501</v>
+      </c>
+      <c r="I84" s="1">
+        <v>1.6400226491441801E-7</v>
+      </c>
+    </row>
+    <row r="85" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H85">
+        <v>0.999999827475474</v>
+      </c>
+      <c r="I85" s="1">
+        <v>1.7252452628352299E-7</v>
+      </c>
+    </row>
+    <row r="86" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H86">
+        <v>0.99999967997017503</v>
+      </c>
+      <c r="I86" s="1">
+        <v>3.2002982533267101E-7</v>
+      </c>
+    </row>
+    <row r="87" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H87">
+        <v>0.99999951773748796</v>
+      </c>
+      <c r="I87" s="1">
+        <v>4.8226251153581704E-7</v>
+      </c>
+    </row>
+    <row r="88" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H88">
+        <v>0.99999956411563695</v>
+      </c>
+      <c r="I88" s="1">
+        <v>4.3588436329058202E-7</v>
+      </c>
+    </row>
+    <row r="89" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H89">
+        <v>0.99999842886887902</v>
+      </c>
+      <c r="I89" s="1">
+        <v>1.5711311207434401E-6</v>
+      </c>
+    </row>
+    <row r="90" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H90">
+        <v>0.99999811483892198</v>
+      </c>
+      <c r="I90" s="1">
+        <v>1.8851610782245201E-6</v>
+      </c>
+    </row>
+    <row r="91" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H91">
+        <v>0.99999050250287902</v>
+      </c>
+      <c r="I91" s="1">
+        <v>9.4974971214640404E-6</v>
+      </c>
+    </row>
+    <row r="92" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H92">
+        <v>0.99999767331483402</v>
+      </c>
+      <c r="I92" s="1">
+        <v>2.3266851656915299E-6</v>
+      </c>
+    </row>
+    <row r="93" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H93">
+        <v>0.99999941651448498</v>
+      </c>
+      <c r="I93" s="1">
+        <v>5.8348551490388598E-7</v>
+      </c>
+    </row>
+    <row r="94" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H94">
+        <v>0.99999997577727495</v>
+      </c>
+      <c r="I94" s="1">
+        <v>2.4222724899569E-8</v>
+      </c>
+    </row>
+    <row r="95" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H95">
+        <v>0.999999998648197</v>
+      </c>
+      <c r="I95" s="1">
+        <v>1.35180324601541E-9</v>
+      </c>
+    </row>
+    <row r="96" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H96">
+        <v>0.99999152179572603</v>
+      </c>
+      <c r="I96" s="1">
+        <v>8.4782042744240794E-6</v>
+      </c>
+    </row>
+    <row r="97" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H97">
+        <v>0.99999703600475498</v>
+      </c>
+      <c r="I97" s="1">
+        <v>2.9639952444697598E-6</v>
+      </c>
+    </row>
+    <row r="98" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H98">
+        <v>0.99998867775895495</v>
+      </c>
+      <c r="I98" s="1">
+        <v>1.1322241044905999E-5</v>
+      </c>
+    </row>
+    <row r="99" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H99">
+        <v>0.99998427157982095</v>
+      </c>
+      <c r="I99" s="1">
+        <v>1.5728420179192501E-5</v>
+      </c>
+    </row>
+    <row r="100" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H100">
+        <v>0.99999528605669696</v>
+      </c>
+      <c r="I100" s="1">
+        <v>4.7139433029073803E-6</v>
+      </c>
+    </row>
+    <row r="101" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H101">
+        <v>0.99999557101403602</v>
+      </c>
+      <c r="I101" s="1">
+        <v>4.4289859640031397E-6</v>
+      </c>
+    </row>
+    <row r="102" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H102">
+        <v>0.99999668394541796</v>
+      </c>
+      <c r="I102" s="1">
+        <v>3.3160545822600799E-6</v>
+      </c>
+    </row>
+    <row r="103" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H103">
+        <v>0.99998935672710398</v>
+      </c>
+      <c r="I103" s="1">
+        <v>1.06432728962636E-5</v>
+      </c>
+    </row>
+    <row r="104" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H104">
+        <v>0.99999848061986596</v>
+      </c>
+      <c r="I104" s="1">
+        <v>1.5193801340257E-6</v>
+      </c>
+    </row>
+    <row r="105" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H105">
+        <v>0.99999844164599805</v>
+      </c>
+      <c r="I105" s="1">
+        <v>1.55835400214857E-6</v>
+      </c>
+    </row>
+    <row r="106" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H106">
+        <v>0.99999852890267704</v>
+      </c>
+      <c r="I106" s="1">
+        <v>1.4710973224805099E-6</v>
+      </c>
+    </row>
+    <row r="107" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H107">
+        <v>0.99999847820606602</v>
+      </c>
+      <c r="I107" s="1">
+        <v>1.5217939339204299E-6</v>
+      </c>
+    </row>
+    <row r="108" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H108">
+        <v>0.99999993637478102</v>
+      </c>
+      <c r="I108" s="1">
+        <v>6.3625218780867894E-8</v>
+      </c>
+    </row>
+    <row r="109" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H109">
+        <v>0.99999994936091297</v>
+      </c>
+      <c r="I109" s="1">
+        <v>5.0639087511520297E-8</v>
+      </c>
+    </row>
+    <row r="110" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H110">
+        <v>0.99999995783959195</v>
+      </c>
+      <c r="I110" s="1">
+        <v>4.2160407660419799E-8</v>
+      </c>
+    </row>
+    <row r="111" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H111">
+        <v>0.999999963436492</v>
+      </c>
+      <c r="I111" s="1">
+        <v>3.6563508245739602E-8</v>
+      </c>
+    </row>
+    <row r="112" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H112">
+        <v>0.99999996189777995</v>
+      </c>
+      <c r="I112" s="1">
+        <v>3.8102219847924297E-8</v>
+      </c>
+    </row>
+    <row r="113" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H113">
+        <v>0.99999994266168701</v>
+      </c>
+      <c r="I113" s="1">
+        <v>5.7338312724976301E-8</v>
+      </c>
+    </row>
+    <row r="114" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H114">
+        <v>0.999999959362879</v>
+      </c>
+      <c r="I114" s="1">
+        <v>4.0637120962893701E-8</v>
+      </c>
+    </row>
+    <row r="115" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H115">
+        <v>0.99999981408091698</v>
+      </c>
+      <c r="I115" s="1">
+        <v>1.85919083289757E-7</v>
+      </c>
+    </row>
+    <row r="116" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H116">
+        <v>0.99999985464624297</v>
+      </c>
+      <c r="I116" s="1">
+        <v>1.4535375710756801E-7</v>
+      </c>
+    </row>
+    <row r="117" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H117">
+        <v>0.99999985339604502</v>
+      </c>
+      <c r="I117" s="1">
+        <v>1.4660395500042201E-7</v>
+      </c>
+    </row>
+    <row r="118" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H118">
+        <v>0.99999983889649802</v>
+      </c>
+      <c r="I118" s="1">
+        <v>1.6110350165058301E-7</v>
+      </c>
+    </row>
+    <row r="119" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H119">
+        <v>0.99999981149239303</v>
+      </c>
+      <c r="I119" s="1">
+        <v>1.8850760686748401E-7</v>
+      </c>
+    </row>
+    <row r="120" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H120">
+        <v>0.99999932285055004</v>
+      </c>
+      <c r="I120" s="1">
+        <v>6.7714944951581401E-7</v>
+      </c>
+    </row>
+    <row r="121" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H121">
+        <v>0.99999845431312595</v>
+      </c>
+      <c r="I121" s="1">
+        <v>1.5456868743248201E-6</v>
+      </c>
+    </row>
+    <row r="122" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H122">
+        <v>0.99999896061031901</v>
+      </c>
+      <c r="I122" s="1">
+        <v>1.0393896805266999E-6</v>
+      </c>
+    </row>
+    <row r="123" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H123">
+        <v>0.99999892540882096</v>
+      </c>
+      <c r="I123" s="1">
+        <v>1.0745911787081299E-6</v>
+      </c>
+    </row>
+    <row r="124" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H124">
+        <v>0.99999981642943803</v>
+      </c>
+      <c r="I124" s="1">
+        <v>1.8357056230738799E-7</v>
+      </c>
+    </row>
+    <row r="125" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H125">
+        <v>0.99999978994893102</v>
+      </c>
+      <c r="I125" s="1">
+        <v>2.1005106930143501E-7</v>
+      </c>
+    </row>
+    <row r="126" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H126">
+        <v>0.999999053028365</v>
+      </c>
+      <c r="I126" s="1">
+        <v>9.4697163509626997E-7</v>
+      </c>
+    </row>
+    <row r="127" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H127">
+        <v>0.999999652723079</v>
+      </c>
+      <c r="I127" s="1">
+        <v>3.4727692160654999E-7</v>
+      </c>
+    </row>
+    <row r="128" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H128">
+        <v>0.99999209063689198</v>
+      </c>
+      <c r="I128" s="1">
+        <v>7.9093631084647302E-6</v>
+      </c>
+    </row>
+    <row r="129" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H129">
+        <v>0.99999200866208005</v>
+      </c>
+      <c r="I129" s="1">
+        <v>7.9913379200289308E-6</v>
+      </c>
+    </row>
+    <row r="130" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H130">
+        <v>0.99999995704801503</v>
+      </c>
+      <c r="I130" s="1">
+        <v>4.2951984869578901E-8</v>
+      </c>
+    </row>
+    <row r="131" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H131">
+        <v>0.999999947655414</v>
+      </c>
+      <c r="I131" s="1">
+        <v>5.2344586315499898E-8</v>
+      </c>
+    </row>
+    <row r="132" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H132">
+        <v>0.99999991571315705</v>
+      </c>
+      <c r="I132" s="1">
+        <v>8.42868431000162E-8</v>
+      </c>
+    </row>
+    <row r="133" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H133">
+        <v>0.99999965116337197</v>
+      </c>
+      <c r="I133" s="1">
+        <v>3.4883662832351501E-7</v>
+      </c>
+    </row>
+    <row r="134" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H134">
+        <v>0.999994416226196</v>
+      </c>
+      <c r="I134" s="1">
+        <v>5.5837738043106299E-6</v>
+      </c>
+    </row>
+    <row r="135" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H135">
+        <v>0.99999686730495996</v>
+      </c>
+      <c r="I135" s="1">
+        <v>3.1326950401668002E-6</v>
+      </c>
+    </row>
+    <row r="136" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H136">
+        <v>0.99999988222008196</v>
+      </c>
+      <c r="I136" s="1">
+        <v>1.17779918228905E-7</v>
+      </c>
+    </row>
+    <row r="137" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H137">
+        <v>0.999999886715641</v>
+      </c>
+      <c r="I137" s="1">
+        <v>1.13284358533858E-7</v>
+      </c>
+    </row>
+    <row r="138" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H138">
+        <v>0.99999989198723005</v>
+      </c>
+      <c r="I138" s="1">
+        <v>1.08012769843688E-7</v>
+      </c>
+    </row>
+    <row r="139" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H139">
+        <v>0.99999668924872898</v>
+      </c>
+      <c r="I139" s="1">
+        <v>3.31075127061601E-6</v>
+      </c>
+    </row>
+    <row r="140" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H140">
+        <v>0.99999987259562395</v>
+      </c>
+      <c r="I140" s="1">
+        <v>1.2740437641432901E-7</v>
+      </c>
+    </row>
+    <row r="141" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H141">
+        <v>0.99999959877238298</v>
+      </c>
+      <c r="I141" s="1">
+        <v>4.01227617490747E-7</v>
+      </c>
+    </row>
+    <row r="142" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H142">
+        <v>0.99999930571786799</v>
+      </c>
+      <c r="I142" s="1">
+        <v>6.9428213199776695E-7</v>
+      </c>
+    </row>
+    <row r="143" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H143">
+        <v>0.99999671534475298</v>
+      </c>
+      <c r="I143" s="1">
+        <v>3.2846552471231599E-6</v>
+      </c>
+    </row>
+    <row r="144" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H144">
+        <v>0.999999826312851</v>
+      </c>
+      <c r="I144" s="1">
+        <v>1.73687148877052E-7</v>
+      </c>
+    </row>
+    <row r="145" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H145">
+        <v>0.99999910324879404</v>
+      </c>
+      <c r="I145" s="1">
+        <v>8.9675120600830501E-7</v>
+      </c>
+    </row>
+    <row r="146" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H146">
+        <v>0.99999946992885802</v>
+      </c>
+      <c r="I146" s="1">
+        <v>5.3007114175203602E-7</v>
+      </c>
+    </row>
+    <row r="147" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H147">
+        <v>0.99999911215404003</v>
+      </c>
+      <c r="I147" s="1">
+        <v>8.8784596016917795E-7</v>
+      </c>
+    </row>
+    <row r="148" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H148">
+        <v>0.99999435810041704</v>
+      </c>
+      <c r="I148" s="1">
+        <v>5.6418995833845403E-6</v>
+      </c>
+    </row>
+    <row r="149" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H149">
+        <v>0.99999855106644797</v>
+      </c>
+      <c r="I149" s="1">
+        <v>1.4489335516926401E-6</v>
+      </c>
+    </row>
+    <row r="150" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H150">
+        <v>0.99999864557588203</v>
+      </c>
+      <c r="I150" s="1">
+        <v>1.3544241184072301E-6</v>
+      </c>
+    </row>
+    <row r="151" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H151">
+        <v>0.99999658852835305</v>
+      </c>
+      <c r="I151" s="1">
+        <v>3.41147164667645E-6</v>
+      </c>
+    </row>
+    <row r="152" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H152">
+        <v>0.99999918636512897</v>
+      </c>
+      <c r="I152" s="1">
+        <v>8.1363487065396904E-7</v>
+      </c>
+    </row>
+    <row r="153" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H153">
+        <v>0.99999868337807696</v>
+      </c>
+      <c r="I153" s="1">
+        <v>1.3166219227136201E-6</v>
+      </c>
+    </row>
+    <row r="154" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H154">
+        <v>0.99999865982918201</v>
+      </c>
+      <c r="I154" s="1">
+        <v>1.3401708184605701E-6</v>
+      </c>
+    </row>
+    <row r="155" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H155">
+        <v>0.99999975971501598</v>
+      </c>
+      <c r="I155" s="1">
+        <v>2.4028498437908902E-7</v>
+      </c>
+    </row>
+    <row r="156" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H156">
+        <v>0.99999918287824896</v>
+      </c>
+      <c r="I156" s="1">
+        <v>8.1712175084563904E-7</v>
+      </c>
+    </row>
+    <row r="157" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H157">
+        <v>0.99999935100781501</v>
+      </c>
+      <c r="I157" s="1">
+        <v>6.4899218483264903E-7</v>
+      </c>
+    </row>
+    <row r="158" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H158">
+        <v>0.99999736467581202</v>
+      </c>
+      <c r="I158" s="1">
+        <v>2.6353241876807102E-6</v>
+      </c>
+    </row>
+    <row r="159" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H159">
+        <v>0.99999727375066205</v>
+      </c>
+      <c r="I159" s="1">
+        <v>2.7262493376312398E-6</v>
+      </c>
+    </row>
+    <row r="160" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H160">
+        <v>0.99999986418017095</v>
+      </c>
+      <c r="I160" s="1">
+        <v>1.35819828842619E-7</v>
+      </c>
+    </row>
+    <row r="161" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H161">
+        <v>0.99999995465406399</v>
+      </c>
+      <c r="I161" s="1">
+        <v>4.5345935513679998E-8</v>
+      </c>
+    </row>
+    <row r="162" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H162">
+        <v>0.99999997255434603</v>
+      </c>
+      <c r="I162" s="1">
+        <v>2.74456542112382E-8</v>
+      </c>
+    </row>
+    <row r="163" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H163">
+        <v>0.99999998395707301</v>
+      </c>
+      <c r="I163" s="1">
+        <v>1.6042926900242799E-8</v>
+      </c>
+    </row>
+    <row r="164" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H164">
+        <v>0.99999998784923005</v>
+      </c>
+      <c r="I164" s="1">
+        <v>1.21507702119564E-8</v>
+      </c>
+    </row>
+    <row r="165" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H165">
+        <v>0.99999998808987001</v>
+      </c>
+      <c r="I165" s="1">
+        <v>1.19101302696074E-8</v>
+      </c>
+    </row>
+    <row r="166" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H166">
+        <v>0.99999997424484099</v>
+      </c>
+      <c r="I166" s="1">
+        <v>2.57551591231778E-8</v>
+      </c>
+    </row>
+    <row r="167" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H167">
+        <v>0.99999995208945303</v>
+      </c>
+      <c r="I167" s="1">
+        <v>4.79105467422268E-8</v>
+      </c>
+    </row>
+    <row r="168" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H168">
+        <v>0.99999987028134396</v>
+      </c>
+      <c r="I168" s="1">
+        <v>1.29718656481074E-7</v>
+      </c>
+    </row>
+    <row r="169" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H169">
+        <v>0.99999968891553304</v>
+      </c>
+      <c r="I169" s="1">
+        <v>3.1108446664613098E-7</v>
+      </c>
+    </row>
+    <row r="170" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H170">
+        <v>0.99999945986480698</v>
+      </c>
+      <c r="I170" s="1">
+        <v>5.4013519317355895E-7</v>
+      </c>
+    </row>
+    <row r="171" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H171">
+        <v>0.99999925463442696</v>
+      </c>
+      <c r="I171" s="1">
+        <v>7.4536557291140103E-7</v>
+      </c>
+    </row>
+    <row r="172" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H172">
+        <v>0.99999999081841096</v>
+      </c>
+      <c r="I172" s="1">
+        <v>9.1815893685944706E-9</v>
+      </c>
+    </row>
+    <row r="173" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H173">
+        <v>0.99999961041432905</v>
+      </c>
+      <c r="I173" s="1">
+        <v>3.8958567139303203E-7</v>
+      </c>
+    </row>
+    <row r="174" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H174">
+        <v>0.999999633215509</v>
+      </c>
+      <c r="I174" s="1">
+        <v>3.6678449062094798E-7</v>
+      </c>
+    </row>
+    <row r="175" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H175">
+        <v>0.99999937066686895</v>
+      </c>
+      <c r="I175" s="1">
+        <v>6.2933313111181096E-7</v>
+      </c>
+    </row>
+    <row r="176" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H176">
+        <v>0.99999969809432598</v>
+      </c>
+      <c r="I176" s="1">
+        <v>3.0190567353419801E-7</v>
+      </c>
+    </row>
+    <row r="177" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H177">
+        <v>0.99999892689349401</v>
+      </c>
+      <c r="I177" s="1">
+        <v>1.07310650626192E-6</v>
+      </c>
+    </row>
+    <row r="178" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H178">
+        <v>0.99999960869388005</v>
+      </c>
+      <c r="I178" s="1">
+        <v>3.9130611978762399E-7</v>
+      </c>
+    </row>
+    <row r="179" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H179">
+        <v>0.99999558432865598</v>
+      </c>
+      <c r="I179" s="1">
+        <v>4.41567134412514E-6</v>
+      </c>
+    </row>
+    <row r="180" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H180">
+        <v>0.99999542341740699</v>
+      </c>
+      <c r="I180" s="1">
+        <v>4.5765825928516797E-6</v>
+      </c>
+    </row>
+    <row r="181" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H181">
+        <v>0.99999267606727904</v>
+      </c>
+      <c r="I181" s="1">
+        <v>7.3239327207210999E-6</v>
+      </c>
+    </row>
+    <row r="182" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H182">
+        <v>0.99999448409745195</v>
+      </c>
+      <c r="I182" s="1">
+        <v>5.5159025476273999E-6</v>
+      </c>
+    </row>
+    <row r="183" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H183">
+        <v>0.99999026088550702</v>
+      </c>
+      <c r="I183" s="1">
+        <v>9.7391144931468793E-6</v>
+      </c>
+    </row>
+    <row r="184" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H184">
+        <v>0.99999552518181001</v>
+      </c>
+      <c r="I184" s="1">
+        <v>4.4748181904900001E-6</v>
+      </c>
+    </row>
+    <row r="185" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H185">
+        <v>0.99999690891260695</v>
+      </c>
+      <c r="I185" s="1">
+        <v>3.0910873926288198E-6</v>
+      </c>
+    </row>
+    <row r="186" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H186">
+        <v>0.99999811500423796</v>
+      </c>
+      <c r="I186" s="1">
+        <v>1.8849957618196301E-6</v>
+      </c>
+    </row>
+    <row r="187" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H187">
+        <v>0.99999976282348901</v>
+      </c>
+      <c r="I187" s="1">
+        <v>2.37176511139603E-7</v>
+      </c>
+    </row>
+    <row r="188" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H188">
+        <v>0.99999986226302096</v>
+      </c>
+      <c r="I188" s="1">
+        <v>1.3773697870847499E-7</v>
+      </c>
+    </row>
+    <row r="189" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H189">
+        <v>0.99999983779048096</v>
+      </c>
+      <c r="I189" s="1">
+        <v>1.62209519287219E-7</v>
+      </c>
+    </row>
+    <row r="190" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H190">
+        <v>0.99999383286697197</v>
+      </c>
+      <c r="I190" s="1">
+        <v>6.1671330276389299E-6</v>
+      </c>
+    </row>
+    <row r="191" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H191">
+        <v>0.99999973309277801</v>
+      </c>
+      <c r="I191" s="1">
+        <v>2.6690722177690998E-7</v>
+      </c>
+    </row>
+    <row r="192" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H192">
+        <v>0.99999752249296103</v>
+      </c>
+      <c r="I192" s="1">
+        <v>2.47750703846859E-6</v>
+      </c>
+    </row>
+    <row r="193" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H193">
+        <v>0.99999820365011305</v>
+      </c>
+      <c r="I193" s="1">
+        <v>1.79634988660057E-6</v>
+      </c>
+    </row>
+    <row r="194" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H194">
+        <v>0.99999817803659297</v>
+      </c>
+      <c r="I194" s="1">
+        <v>1.8219634071983201E-6</v>
+      </c>
+    </row>
+    <row r="195" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H195">
+        <v>0.99999946294503494</v>
+      </c>
+      <c r="I195" s="1">
+        <v>5.3705496526205698E-7</v>
+      </c>
+    </row>
+    <row r="196" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H196">
+        <v>0.99999972341104604</v>
+      </c>
+      <c r="I196" s="1">
+        <v>2.7658895404008597E-7</v>
+      </c>
+    </row>
+    <row r="197" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H197">
+        <v>0.99999962159570499</v>
+      </c>
+      <c r="I197" s="1">
+        <v>3.7840429458109098E-7</v>
+      </c>
+    </row>
+    <row r="198" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H198">
+        <v>0.99999949399340804</v>
+      </c>
+      <c r="I198" s="1">
+        <v>5.0600659177076005E-7</v>
+      </c>
+    </row>
+    <row r="199" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H199">
+        <v>0.99999657817418697</v>
+      </c>
+      <c r="I199" s="1">
+        <v>3.4218258130855998E-6</v>
+      </c>
+    </row>
+    <row r="200" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H200">
+        <v>0.99999922638682304</v>
+      </c>
+      <c r="I200" s="1">
+        <v>7.7361317685725402E-7</v>
+      </c>
+    </row>
+    <row r="201" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H201">
+        <v>0.99999998773054</v>
+      </c>
+      <c r="I201" s="1">
+        <v>1.22694595776914E-8</v>
+      </c>
+    </row>
+    <row r="202" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H202">
+        <v>0.999999722061788</v>
+      </c>
+      <c r="I202" s="1">
+        <v>2.77938211798635E-7</v>
+      </c>
+    </row>
+    <row r="203" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H203">
+        <v>0.99999246383263596</v>
+      </c>
+      <c r="I203" s="1">
+        <v>7.5361673646355997E-6</v>
+      </c>
+    </row>
+    <row r="204" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H204">
+        <v>0.99999858815559495</v>
+      </c>
+      <c r="I204" s="1">
+        <v>1.41184440483494E-6</v>
+      </c>
+    </row>
+    <row r="205" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H205">
+        <v>0.99999868964837002</v>
+      </c>
+      <c r="I205" s="1">
+        <v>1.3103516301486499E-6</v>
+      </c>
+    </row>
+    <row r="206" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H206">
+        <v>0.99999868986322804</v>
+      </c>
+      <c r="I206" s="1">
+        <v>1.31013677184695E-6</v>
+      </c>
+    </row>
+    <row r="207" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H207">
+        <v>0.99999859924343804</v>
+      </c>
+      <c r="I207" s="1">
+        <v>1.40075656226414E-6</v>
+      </c>
+    </row>
+    <row r="208" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H208">
+        <v>0.99999381100876095</v>
+      </c>
+      <c r="I208" s="1">
+        <v>6.1889912385965604E-6</v>
+      </c>
+    </row>
+    <row r="209" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H209">
+        <v>0.99999999211401303</v>
+      </c>
+      <c r="I209" s="1">
+        <v>7.8859874066738598E-9</v>
+      </c>
+    </row>
+    <row r="210" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H210">
+        <v>0.99997080810636996</v>
+      </c>
+      <c r="I210" s="1">
+        <v>2.9191893630068099E-5</v>
+      </c>
+    </row>
+    <row r="211" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H211">
+        <v>0.99999968891277402</v>
+      </c>
+      <c r="I211" s="1">
+        <v>3.1108722575044701E-7</v>
+      </c>
+    </row>
+    <row r="212" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H212">
+        <v>0.99999990019452201</v>
+      </c>
+      <c r="I212" s="1">
+        <v>9.9805478032334304E-8</v>
+      </c>
+    </row>
+    <row r="213" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H213">
+        <v>0.999999962630988</v>
+      </c>
+      <c r="I213" s="1">
+        <v>3.7369012005613101E-8</v>
+      </c>
+    </row>
+    <row r="214" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H214">
+        <v>0.99999998231811604</v>
+      </c>
+      <c r="I214" s="1">
+        <v>1.7681884229045999E-8</v>
+      </c>
+    </row>
+    <row r="215" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H215">
+        <v>0.99999998794674905</v>
+      </c>
+      <c r="I215" s="1">
+        <v>1.20532509165427E-8</v>
+      </c>
+    </row>
+    <row r="216" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H216">
+        <v>0.99999999433084197</v>
+      </c>
+      <c r="I216" s="1">
+        <v>5.6691583018965103E-9</v>
+      </c>
+    </row>
+    <row r="217" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H217">
+        <v>0.99999998742398499</v>
+      </c>
+      <c r="I217" s="1">
+        <v>1.2576015280014901E-8</v>
+      </c>
+    </row>
+    <row r="218" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H218">
+        <v>0.99999996808602098</v>
+      </c>
+      <c r="I218" s="1">
+        <v>3.1913978564781098E-8</v>
+      </c>
+    </row>
+    <row r="219" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H219">
+        <v>0.999999983747765</v>
+      </c>
+      <c r="I219" s="1">
+        <v>1.6252234653597999E-8</v>
+      </c>
+    </row>
+    <row r="220" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H220">
+        <v>0.99999999538178497</v>
+      </c>
+      <c r="I220" s="1">
+        <v>4.61821504292371E-9</v>
+      </c>
+    </row>
+    <row r="221" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H221">
+        <v>0.99999999850185695</v>
+      </c>
+      <c r="I221" s="1">
+        <v>1.49814338173313E-9</v>
+      </c>
+    </row>
+    <row r="222" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H222">
+        <v>0.99999972142758398</v>
+      </c>
+      <c r="I222" s="1">
+        <v>2.7857241545223E-7</v>
+      </c>
+    </row>
+    <row r="223" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H223">
+        <v>0.99999932912305101</v>
+      </c>
+      <c r="I223" s="1">
+        <v>6.7087694922036497E-7</v>
+      </c>
+    </row>
+    <row r="224" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H224">
+        <v>0.99999999511002002</v>
+      </c>
+      <c r="I224" s="1">
+        <v>4.88997991862682E-9</v>
+      </c>
+    </row>
+    <row r="225" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H225">
+        <v>0.99999992747538102</v>
+      </c>
+      <c r="I225" s="1">
+        <v>7.2524619332535504E-8</v>
+      </c>
+    </row>
+    <row r="226" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H226">
+        <v>0.99999898992536296</v>
+      </c>
+      <c r="I226" s="1">
+        <v>1.0100746375799E-6</v>
+      </c>
+    </row>
+    <row r="227" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H227">
+        <v>0.99999902086165304</v>
+      </c>
+      <c r="I227" s="1">
+        <v>9.7913834703845101E-7</v>
+      </c>
+    </row>
+    <row r="228" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H228">
+        <v>0.99999990615738499</v>
+      </c>
+      <c r="I228" s="1">
+        <v>9.3842615410335193E-8</v>
+      </c>
+    </row>
+    <row r="229" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H229">
+        <v>0.99999991369488095</v>
+      </c>
+      <c r="I229" s="1">
+        <v>8.6305119060964203E-8</v>
+      </c>
+    </row>
+    <row r="230" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H230">
+        <v>0.99999985612925202</v>
+      </c>
+      <c r="I230" s="1">
+        <v>1.43870748073187E-7</v>
+      </c>
+    </row>
+    <row r="231" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H231">
+        <v>0.99999828147436098</v>
+      </c>
+      <c r="I231" s="1">
+        <v>1.71852563874925E-6</v>
+      </c>
+    </row>
+    <row r="232" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H232">
+        <v>0.99999966996129896</v>
+      </c>
+      <c r="I232" s="1">
+        <v>3.3003870083840899E-7</v>
+      </c>
+    </row>
+    <row r="233" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H233">
+        <v>0.99999963699450201</v>
+      </c>
+      <c r="I233" s="1">
+        <v>3.6300549824854799E-7</v>
+      </c>
+    </row>
+    <row r="234" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H234">
+        <v>0.99999871241521099</v>
+      </c>
+      <c r="I234" s="1">
+        <v>1.2875847894242E-6</v>
+      </c>
+    </row>
+    <row r="235" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H235">
+        <v>0.99999754503090998</v>
+      </c>
+      <c r="I235" s="1">
+        <v>2.45496909014483E-6</v>
+      </c>
+    </row>
+    <row r="236" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H236">
+        <v>0.99996191597374495</v>
+      </c>
+      <c r="I236" s="1">
+        <v>3.8084026255475797E-5</v>
+      </c>
+    </row>
+    <row r="237" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H237">
+        <v>0.99985350135306805</v>
+      </c>
+      <c r="I237">
+        <v>1.4649864693223901E-4</v>
+      </c>
+    </row>
+    <row r="238" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H238">
+        <v>0.99990771459791705</v>
+      </c>
+      <c r="I238" s="1">
+        <v>9.2285402083229398E-5</v>
+      </c>
+    </row>
+    <row r="239" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H239">
+        <v>0.99991778618426497</v>
+      </c>
+      <c r="I239" s="1">
+        <v>8.2213815734562005E-5</v>
+      </c>
+    </row>
+    <row r="240" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H240">
+        <v>0.99989863516158395</v>
+      </c>
+      <c r="I240">
+        <v>1.0136483841577E-4</v>
+      </c>
+    </row>
+    <row r="241" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H241">
+        <v>0.99999318781178603</v>
+      </c>
+      <c r="I241" s="1">
+        <v>6.8121882141039203E-6</v>
+      </c>
+    </row>
+    <row r="242" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H242">
+        <v>0.99999361147881205</v>
+      </c>
+      <c r="I242" s="1">
+        <v>6.3885211882719104E-6</v>
+      </c>
+    </row>
+    <row r="243" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H243">
+        <v>0.99999375922712697</v>
+      </c>
+      <c r="I243" s="1">
+        <v>6.24077287307792E-6</v>
+      </c>
+    </row>
+    <row r="244" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H244">
+        <v>0.99999394104013495</v>
+      </c>
+      <c r="I244" s="1">
+        <v>6.0589598654466798E-6</v>
+      </c>
+    </row>
+    <row r="245" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H245">
+        <v>0.99999780110598002</v>
+      </c>
+      <c r="I245" s="1">
+        <v>2.1988940196612302E-6</v>
+      </c>
+    </row>
+    <row r="246" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H246">
+        <v>0.99999787423583297</v>
+      </c>
+      <c r="I246" s="1">
+        <v>2.1257641674159599E-6</v>
+      </c>
+    </row>
+    <row r="247" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H247">
+        <v>0.99999790539905997</v>
+      </c>
+      <c r="I247" s="1">
+        <v>2.09460094032134E-6</v>
+      </c>
+    </row>
+    <row r="248" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H248">
+        <v>0.99999691566622095</v>
+      </c>
+      <c r="I248" s="1">
+        <v>3.0843337792907001E-6</v>
+      </c>
+    </row>
+    <row r="249" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H249">
+        <v>0.99999527595819004</v>
+      </c>
+      <c r="I249" s="1">
+        <v>4.7240418104237196E-6</v>
+      </c>
+    </row>
+    <row r="250" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H250">
+        <v>0.99999544170562804</v>
+      </c>
+      <c r="I250" s="1">
+        <v>4.5582943716163004E-6</v>
+      </c>
+    </row>
+    <row r="251" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H251">
+        <v>0.99999597911628002</v>
+      </c>
+      <c r="I251" s="1">
+        <v>4.02088371947352E-6</v>
+      </c>
+    </row>
+    <row r="252" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H252">
+        <v>0.99999951407233301</v>
+      </c>
+      <c r="I252" s="1">
+        <v>4.8592766698099699E-7</v>
+      </c>
+    </row>
+    <row r="253" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H253">
+        <v>0.99999999145107099</v>
+      </c>
+      <c r="I253" s="1">
+        <v>8.5489285238091992E-9</v>
+      </c>
+    </row>
+    <row r="254" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H254">
+        <v>0.99999999465426803</v>
+      </c>
+      <c r="I254" s="1">
+        <v>5.3457316634845296E-9</v>
+      </c>
+    </row>
+    <row r="255" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H255">
+        <v>0.99999999772813997</v>
+      </c>
+      <c r="I255" s="1">
+        <v>2.2718594390275802E-9</v>
+      </c>
+    </row>
+    <row r="256" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H256">
+        <v>0.99999689106544698</v>
+      </c>
+      <c r="I256" s="1">
+        <v>3.1089345532432699E-6</v>
+      </c>
+    </row>
+    <row r="257" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H257">
+        <v>0.99999716607873501</v>
+      </c>
+      <c r="I257" s="1">
+        <v>2.8339212648881599E-6</v>
+      </c>
+    </row>
+    <row r="258" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H258">
+        <v>0.99999720030223005</v>
+      </c>
+      <c r="I258" s="1">
+        <v>2.7996977695335299E-6</v>
+      </c>
+    </row>
+    <row r="259" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H259">
+        <v>0.99999717396793397</v>
+      </c>
+      <c r="I259" s="1">
+        <v>2.8260320661759802E-6</v>
+      </c>
+    </row>
+    <row r="260" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H260">
+        <v>0.99999641789827298</v>
+      </c>
+      <c r="I260" s="1">
+        <v>3.5821017266701501E-6</v>
+      </c>
+    </row>
+    <row r="261" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H261">
+        <v>0.99999283656076599</v>
+      </c>
+      <c r="I261" s="1">
+        <v>7.163439234302E-6</v>
+      </c>
+    </row>
+    <row r="262" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H262">
+        <v>0.99999909117783403</v>
+      </c>
+      <c r="I262" s="1">
+        <v>9.08822166273014E-7</v>
+      </c>
+    </row>
+    <row r="263" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H263">
+        <v>0.99999920551586297</v>
+      </c>
+      <c r="I263" s="1">
+        <v>7.9448413669220096E-7</v>
+      </c>
+    </row>
+    <row r="264" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H264">
+        <v>0.99999999811442797</v>
+      </c>
+      <c r="I264" s="1">
+        <v>1.8855724490147101E-9</v>
+      </c>
+    </row>
+    <row r="265" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H265">
+        <v>0.99999266038494605</v>
+      </c>
+      <c r="I265" s="1">
+        <v>7.3396150540046203E-6</v>
+      </c>
+    </row>
+    <row r="266" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H266">
+        <v>0.99999985224332</v>
+      </c>
+      <c r="I266" s="1">
+        <v>1.4775668023128001E-7</v>
+      </c>
+    </row>
+    <row r="267" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H267">
+        <v>0.99999083463557203</v>
+      </c>
+      <c r="I267" s="1">
+        <v>9.16536442766702E-6</v>
+      </c>
+    </row>
+    <row r="268" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H268">
+        <v>0.999995055118159</v>
+      </c>
+      <c r="I268" s="1">
+        <v>4.94488184085066E-6</v>
+      </c>
+    </row>
+    <row r="269" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H269">
+        <v>0.99999990370413705</v>
+      </c>
+      <c r="I269" s="1">
+        <v>9.6295862826032003E-8</v>
+      </c>
+    </row>
+    <row r="270" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H270">
+        <v>0.99999992053567099</v>
+      </c>
+      <c r="I270" s="1">
+        <v>7.94643288056754E-8</v>
+      </c>
+    </row>
+    <row r="271" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H271">
+        <v>0.99999218915121502</v>
+      </c>
+      <c r="I271" s="1">
+        <v>7.8108487846496596E-6</v>
+      </c>
+    </row>
+    <row r="272" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H272">
+        <v>0.99999128520048597</v>
+      </c>
+      <c r="I272" s="1">
+        <v>8.7147995137346006E-6</v>
+      </c>
+    </row>
+    <row r="273" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H273">
+        <v>0.99999109960953703</v>
+      </c>
+      <c r="I273" s="1">
+        <v>8.9003904629639395E-6</v>
+      </c>
+    </row>
+    <row r="274" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H274">
+        <v>0.99999400669937499</v>
+      </c>
+      <c r="I274" s="1">
+        <v>5.9933006246375596E-6</v>
+      </c>
+    </row>
+    <row r="275" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H275">
+        <v>0.99999408546621005</v>
+      </c>
+      <c r="I275" s="1">
+        <v>5.9145337898466903E-6</v>
+      </c>
+    </row>
+    <row r="276" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H276">
+        <v>0.99999390799852295</v>
+      </c>
+      <c r="I276" s="1">
+        <v>6.0920014772741096E-6</v>
+      </c>
+    </row>
+    <row r="277" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H277">
+        <v>0.99999441391553201</v>
+      </c>
+      <c r="I277" s="1">
+        <v>5.5860844679074199E-6</v>
+      </c>
+    </row>
+    <row r="278" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H278">
+        <v>0.99999569770209096</v>
+      </c>
+      <c r="I278" s="1">
+        <v>4.3022979087713496E-6</v>
+      </c>
+    </row>
+    <row r="279" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H279">
+        <v>0.99998871533767097</v>
+      </c>
+      <c r="I279" s="1">
+        <v>1.1284662329178801E-5</v>
+      </c>
+    </row>
+    <row r="280" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H280">
+        <v>0.99997103785732699</v>
+      </c>
+      <c r="I280" s="1">
+        <v>2.8962142673096598E-5</v>
+      </c>
+    </row>
+    <row r="281" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H281">
+        <v>0.99996369352841596</v>
+      </c>
+      <c r="I281" s="1">
+        <v>3.6306471583731999E-5</v>
+      </c>
+    </row>
+    <row r="282" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H282">
+        <v>0.99996357848964101</v>
+      </c>
+      <c r="I282" s="1">
+        <v>3.6421510359250801E-5</v>
+      </c>
+    </row>
+    <row r="283" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H283">
+        <v>0.99993264573977003</v>
+      </c>
+      <c r="I283" s="1">
+        <v>6.7354260229939207E-5</v>
+      </c>
+    </row>
+    <row r="284" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H284">
+        <v>0.99894523569263005</v>
+      </c>
+      <c r="I284">
+        <v>1.0547643073702E-3</v>
+      </c>
+    </row>
+    <row r="285" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H285">
+        <v>0.99918828316144104</v>
+      </c>
+      <c r="I285">
+        <v>8.1171683855873805E-4</v>
+      </c>
+    </row>
+    <row r="286" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H286">
+        <v>0.99923492354143495</v>
+      </c>
+      <c r="I286">
+        <v>7.6507645856496297E-4</v>
+      </c>
+    </row>
+    <row r="287" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H287">
+        <v>0.99923610513421002</v>
+      </c>
+      <c r="I287">
+        <v>7.6389486578964298E-4</v>
+      </c>
+    </row>
+    <row r="288" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H288">
+        <v>0.99925884005378396</v>
+      </c>
+      <c r="I288">
+        <v>7.4115994621570499E-4</v>
+      </c>
+    </row>
+    <row r="289" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H289">
+        <v>0.99929245198848404</v>
+      </c>
+      <c r="I289">
+        <v>7.07548011516357E-4</v>
+      </c>
+    </row>
+    <row r="290" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H290">
+        <v>0.99959107121664903</v>
+      </c>
+      <c r="I290">
+        <v>4.0892878335086098E-4</v>
+      </c>
+    </row>
+    <row r="291" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H291">
+        <v>0.99971644312661201</v>
+      </c>
+      <c r="I291">
+        <v>2.83556873388294E-4</v>
+      </c>
+    </row>
+    <row r="292" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H292">
+        <v>0.99976358825559697</v>
+      </c>
+      <c r="I292">
+        <v>2.3641174440313699E-4</v>
+      </c>
+    </row>
+    <row r="293" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H293">
+        <v>0.99974998109902802</v>
+      </c>
+      <c r="I293">
+        <v>2.5001890097224198E-4</v>
+      </c>
+    </row>
+    <row r="294" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H294">
+        <v>0.99997829319627796</v>
+      </c>
+      <c r="I294" s="1">
+        <v>2.1706803722476398E-5</v>
+      </c>
+    </row>
+    <row r="295" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H295">
+        <v>0.99975854249069496</v>
+      </c>
+      <c r="I295">
+        <v>2.41457509305446E-4</v>
+      </c>
+    </row>
+    <row r="296" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H296">
+        <v>0.99932521094725302</v>
+      </c>
+      <c r="I296">
+        <v>6.7478905274720501E-4</v>
+      </c>
+    </row>
+    <row r="297" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H297">
+        <v>0.99943905054853199</v>
+      </c>
+      <c r="I297">
+        <v>5.6094945146765703E-4</v>
+      </c>
+    </row>
+    <row r="298" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H298">
+        <v>0.99956150779896003</v>
+      </c>
+      <c r="I298">
+        <v>4.38492201040098E-4</v>
+      </c>
+    </row>
+    <row r="299" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H299">
+        <v>0.99966829539608804</v>
+      </c>
+      <c r="I299">
+        <v>3.3170460391224697E-4</v>
+      </c>
+    </row>
+    <row r="300" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H300">
+        <v>0.99974747376142403</v>
+      </c>
+      <c r="I300">
+        <v>2.5252623857600502E-4</v>
+      </c>
+    </row>
+    <row r="301" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H301">
+        <v>0.99973130455331505</v>
+      </c>
+      <c r="I301">
+        <v>2.6869544668458499E-4</v>
+      </c>
+    </row>
+    <row r="302" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H302">
+        <v>0.99954886503163998</v>
+      </c>
+      <c r="I302">
+        <v>4.51134968360519E-4</v>
+      </c>
+    </row>
+    <row r="303" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H303">
+        <v>0.99978856149149997</v>
+      </c>
+      <c r="I303">
+        <v>2.11438508500173E-4</v>
+      </c>
+    </row>
+    <row r="304" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H304">
+        <v>0.99935969676802405</v>
+      </c>
+      <c r="I304">
+        <v>6.4030323197541105E-4</v>
+      </c>
+    </row>
+    <row r="305" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H305">
+        <v>0.99936225630502595</v>
+      </c>
+      <c r="I305">
+        <v>6.3774369497393297E-4</v>
+      </c>
+    </row>
+    <row r="306" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H306">
+        <v>0.99950097866463405</v>
+      </c>
+      <c r="I306">
+        <v>4.9902133536602997E-4</v>
+      </c>
+    </row>
+    <row r="307" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H307">
+        <v>0.99956022725154403</v>
+      </c>
+      <c r="I307">
+        <v>4.3977274845593102E-4</v>
+      </c>
+    </row>
+    <row r="308" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H308">
+        <v>0.999707971458073</v>
+      </c>
+      <c r="I308">
+        <v>2.9202854192663199E-4</v>
+      </c>
+    </row>
+    <row r="309" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H309">
+        <v>0.99970857614086295</v>
+      </c>
+      <c r="I309">
+        <v>2.9142385913685201E-4</v>
+      </c>
+    </row>
+    <row r="310" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H310">
+        <v>0.99973498375793601</v>
+      </c>
+      <c r="I310">
+        <v>2.6501624206365999E-4</v>
+      </c>
+    </row>
+    <row r="311" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H311">
+        <v>0.99973718902007203</v>
+      </c>
+      <c r="I311">
+        <v>2.6281097992783201E-4</v>
+      </c>
+    </row>
+    <row r="312" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H312">
+        <v>0.99973458728664999</v>
+      </c>
+      <c r="I312">
+        <v>2.6541271335006302E-4</v>
+      </c>
+    </row>
+    <row r="313" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H313">
+        <v>0.99967379054996397</v>
+      </c>
+      <c r="I313">
+        <v>3.2620945003596801E-4</v>
+      </c>
+    </row>
+    <row r="314" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H314">
+        <v>0.99954172080810799</v>
+      </c>
+      <c r="I314">
+        <v>4.5827919189159497E-4</v>
+      </c>
+    </row>
+    <row r="315" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H315">
+        <v>0.99936031378716605</v>
+      </c>
+      <c r="I315">
+        <v>6.3968621283384504E-4</v>
+      </c>
+    </row>
+    <row r="316" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H316">
+        <v>0.99978322715797696</v>
+      </c>
+      <c r="I316">
+        <v>2.1677284202320599E-4</v>
+      </c>
+    </row>
+    <row r="317" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H317">
+        <v>0.99982671919635102</v>
+      </c>
+      <c r="I317">
+        <v>1.7328080364944901E-4</v>
+      </c>
+    </row>
+    <row r="318" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H318">
+        <v>0.99995238685826304</v>
+      </c>
+      <c r="I318" s="1">
+        <v>4.7613141737116001E-5</v>
+      </c>
+    </row>
+    <row r="319" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H319">
+        <v>0.99997004139632295</v>
+      </c>
+      <c r="I319" s="1">
+        <v>2.9958603676991201E-5</v>
+      </c>
+    </row>
+    <row r="320" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H320">
+        <v>0.99969250269943</v>
+      </c>
+      <c r="I320">
+        <v>3.0749730057023602E-4</v>
+      </c>
+    </row>
+    <row r="321" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H321">
+        <v>0.99999551154169997</v>
+      </c>
+      <c r="I321" s="1">
+        <v>4.4884582999936399E-6</v>
+      </c>
+    </row>
+    <row r="322" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H322">
+        <v>0.99999681723256695</v>
+      </c>
+      <c r="I322" s="1">
+        <v>3.1827674333302499E-6</v>
+      </c>
+    </row>
+    <row r="323" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H323">
+        <v>0.999997534468264</v>
+      </c>
+      <c r="I323" s="1">
+        <v>2.46553173627615E-6</v>
+      </c>
+    </row>
+    <row r="324" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H324">
+        <v>0.99999946203597401</v>
+      </c>
+      <c r="I324" s="1">
+        <v>5.3796402593615704E-7</v>
+      </c>
+    </row>
+    <row r="325" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H325">
+        <v>0.99999967257387901</v>
+      </c>
+      <c r="I325" s="1">
+        <v>3.2742612106027198E-7</v>
+      </c>
+    </row>
+    <row r="326" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H326">
+        <v>0.99999982644407004</v>
+      </c>
+      <c r="I326" s="1">
+        <v>1.73555929799975E-7</v>
+      </c>
+    </row>
+    <row r="327" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H327">
+        <v>0.99999988415638696</v>
+      </c>
+      <c r="I327" s="1">
+        <v>1.15843612529444E-7</v>
+      </c>
+    </row>
+    <row r="328" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H328">
+        <v>0.99999990610288803</v>
+      </c>
+      <c r="I328" s="1">
+        <v>9.3897111664040905E-8</v>
+      </c>
+    </row>
+    <row r="329" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H329">
+        <v>0.99999991589531401</v>
+      </c>
+      <c r="I329" s="1">
+        <v>8.4104685640180295E-8</v>
+      </c>
+    </row>
+    <row r="330" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H330">
+        <v>0.99999991959683798</v>
+      </c>
+      <c r="I330" s="1">
+        <v>8.0403161872125806E-8</v>
+      </c>
+    </row>
+    <row r="331" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H331">
+        <v>0.99999991864764604</v>
+      </c>
+      <c r="I331" s="1">
+        <v>8.1352353695223305E-8</v>
+      </c>
+    </row>
+    <row r="332" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H332">
+        <v>0.99999991033434199</v>
+      </c>
+      <c r="I332" s="1">
+        <v>8.9665657760811204E-8</v>
+      </c>
+    </row>
+    <row r="333" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H333">
+        <v>0.99999989874978301</v>
+      </c>
+      <c r="I333" s="1">
+        <v>1.01250217294509E-7</v>
+      </c>
+    </row>
+    <row r="334" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H334">
+        <v>0.99999987247086297</v>
+      </c>
+      <c r="I334" s="1">
+        <v>1.27529136739072E-7</v>
+      </c>
+    </row>
+    <row r="335" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H335">
+        <v>0.99999983197671805</v>
+      </c>
+      <c r="I335" s="1">
+        <v>1.6802328185790399E-7</v>
+      </c>
+    </row>
+    <row r="336" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H336">
+        <v>0.99999709682169502</v>
+      </c>
+      <c r="I336" s="1">
+        <v>2.90317830521179E-6</v>
+      </c>
+    </row>
+    <row r="337" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H337">
+        <v>0.99999967129247302</v>
+      </c>
+      <c r="I337" s="1">
+        <v>3.28707527204587E-7</v>
+      </c>
+    </row>
+    <row r="338" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H338">
+        <v>0.99999995813556097</v>
+      </c>
+      <c r="I338" s="1">
+        <v>4.1864439407182199E-8</v>
+      </c>
+    </row>
+    <row r="339" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H339">
+        <v>0.99999995362984495</v>
+      </c>
+      <c r="I339" s="1">
+        <v>4.6370155236966802E-8</v>
+      </c>
+    </row>
+    <row r="340" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H340">
+        <v>0.99999993313438695</v>
+      </c>
+      <c r="I340" s="1">
+        <v>6.6865613179631505E-8</v>
+      </c>
+    </row>
+    <row r="341" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H341">
+        <v>0.999999023302099</v>
+      </c>
+      <c r="I341" s="1">
+        <v>9.7669790095233408E-7</v>
+      </c>
+    </row>
+    <row r="342" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H342">
+        <v>0.99999977973492904</v>
+      </c>
+      <c r="I342" s="1">
+        <v>2.2026507094240601E-7</v>
+      </c>
+    </row>
+    <row r="343" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H343">
+        <v>0.99999969864667504</v>
+      </c>
+      <c r="I343" s="1">
+        <v>3.01353324677073E-7</v>
+      </c>
+    </row>
+    <row r="344" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H344">
+        <v>0.99999922459999702</v>
+      </c>
+      <c r="I344" s="1">
+        <v>7.7540000289263003E-7</v>
+      </c>
+    </row>
+    <row r="345" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H345">
+        <v>0.99999948993434795</v>
+      </c>
+      <c r="I345" s="1">
+        <v>5.1006565158100405E-7</v>
+      </c>
+    </row>
+    <row r="346" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H346">
+        <v>0.99999932387432</v>
+      </c>
+      <c r="I346" s="1">
+        <v>6.7612568031033895E-7</v>
+      </c>
+    </row>
+    <row r="347" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H347">
+        <v>0.99999476586791902</v>
+      </c>
+      <c r="I347" s="1">
+        <v>5.2341320809713197E-6</v>
+      </c>
+    </row>
+    <row r="348" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H348">
+        <v>0.99998959724556902</v>
+      </c>
+      <c r="I348" s="1">
+        <v>1.04027544313179E-5</v>
+      </c>
+    </row>
+    <row r="349" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H349">
+        <v>0.99998789724326398</v>
+      </c>
+      <c r="I349" s="1">
+        <v>1.21027567363103E-5</v>
+      </c>
+    </row>
+    <row r="350" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H350">
+        <v>0.99999512975249505</v>
+      </c>
+      <c r="I350" s="1">
+        <v>4.8702475054490099E-6</v>
+      </c>
+    </row>
+    <row r="351" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H351">
+        <v>0.99999996944620195</v>
+      </c>
+      <c r="I351" s="1">
+        <v>3.0553798337926301E-8</v>
+      </c>
+    </row>
+    <row r="352" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H352">
+        <v>0.99999714524358896</v>
+      </c>
+      <c r="I352" s="1">
+        <v>2.8547564113736802E-6</v>
+      </c>
+    </row>
+    <row r="353" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H353">
+        <v>0.99999138862810499</v>
+      </c>
+      <c r="I353" s="1">
+        <v>8.6113718946380294E-6</v>
+      </c>
+    </row>
+    <row r="354" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H354">
+        <v>0.99999118660977404</v>
+      </c>
+      <c r="I354" s="1">
+        <v>8.8133902258706802E-6</v>
+      </c>
+    </row>
+    <row r="355" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H355">
+        <v>0.99999992542090199</v>
+      </c>
+      <c r="I355" s="1">
+        <v>7.4579098035915594E-8</v>
+      </c>
+    </row>
+    <row r="356" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H356">
+        <v>0.99868411806680402</v>
+      </c>
+      <c r="I356">
+        <v>1.3158819331962699E-3</v>
+      </c>
+    </row>
+    <row r="357" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H357">
+        <v>0.99910595706941396</v>
+      </c>
+      <c r="I357">
+        <v>8.9404293058597303E-4</v>
+      </c>
+    </row>
+    <row r="358" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H358">
+        <v>0.99950688265316501</v>
+      </c>
+      <c r="I358">
+        <v>4.9311734683542101E-4</v>
+      </c>
+    </row>
+    <row r="359" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H359">
+        <v>0.99950938611905804</v>
+      </c>
+      <c r="I359">
+        <v>4.9061388094205096E-4</v>
+      </c>
+    </row>
+    <row r="360" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H360">
+        <v>0.999652888342624</v>
+      </c>
+      <c r="I360">
+        <v>3.4711165737631402E-4</v>
+      </c>
+    </row>
+    <row r="361" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H361">
+        <v>0.99965475863764697</v>
+      </c>
+      <c r="I361">
+        <v>3.4524136235288097E-4</v>
+      </c>
+    </row>
+    <row r="362" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H362">
+        <v>0.99988882112589395</v>
+      </c>
+      <c r="I362">
+        <v>1.11178874105843E-4</v>
+      </c>
+    </row>
+    <row r="363" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H363">
+        <v>0.99991971819280401</v>
+      </c>
+      <c r="I363" s="1">
+        <v>8.0281807196193702E-5</v>
+      </c>
+    </row>
+    <row r="364" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H364">
+        <v>0.99992506027143901</v>
+      </c>
+      <c r="I364" s="1">
+        <v>7.4939728561352803E-5</v>
+      </c>
+    </row>
+    <row r="365" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H365">
+        <v>0.99993501731734902</v>
+      </c>
+      <c r="I365" s="1">
+        <v>6.4982682651336604E-5</v>
+      </c>
+    </row>
+    <row r="366" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H366">
+        <v>0.99993517312396496</v>
+      </c>
+      <c r="I366" s="1">
+        <v>6.4826876035341307E-5</v>
+      </c>
+    </row>
+    <row r="367" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H367">
+        <v>0.99993186577408699</v>
+      </c>
+      <c r="I367" s="1">
+        <v>6.8134225913373995E-5</v>
+      </c>
+    </row>
+    <row r="368" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H368">
+        <v>0.99989076410573297</v>
+      </c>
+      <c r="I368">
+        <v>1.09235894267337E-4</v>
+      </c>
+    </row>
+    <row r="369" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H369">
+        <v>0.99991492178986496</v>
+      </c>
+      <c r="I369" s="1">
+        <v>8.50782101355496E-5</v>
+      </c>
+    </row>
+    <row r="370" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H370">
+        <v>0.99993165555174701</v>
+      </c>
+      <c r="I370" s="1">
+        <v>6.8344448253245606E-5</v>
+      </c>
+    </row>
+    <row r="371" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H371">
+        <v>0.99990126798322398</v>
+      </c>
+      <c r="I371" s="1">
+        <v>9.8732016776349301E-5</v>
+      </c>
+    </row>
+    <row r="372" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H372">
+        <v>0.99989435507753599</v>
+      </c>
+      <c r="I372">
+        <v>1.05644922463866E-4</v>
+      </c>
+    </row>
+    <row r="373" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H373">
+        <v>0.99996562748451101</v>
+      </c>
+      <c r="I373" s="1">
+        <v>3.43725154891332E-5</v>
+      </c>
+    </row>
+    <row r="374" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H374">
+        <v>0.99986560802183899</v>
+      </c>
+      <c r="I374">
+        <v>1.3439197816066101E-4</v>
+      </c>
+    </row>
+    <row r="375" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H375">
+        <v>0.99993437438373201</v>
+      </c>
+      <c r="I375" s="1">
+        <v>6.5625616268063798E-5</v>
+      </c>
+    </row>
+    <row r="376" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H376">
+        <v>0.99986664245037904</v>
+      </c>
+      <c r="I376">
+        <v>1.33357549620815E-4</v>
+      </c>
+    </row>
+    <row r="377" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H377">
+        <v>0.99997444950532599</v>
+      </c>
+      <c r="I377" s="1">
+        <v>2.5550494674456898E-5</v>
+      </c>
+    </row>
+    <row r="378" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H378">
+        <v>0.99993775588364597</v>
+      </c>
+      <c r="I378" s="1">
+        <v>6.2244116353580493E-5</v>
+      </c>
+    </row>
+    <row r="379" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H379">
+        <v>0.99993939814004096</v>
+      </c>
+      <c r="I379" s="1">
+        <v>6.0601859959238298E-5</v>
+      </c>
+    </row>
+    <row r="380" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H380">
+        <v>0.99993938647912695</v>
+      </c>
+      <c r="I380" s="1">
+        <v>6.0613520873489499E-5</v>
+      </c>
+    </row>
+    <row r="381" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H381">
+        <v>0.99993720355878901</v>
+      </c>
+      <c r="I381" s="1">
+        <v>6.2796441211554596E-5</v>
+      </c>
+    </row>
+    <row r="382" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H382">
+        <v>0.99993451939494005</v>
+      </c>
+      <c r="I382" s="1">
+        <v>6.5480605060139297E-5</v>
+      </c>
+    </row>
+    <row r="383" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H383">
+        <v>0.99991113080752703</v>
+      </c>
+      <c r="I383" s="1">
+        <v>8.8869192473120604E-5</v>
+      </c>
+    </row>
+    <row r="384" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H384">
+        <v>0.99988704897328895</v>
+      </c>
+      <c r="I384">
+        <v>1.12951026711047E-4</v>
+      </c>
+    </row>
+    <row r="385" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H385">
+        <v>0.99996323327815795</v>
+      </c>
+      <c r="I385" s="1">
+        <v>3.6766721841857101E-5</v>
+      </c>
+    </row>
+    <row r="386" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H386">
+        <v>0.99996445506030196</v>
+      </c>
+      <c r="I386" s="1">
+        <v>3.5544939697778897E-5</v>
+      </c>
+    </row>
+    <row r="387" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H387">
+        <v>0.99996428621198896</v>
+      </c>
+      <c r="I387" s="1">
+        <v>3.57137880112881E-5</v>
+      </c>
+    </row>
+    <row r="388" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H388">
+        <v>0.99993688105168999</v>
+      </c>
+      <c r="I388" s="1">
+        <v>6.3118948309736795E-5</v>
+      </c>
+    </row>
+    <row r="389" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H389">
+        <v>0.99988613710520402</v>
+      </c>
+      <c r="I389">
+        <v>1.1386289479572301E-4</v>
+      </c>
+    </row>
+    <row r="390" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H390">
+        <v>0.99990331559004597</v>
+      </c>
+      <c r="I390" s="1">
+        <v>9.6684409954473605E-5</v>
+      </c>
+    </row>
+    <row r="391" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H391">
+        <v>0.99992970736169995</v>
+      </c>
+      <c r="I391" s="1">
+        <v>7.0292638299711599E-5</v>
+      </c>
+    </row>
+    <row r="392" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H392">
+        <v>0.99992929357662697</v>
+      </c>
+      <c r="I392" s="1">
+        <v>7.0706423372911406E-5</v>
+      </c>
+    </row>
+    <row r="393" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H393">
+        <v>0.99993793483783999</v>
+      </c>
+      <c r="I393" s="1">
+        <v>6.2065162160051605E-5</v>
+      </c>
+    </row>
+    <row r="394" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H394">
+        <v>0.99994981615022105</v>
+      </c>
+      <c r="I394" s="1">
+        <v>5.0183849779375601E-5</v>
+      </c>
+    </row>
+    <row r="395" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H395">
+        <v>0.99994980959430202</v>
+      </c>
+      <c r="I395" s="1">
+        <v>5.0190405697864299E-5</v>
+      </c>
+    </row>
+    <row r="396" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H396">
+        <v>0.99997674886389099</v>
+      </c>
+      <c r="I396" s="1">
+        <v>2.3251136109077701E-5</v>
+      </c>
+    </row>
+    <row r="397" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H397">
+        <v>0.99999795893952204</v>
+      </c>
+      <c r="I397" s="1">
+        <v>2.0410604785297901E-6</v>
+      </c>
+    </row>
+    <row r="398" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H398">
+        <v>0.99999864738378497</v>
+      </c>
+      <c r="I398" s="1">
+        <v>1.35261621519516E-6</v>
+      </c>
+    </row>
+    <row r="399" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H399">
+        <v>0.99999999211189505</v>
+      </c>
+      <c r="I399" s="1">
+        <v>7.8881049449521506E-9</v>
+      </c>
+    </row>
+    <row r="400" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H400">
+        <v>0.99999859629950105</v>
+      </c>
+      <c r="I400" s="1">
+        <v>1.4037004987607001E-6</v>
+      </c>
+    </row>
+    <row r="401" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H401">
+        <v>0.99995812008676599</v>
+      </c>
+      <c r="I401" s="1">
+        <v>4.1879913234004203E-5</v>
+      </c>
+    </row>
+    <row r="402" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H402">
+        <v>0.99998642134198301</v>
+      </c>
+      <c r="I402" s="1">
+        <v>1.3578658016900001E-5</v>
+      </c>
+    </row>
+    <row r="403" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H403">
+        <v>0.99998685905957396</v>
+      </c>
+      <c r="I403" s="1">
+        <v>1.31409404254949E-5</v>
+      </c>
+    </row>
+    <row r="404" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H404">
+        <v>0.99999198989457405</v>
+      </c>
+      <c r="I404" s="1">
+        <v>8.0101054265147298E-6</v>
+      </c>
+    </row>
+    <row r="405" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H405">
+        <v>0.99995998324858504</v>
+      </c>
+      <c r="I405" s="1">
+        <v>4.0016751415158697E-5</v>
+      </c>
+    </row>
+    <row r="406" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H406">
+        <v>0.99999891451416101</v>
+      </c>
+      <c r="I406" s="1">
+        <v>1.0854858386234801E-6</v>
+      </c>
+    </row>
+    <row r="407" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H407">
+        <v>0.99999910794633695</v>
+      </c>
+      <c r="I407" s="1">
+        <v>8.9205366327869898E-7</v>
+      </c>
+    </row>
+    <row r="408" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H408">
+        <v>0.99995497831373303</v>
+      </c>
+      <c r="I408" s="1">
+        <v>4.5021686267279401E-5</v>
+      </c>
+    </row>
+    <row r="409" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H409">
+        <v>0.99987357115925701</v>
+      </c>
+      <c r="I409">
+        <v>1.26428840742963E-4</v>
+      </c>
+    </row>
+    <row r="410" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H410">
+        <v>0.99989269347660903</v>
+      </c>
+      <c r="I410">
+        <v>1.07306523390688E-4</v>
+      </c>
+    </row>
+    <row r="411" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H411">
+        <v>0.99998204575067795</v>
+      </c>
+      <c r="I411" s="1">
+        <v>1.7954249322469799E-5</v>
+      </c>
+    </row>
+    <row r="412" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H412">
+        <v>0.99992284139209797</v>
+      </c>
+      <c r="I412" s="1">
+        <v>7.7158607902333E-5</v>
+      </c>
+    </row>
+    <row r="413" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H413">
+        <v>0.99992309720649197</v>
+      </c>
+      <c r="I413" s="1">
+        <v>7.6902793508278294E-5</v>
+      </c>
+    </row>
+    <row r="414" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H414">
+        <v>0.99994329798107295</v>
+      </c>
+      <c r="I414" s="1">
+        <v>5.67020189271408E-5</v>
+      </c>
+    </row>
+    <row r="415" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H415">
+        <v>0.99993987506388504</v>
+      </c>
+      <c r="I415" s="1">
+        <v>6.0124936114961598E-5</v>
+      </c>
+    </row>
+    <row r="416" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H416">
+        <v>0.99992282742031002</v>
+      </c>
+      <c r="I416" s="1">
+        <v>7.7172579690307704E-5</v>
+      </c>
+    </row>
+    <row r="417" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H417">
+        <v>0.999943283721902</v>
+      </c>
+      <c r="I417" s="1">
+        <v>5.6716278097974997E-5</v>
+      </c>
+    </row>
+    <row r="418" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H418">
+        <v>0.99994303285943498</v>
+      </c>
+      <c r="I418" s="1">
+        <v>5.69671405652968E-5</v>
+      </c>
+    </row>
+    <row r="419" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H419">
+        <v>0.99994056208455095</v>
+      </c>
+      <c r="I419" s="1">
+        <v>5.9437915449019101E-5</v>
+      </c>
+    </row>
+    <row r="420" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H420">
+        <v>0.999939295163076</v>
+      </c>
+      <c r="I420" s="1">
+        <v>6.0704836923743599E-5</v>
+      </c>
+    </row>
+    <row r="421" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H421">
+        <v>0.99994270230210702</v>
+      </c>
+      <c r="I421" s="1">
+        <v>5.7297697892652499E-5</v>
+      </c>
+    </row>
+    <row r="422" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H422">
+        <v>0.99995870119206798</v>
+      </c>
+      <c r="I422" s="1">
+        <v>4.1298807931953703E-5</v>
+      </c>
+    </row>
+    <row r="423" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H423">
+        <v>0.99997059025687396</v>
+      </c>
+      <c r="I423" s="1">
+        <v>2.9409743125680999E-5</v>
+      </c>
+    </row>
+    <row r="424" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H424">
+        <v>0.99991402982047395</v>
+      </c>
+      <c r="I424" s="1">
+        <v>8.59701795256739E-5</v>
+      </c>
+    </row>
+    <row r="425" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H425">
+        <v>0.99989641423301001</v>
+      </c>
+      <c r="I425">
+        <v>1.03585766990339E-4</v>
+      </c>
+    </row>
+    <row r="426" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H426">
+        <v>0.99979702952079696</v>
+      </c>
+      <c r="I426">
+        <v>2.0297047920292399E-4</v>
+      </c>
+    </row>
+    <row r="427" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H427">
+        <v>0.99980799714837498</v>
+      </c>
+      <c r="I427">
+        <v>1.9200285162536301E-4</v>
+      </c>
+    </row>
+    <row r="428" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H428">
+        <v>0.99962965586974095</v>
+      </c>
+      <c r="I428">
+        <v>3.7034413025938497E-4</v>
+      </c>
+    </row>
+    <row r="429" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H429">
+        <v>0.999790786654708</v>
+      </c>
+      <c r="I429">
+        <v>2.0921334529250499E-4</v>
+      </c>
+    </row>
+    <row r="430" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H430">
+        <v>0.99991023744103302</v>
+      </c>
+      <c r="I430" s="1">
+        <v>8.9762558967421894E-5</v>
+      </c>
+    </row>
+    <row r="431" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H431">
+        <v>0.99993723076623897</v>
+      </c>
+      <c r="I431" s="1">
+        <v>6.2769233760975402E-5</v>
+      </c>
+    </row>
+    <row r="432" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H432">
+        <v>0.99992898223209903</v>
+      </c>
+      <c r="I432" s="1">
+        <v>7.1017767901431395E-5</v>
+      </c>
+    </row>
+    <row r="433" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H433">
+        <v>0.999999965492257</v>
+      </c>
+      <c r="I433" s="1">
+        <v>3.4507743491621199E-8</v>
+      </c>
+    </row>
+    <row r="434" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H434">
+        <v>0.99996937123114904</v>
+      </c>
+      <c r="I434" s="1">
+        <v>3.0628768851228897E-5</v>
+      </c>
+    </row>
+    <row r="435" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H435">
+        <v>0.99993737224147805</v>
+      </c>
+      <c r="I435" s="1">
+        <v>6.2627758521854196E-5</v>
+      </c>
+    </row>
+    <row r="436" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H436">
+        <v>0.99998181993550805</v>
+      </c>
+      <c r="I436" s="1">
+        <v>1.8180064491834201E-5</v>
+      </c>
+    </row>
+    <row r="437" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H437">
+        <v>0.99997220441116497</v>
+      </c>
+      <c r="I437" s="1">
+        <v>2.7795588834763102E-5</v>
+      </c>
+    </row>
+    <row r="438" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H438">
+        <v>0.999996443378663</v>
+      </c>
+      <c r="I438" s="1">
+        <v>3.5566213368843302E-6</v>
+      </c>
+    </row>
+    <row r="439" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H439">
+        <v>0.99999697613973504</v>
+      </c>
+      <c r="I439" s="1">
+        <v>3.0238602650998598E-6</v>
+      </c>
+    </row>
+    <row r="440" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H440">
+        <v>0.99999704840682602</v>
+      </c>
+      <c r="I440" s="1">
+        <v>2.9515931736996801E-6</v>
+      </c>
+    </row>
+    <row r="441" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H441">
+        <v>0.99999690919250095</v>
+      </c>
+      <c r="I441" s="1">
+        <v>3.09080749921793E-6</v>
+      </c>
+    </row>
+    <row r="442" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H442">
+        <v>0.99999646473445403</v>
+      </c>
+      <c r="I442" s="1">
+        <v>3.53526554607257E-6</v>
+      </c>
+    </row>
+    <row r="443" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H443">
+        <v>0.999985955369178</v>
+      </c>
+      <c r="I443" s="1">
+        <v>1.4044630822166501E-5</v>
+      </c>
+    </row>
+    <row r="444" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H444">
+        <v>0.99998526901804996</v>
+      </c>
+      <c r="I444" s="1">
+        <v>1.47309819498895E-5</v>
+      </c>
+    </row>
+    <row r="445" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H445">
+        <v>0.99998626144959102</v>
+      </c>
+      <c r="I445" s="1">
+        <v>1.37385504086517E-5</v>
+      </c>
+    </row>
+    <row r="446" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H446">
+        <v>0.99996585376974501</v>
+      </c>
+      <c r="I446" s="1">
+        <v>3.4146230255312302E-5</v>
+      </c>
+    </row>
+    <row r="447" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H447">
+        <v>0.99996620344528198</v>
+      </c>
+      <c r="I447" s="1">
+        <v>3.3796554717538898E-5</v>
+      </c>
+    </row>
+    <row r="448" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H448">
+        <v>0.99997496801069696</v>
+      </c>
+      <c r="I448" s="1">
+        <v>2.50319893031396E-5</v>
+      </c>
+    </row>
+    <row r="449" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H449">
+        <v>0.99997591116851603</v>
+      </c>
+      <c r="I449" s="1">
+        <v>2.40888314842269E-5</v>
+      </c>
+    </row>
+    <row r="450" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H450">
+        <v>0.99998793266757802</v>
+      </c>
+      <c r="I450" s="1">
+        <v>1.2067332422289001E-5</v>
+      </c>
+    </row>
+    <row r="451" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H451">
+        <v>0.99999269154036097</v>
+      </c>
+      <c r="I451" s="1">
+        <v>7.30845963910798E-6</v>
+      </c>
+    </row>
+    <row r="452" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H452">
+        <v>0.99999276757356503</v>
+      </c>
+      <c r="I452" s="1">
+        <v>7.2324264345549501E-6</v>
+      </c>
+    </row>
+    <row r="453" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H453">
+        <v>0.99999237387723505</v>
+      </c>
+      <c r="I453" s="1">
+        <v>7.6261227651316603E-6</v>
+      </c>
+    </row>
+    <row r="454" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H454">
+        <v>0.99998861842697295</v>
+      </c>
+      <c r="I454" s="1">
+        <v>1.13815730269073E-5</v>
+      </c>
+    </row>
+    <row r="455" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H455">
+        <v>0.99999667233397505</v>
+      </c>
+      <c r="I455" s="1">
+        <v>3.3276660252874299E-6</v>
+      </c>
+    </row>
+    <row r="456" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H456">
+        <v>0.99995815327031701</v>
+      </c>
+      <c r="I456" s="1">
+        <v>4.1846729682556503E-5</v>
+      </c>
+    </row>
+    <row r="457" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H457">
+        <v>0.99996063277131597</v>
+      </c>
+      <c r="I457" s="1">
+        <v>3.9367228684200602E-5</v>
+      </c>
+    </row>
+    <row r="458" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H458">
+        <v>0.99995514872972102</v>
+      </c>
+      <c r="I458" s="1">
+        <v>4.4851270279163201E-5</v>
+      </c>
+    </row>
+    <row r="459" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H459">
+        <v>0.99996069891169503</v>
+      </c>
+      <c r="I459" s="1">
+        <v>3.9301088305212401E-5</v>
+      </c>
+    </row>
+    <row r="460" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H460">
+        <v>0.99983763601853204</v>
+      </c>
+      <c r="I460">
+        <v>1.6236398146784499E-4</v>
+      </c>
+    </row>
+    <row r="461" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H461">
+        <v>0.99983877808399502</v>
+      </c>
+      <c r="I461">
+        <v>1.6122191600544599E-4</v>
+      </c>
+    </row>
+    <row r="462" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H462">
+        <v>0.99981578347038202</v>
+      </c>
+      <c r="I462">
+        <v>1.84216529617468E-4</v>
+      </c>
+    </row>
+    <row r="463" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H463">
+        <v>0.99991724816803595</v>
+      </c>
+      <c r="I463" s="1">
+        <v>8.2751831964155494E-5</v>
+      </c>
+    </row>
+    <row r="464" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H464">
+        <v>0.99993515900464303</v>
+      </c>
+      <c r="I464" s="1">
+        <v>6.4840995357429002E-5</v>
+      </c>
+    </row>
+    <row r="465" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H465">
+        <v>0.99993548483746097</v>
+      </c>
+      <c r="I465" s="1">
+        <v>6.4515162538618701E-5</v>
+      </c>
+    </row>
+    <row r="466" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H466">
+        <v>0.99994537849865095</v>
+      </c>
+      <c r="I466" s="1">
+        <v>5.4621501348629303E-5</v>
+      </c>
+    </row>
+    <row r="467" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H467">
+        <v>0.99994911353124305</v>
+      </c>
+      <c r="I467" s="1">
+        <v>5.0886468757029097E-5</v>
+      </c>
+    </row>
+    <row r="468" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H468">
+        <v>0.99994922434616795</v>
+      </c>
+      <c r="I468" s="1">
+        <v>5.0775653832358E-5</v>
+      </c>
+    </row>
+    <row r="469" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H469">
+        <v>0.99994951405331201</v>
+      </c>
+      <c r="I469" s="1">
+        <v>5.0485946687590003E-5</v>
+      </c>
+    </row>
+    <row r="470" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H470">
+        <v>0.99997306267195496</v>
+      </c>
+      <c r="I470" s="1">
+        <v>2.6937328045505998E-5</v>
+      </c>
+    </row>
+    <row r="471" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H471">
+        <v>0.99997308197200496</v>
+      </c>
+      <c r="I471" s="1">
+        <v>2.6918027995530501E-5</v>
+      </c>
+    </row>
+    <row r="472" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H472">
+        <v>0.99997147951842602</v>
+      </c>
+      <c r="I472" s="1">
+        <v>2.8520481574447801E-5</v>
+      </c>
+    </row>
+    <row r="473" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H473">
+        <v>0.99995075891152296</v>
+      </c>
+      <c r="I473" s="1">
+        <v>4.9241088477188702E-5</v>
+      </c>
+    </row>
+    <row r="474" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H474">
+        <v>0.99995221252563204</v>
+      </c>
+      <c r="I474" s="1">
+        <v>4.7787474367693897E-5</v>
+      </c>
+    </row>
+    <row r="475" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H475">
+        <v>0.99995028567578703</v>
+      </c>
+      <c r="I475" s="1">
+        <v>4.9714324213314601E-5</v>
+      </c>
+    </row>
+    <row r="476" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H476">
+        <v>0.99996788072322695</v>
+      </c>
+      <c r="I476" s="1">
+        <v>3.21192767734958E-5</v>
+      </c>
+    </row>
+    <row r="477" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H477">
+        <v>0.99995579478930796</v>
+      </c>
+      <c r="I477" s="1">
+        <v>4.4205210692122902E-5</v>
+      </c>
+    </row>
+    <row r="478" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H478">
+        <v>0.99995497433593805</v>
+      </c>
+      <c r="I478" s="1">
+        <v>4.5025664062420297E-5</v>
+      </c>
+    </row>
+    <row r="479" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H479">
+        <v>0.99992886095201305</v>
+      </c>
+      <c r="I479" s="1">
+        <v>7.1139047986460696E-5</v>
+      </c>
+    </row>
+    <row r="480" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H480">
+        <v>0.99996626345778195</v>
+      </c>
+      <c r="I480" s="1">
+        <v>3.3736542218355403E-5</v>
+      </c>
+    </row>
+    <row r="481" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H481">
+        <v>0.99996751677942797</v>
+      </c>
+      <c r="I481" s="1">
+        <v>3.2483220572379101E-5</v>
+      </c>
+    </row>
+    <row r="482" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H482">
+        <v>0.99995009612673502</v>
+      </c>
+      <c r="I482" s="1">
+        <v>4.9903873264558199E-5</v>
+      </c>
+    </row>
+    <row r="483" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H483">
+        <v>0.9999440232258</v>
+      </c>
+      <c r="I483" s="1">
+        <v>5.5976774199676001E-5</v>
+      </c>
+    </row>
+    <row r="484" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H484">
+        <v>0.99996205487852796</v>
+      </c>
+      <c r="I484" s="1">
+        <v>3.7945121471566702E-5</v>
+      </c>
+    </row>
+    <row r="485" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H485">
+        <v>0.99995946338576702</v>
+      </c>
+      <c r="I485" s="1">
+        <v>4.0536614233027802E-5</v>
+      </c>
+    </row>
+    <row r="486" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H486">
+        <v>0.99994560526800202</v>
+      </c>
+      <c r="I486" s="1">
+        <v>5.43947319977686E-5</v>
+      </c>
+    </row>
+    <row r="487" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H487">
+        <v>0.99994032315149095</v>
+      </c>
+      <c r="I487" s="1">
+        <v>5.9676848509035301E-5</v>
+      </c>
+    </row>
+    <row r="488" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H488">
+        <v>0.99993852800126004</v>
+      </c>
+      <c r="I488" s="1">
+        <v>6.1471998740042405E-5</v>
+      </c>
+    </row>
+    <row r="489" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H489">
+        <v>0.99994645107111502</v>
+      </c>
+      <c r="I489" s="1">
+        <v>5.3548928884884703E-5</v>
+      </c>
+    </row>
+    <row r="490" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H490">
+        <v>0.99997029980302399</v>
+      </c>
+      <c r="I490" s="1">
+        <v>2.9700196975731299E-5</v>
+      </c>
+    </row>
+    <row r="491" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H491">
+        <v>0.99997152590125105</v>
+      </c>
+      <c r="I491" s="1">
+        <v>2.8474098749276601E-5</v>
+      </c>
+    </row>
+    <row r="492" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H492">
+        <v>0.99998788600570998</v>
+      </c>
+      <c r="I492" s="1">
+        <v>1.2113994289591699E-5</v>
+      </c>
+    </row>
+    <row r="493" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H493">
+        <v>0.99997005601209599</v>
+      </c>
+      <c r="I493" s="1">
+        <v>2.9943987903706601E-5</v>
+      </c>
+    </row>
+    <row r="494" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H494">
+        <v>0.99999992889146405</v>
+      </c>
+      <c r="I494" s="1">
+        <v>7.1108536304923407E-8</v>
+      </c>
+    </row>
+    <row r="495" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H495">
+        <v>0.99989789262978401</v>
+      </c>
+      <c r="I495">
+        <v>1.02107370216197E-4</v>
+      </c>
+    </row>
+    <row r="496" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H496">
+        <v>0.99990352407473904</v>
+      </c>
+      <c r="I496" s="1">
+        <v>9.6475925261082799E-5</v>
+      </c>
+    </row>
+    <row r="497" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H497">
+        <v>0.99997468701496905</v>
+      </c>
+      <c r="I497" s="1">
+        <v>2.53129850308138E-5</v>
+      </c>
+    </row>
+    <row r="498" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H498">
+        <v>0.99997813789219403</v>
+      </c>
+      <c r="I498" s="1">
+        <v>2.1862107806127E-5</v>
+      </c>
+    </row>
+    <row r="499" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H499">
+        <v>0.99998484412986399</v>
+      </c>
+      <c r="I499" s="1">
+        <v>1.5155870135932399E-5</v>
+      </c>
+    </row>
+    <row r="500" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H500">
+        <v>0.99999365090140002</v>
+      </c>
+      <c r="I500" s="1">
+        <v>6.3490985999032696E-6</v>
+      </c>
+    </row>
+    <row r="501" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H501">
+        <v>0.99999363491844195</v>
+      </c>
+      <c r="I501" s="1">
+        <v>6.3650815577334799E-6</v>
+      </c>
+    </row>
+    <row r="502" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H502">
+        <v>0.99998977713694004</v>
+      </c>
+      <c r="I502" s="1">
+        <v>1.02228630598881E-5</v>
+      </c>
+    </row>
+    <row r="503" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H503">
+        <v>0.99996411822078102</v>
+      </c>
+      <c r="I503" s="1">
+        <v>3.5881779218624098E-5</v>
+      </c>
+    </row>
+    <row r="504" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H504">
+        <v>0.99998938504838497</v>
+      </c>
+      <c r="I504" s="1">
+        <v>1.0614951614942E-5</v>
+      </c>
+    </row>
+    <row r="505" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H505">
+        <v>0.99998305008530097</v>
+      </c>
+      <c r="I505" s="1">
+        <v>1.6949914698799098E-5</v>
+      </c>
+    </row>
+    <row r="506" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H506">
+        <v>0.99996991039798599</v>
+      </c>
+      <c r="I506" s="1">
+        <v>3.0089602014492801E-5</v>
+      </c>
+    </row>
+    <row r="507" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H507">
+        <v>0.99999997570878696</v>
+      </c>
+      <c r="I507" s="1">
+        <v>2.4291212729430599E-8</v>
+      </c>
+    </row>
+    <row r="508" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H508">
+        <v>0.99997647224354103</v>
+      </c>
+      <c r="I508" s="1">
+        <v>2.3527756459058499E-5</v>
+      </c>
+    </row>
+    <row r="509" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H509">
+        <v>0.99999026750068398</v>
+      </c>
+      <c r="I509" s="1">
+        <v>9.7324993162202108E-6</v>
+      </c>
+    </row>
+    <row r="510" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H510">
+        <v>0.99999026858215001</v>
+      </c>
+      <c r="I510" s="1">
+        <v>9.7314178496070105E-6</v>
+      </c>
+    </row>
+    <row r="511" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H511">
+        <v>0.99999012314607705</v>
+      </c>
+      <c r="I511" s="1">
+        <v>9.8768539225377098E-6</v>
+      </c>
+    </row>
+    <row r="512" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H512">
+        <v>0.99998771736387304</v>
+      </c>
+      <c r="I512" s="1">
+        <v>1.2282636126732001E-5</v>
+      </c>
+    </row>
+    <row r="513" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H513">
+        <v>0.99998499520736195</v>
+      </c>
+      <c r="I513" s="1">
+        <v>1.5004792638282799E-5</v>
+      </c>
+    </row>
+    <row r="514" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H514">
+        <v>0.99997756599315202</v>
+      </c>
+      <c r="I514" s="1">
+        <v>2.2434006848055E-5</v>
+      </c>
+    </row>
+    <row r="515" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H515">
+        <v>0.99997760922150702</v>
+      </c>
+      <c r="I515" s="1">
+        <v>2.2390778492812699E-5</v>
+      </c>
+    </row>
+    <row r="516" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H516">
+        <v>0.99997521863800498</v>
+      </c>
+      <c r="I516" s="1">
+        <v>2.4781361995259999E-5</v>
+      </c>
+    </row>
+    <row r="517" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H517">
+        <v>0.99997306746412895</v>
+      </c>
+      <c r="I517" s="1">
+        <v>2.6932535870595099E-5</v>
+      </c>
+    </row>
+    <row r="518" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H518">
+        <v>0.99993912136780805</v>
+      </c>
+      <c r="I518" s="1">
+        <v>6.0878632192279601E-5</v>
+      </c>
+    </row>
+    <row r="519" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H519">
+        <v>0.99995645854342896</v>
+      </c>
+      <c r="I519" s="1">
+        <v>4.3541456570965302E-5</v>
+      </c>
+    </row>
+    <row r="520" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H520">
+        <v>0.99995874497013004</v>
+      </c>
+      <c r="I520" s="1">
+        <v>4.1255029870340099E-5</v>
+      </c>
+    </row>
+    <row r="521" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H521">
+        <v>0.99997529716878697</v>
+      </c>
+      <c r="I521" s="1">
+        <v>2.47028312129069E-5</v>
+      </c>
+    </row>
+    <row r="522" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H522">
+        <v>0.99997836804792495</v>
+      </c>
+      <c r="I522" s="1">
+        <v>2.1631952074791001E-5</v>
+      </c>
+    </row>
+    <row r="523" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H523">
+        <v>0.99990119818893997</v>
+      </c>
+      <c r="I523" s="1">
+        <v>9.8801811060259201E-5</v>
+      </c>
+    </row>
+    <row r="524" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H524">
+        <v>0.99988226129556201</v>
+      </c>
+      <c r="I524">
+        <v>1.17738704438375E-4</v>
+      </c>
+    </row>
+    <row r="525" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H525">
+        <v>0.99996815304147102</v>
+      </c>
+      <c r="I525" s="1">
+        <v>3.1846958528497798E-5</v>
+      </c>
+    </row>
+    <row r="526" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H526">
+        <v>0.99998749918559304</v>
+      </c>
+      <c r="I526" s="1">
+        <v>1.2500814407328401E-5</v>
+      </c>
+    </row>
+    <row r="527" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H527">
+        <v>0.99999387074375101</v>
+      </c>
+      <c r="I527" s="1">
+        <v>6.1292562492814004E-6</v>
+      </c>
+    </row>
+    <row r="528" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H528">
+        <v>0.99999141911328204</v>
+      </c>
+      <c r="I528" s="1">
+        <v>8.5808867182559494E-6</v>
+      </c>
+    </row>
+    <row r="529" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H529">
+        <v>0.99999404258982905</v>
+      </c>
+      <c r="I529" s="1">
+        <v>5.9574101705661697E-6</v>
+      </c>
+    </row>
+    <row r="530" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H530">
+        <v>0.99999202375494101</v>
+      </c>
+      <c r="I530" s="1">
+        <v>7.9762450589887006E-6</v>
+      </c>
+    </row>
+    <row r="531" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H531">
+        <v>0.99966307459760395</v>
+      </c>
+      <c r="I531">
+        <v>3.3692540239565002E-4</v>
+      </c>
+    </row>
+    <row r="532" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H532">
+        <v>0.99975706888406202</v>
+      </c>
+      <c r="I532">
+        <v>2.4293111593845E-4</v>
+      </c>
+    </row>
+    <row r="533" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H533">
+        <v>0.99977051108124904</v>
+      </c>
+      <c r="I533">
+        <v>2.29488918751234E-4</v>
+      </c>
+    </row>
+    <row r="534" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H534">
+        <v>0.99977314594447897</v>
+      </c>
+      <c r="I534">
+        <v>2.2685405552152501E-4</v>
+      </c>
+    </row>
+    <row r="535" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H535">
+        <v>0.99975675914574702</v>
+      </c>
+      <c r="I535">
+        <v>2.4324085425324701E-4</v>
+      </c>
+    </row>
+    <row r="536" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H536">
+        <v>0.99964352269812395</v>
+      </c>
+      <c r="I536">
+        <v>3.56477301876513E-4</v>
+      </c>
+    </row>
+    <row r="537" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H537">
+        <v>0.99961342274351295</v>
+      </c>
+      <c r="I537">
+        <v>3.8657725648663102E-4</v>
+      </c>
+    </row>
+    <row r="538" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H538">
+        <v>0.99962611078203101</v>
+      </c>
+      <c r="I538">
+        <v>3.7388921796894701E-4</v>
+      </c>
+    </row>
+    <row r="539" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H539">
+        <v>0.99187135894721201</v>
+      </c>
+      <c r="I539">
+        <v>8.1286410527884496E-3</v>
+      </c>
+    </row>
+    <row r="540" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H540">
+        <v>0.99644636813031495</v>
+      </c>
+      <c r="I540">
+        <v>3.5536318696855499E-3</v>
+      </c>
+    </row>
+    <row r="541" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H541">
+        <v>0.99862809214134596</v>
+      </c>
+      <c r="I541">
+        <v>1.37190785865417E-3</v>
+      </c>
+    </row>
+    <row r="542" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H542">
+        <v>0.99953914989817305</v>
+      </c>
+      <c r="I542">
+        <v>4.6085010182731699E-4</v>
+      </c>
+    </row>
+    <row r="543" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H543">
+        <v>0.99972024810402105</v>
+      </c>
+      <c r="I543">
+        <v>2.7975189597852402E-4</v>
+      </c>
+    </row>
+    <row r="544" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H544">
+        <v>0.99977550227744305</v>
+      </c>
+      <c r="I544">
+        <v>2.24497722557523E-4</v>
+      </c>
+    </row>
+    <row r="545" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H545">
+        <v>0.99990035653130405</v>
+      </c>
+      <c r="I545" s="1">
+        <v>9.9643468696092497E-5</v>
+      </c>
+    </row>
+    <row r="546" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H546">
+        <v>0.999841701588424</v>
+      </c>
+      <c r="I546">
+        <v>1.5829841157567401E-4</v>
+      </c>
+    </row>
+    <row r="547" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H547">
+        <v>0.99993630252903998</v>
+      </c>
+      <c r="I547" s="1">
+        <v>6.3697470960283694E-5</v>
+      </c>
+    </row>
+    <row r="548" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H548">
+        <v>0.99998230042497305</v>
+      </c>
+      <c r="I548" s="1">
+        <v>1.7699575026959199E-5</v>
+      </c>
+    </row>
+    <row r="549" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H549">
+        <v>0.99999631941695499</v>
+      </c>
+      <c r="I549" s="1">
+        <v>3.6805830452097099E-6</v>
+      </c>
+    </row>
+    <row r="550" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H550">
+        <v>0.99999650396720796</v>
+      </c>
+      <c r="I550" s="1">
+        <v>3.4960327925254599E-6</v>
+      </c>
+    </row>
+    <row r="551" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H551">
+        <v>0.999998987858424</v>
+      </c>
+      <c r="I551" s="1">
+        <v>1.0121415762642E-6</v>
+      </c>
+    </row>
+    <row r="552" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H552">
+        <v>0.99999907214929495</v>
+      </c>
+      <c r="I552" s="1">
+        <v>9.2785070466055404E-7</v>
+      </c>
+    </row>
+    <row r="553" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H553">
+        <v>0.99999909622574801</v>
+      </c>
+      <c r="I553" s="1">
+        <v>9.0377425251677397E-7</v>
+      </c>
+    </row>
+    <row r="554" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H554">
+        <v>0.99999907056537796</v>
+      </c>
+      <c r="I554" s="1">
+        <v>9.2943462183912596E-7</v>
+      </c>
+    </row>
+    <row r="555" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H555">
+        <v>0.99999893420972197</v>
+      </c>
+      <c r="I555" s="1">
+        <v>1.06579027811247E-6</v>
+      </c>
+    </row>
+    <row r="556" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H556">
+        <v>0.99999842639963499</v>
+      </c>
+      <c r="I556" s="1">
+        <v>1.5736003650954299E-6</v>
+      </c>
+    </row>
+    <row r="557" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H557">
+        <v>0.99999771695328799</v>
+      </c>
+      <c r="I557" s="1">
+        <v>2.28304671212577E-6</v>
+      </c>
+    </row>
+    <row r="558" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H558">
+        <v>0.99999772291664302</v>
+      </c>
+      <c r="I558" s="1">
+        <v>2.27708335718663E-6</v>
+      </c>
+    </row>
+    <row r="559" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H559">
+        <v>0.99999768111774701</v>
+      </c>
+      <c r="I559" s="1">
+        <v>2.3188822534666502E-6</v>
+      </c>
+    </row>
+    <row r="560" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H560">
+        <v>0.99998331003082896</v>
+      </c>
+      <c r="I560" s="1">
+        <v>1.6689969171171101E-5</v>
+      </c>
+    </row>
+    <row r="561" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H561">
+        <v>0.99999229011549495</v>
+      </c>
+      <c r="I561" s="1">
+        <v>7.7098845053587097E-6</v>
+      </c>
+    </row>
+    <row r="562" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H562">
+        <v>0.99999193104669803</v>
+      </c>
+      <c r="I562" s="1">
+        <v>8.0689533017593092E-6</v>
+      </c>
+    </row>
+    <row r="563" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H563">
+        <v>0.99999190746901301</v>
+      </c>
+      <c r="I563" s="1">
+        <v>8.0925309872607607E-6</v>
+      </c>
+    </row>
+    <row r="564" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H564">
+        <v>0.99998975003554602</v>
+      </c>
+      <c r="I564" s="1">
+        <v>1.0249964454029401E-5</v>
+      </c>
+    </row>
+    <row r="565" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H565">
+        <v>0.99999923277580005</v>
+      </c>
+      <c r="I565" s="1">
+        <v>7.6722419978996595E-7</v>
+      </c>
+    </row>
+    <row r="566" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H566">
+        <v>0.99999940162184897</v>
+      </c>
+      <c r="I566" s="1">
+        <v>5.9837815049997105E-7</v>
+      </c>
+    </row>
+    <row r="567" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H567">
+        <v>0.99999993449184799</v>
+      </c>
+      <c r="I567" s="1">
+        <v>6.5508151760486494E-8</v>
+      </c>
+    </row>
+    <row r="568" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H568">
+        <v>0.99999996729617802</v>
+      </c>
+      <c r="I568" s="1">
+        <v>3.2703822178749498E-8</v>
+      </c>
+    </row>
+    <row r="569" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H569">
+        <v>0.99999998275369495</v>
+      </c>
+      <c r="I569" s="1">
+        <v>1.72463052709106E-8</v>
+      </c>
+    </row>
+    <row r="570" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H570">
+        <v>0.99999999031142806</v>
+      </c>
+      <c r="I570" s="1">
+        <v>9.6885724885538396E-9</v>
+      </c>
+    </row>
+    <row r="571" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H571">
+        <v>0.99999999263074002</v>
+      </c>
+      <c r="I571" s="1">
+        <v>7.3692599780589903E-9</v>
+      </c>
+    </row>
+    <row r="572" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H572">
+        <v>0.99999999609791601</v>
+      </c>
+      <c r="I572" s="1">
+        <v>3.9020841898235E-9</v>
+      </c>
+    </row>
+    <row r="573" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H573">
+        <v>0.99999999754230195</v>
+      </c>
+      <c r="I573" s="1">
+        <v>2.4576975270909202E-9</v>
+      </c>
+    </row>
+    <row r="574" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H574">
+        <v>0.99999999677024598</v>
+      </c>
+      <c r="I574" s="1">
+        <v>3.2297541663185E-9</v>
+      </c>
+    </row>
+    <row r="575" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H575">
+        <v>0.99999999457191302</v>
+      </c>
+      <c r="I575" s="1">
+        <v>5.4280872344752298E-9</v>
+      </c>
+    </row>
+    <row r="576" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H576">
+        <v>0.99999999166116305</v>
+      </c>
+      <c r="I576" s="1">
+        <v>8.3388369320129704E-9</v>
+      </c>
+    </row>
+    <row r="577" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H577">
+        <v>0.99999997731755397</v>
+      </c>
+      <c r="I577" s="1">
+        <v>2.2682446293977099E-8</v>
+      </c>
+    </row>
+    <row r="578" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H578">
+        <v>0.99999995352804105</v>
+      </c>
+      <c r="I578" s="1">
+        <v>4.6471959396985202E-8</v>
+      </c>
+    </row>
+    <row r="579" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H579">
+        <v>0.99999934577451899</v>
+      </c>
+      <c r="I579" s="1">
+        <v>6.5422548116587702E-7</v>
+      </c>
+    </row>
+    <row r="580" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H580">
+        <v>0.99999972284565297</v>
+      </c>
+      <c r="I580" s="1">
+        <v>2.7715434683331102E-7</v>
+      </c>
+    </row>
+    <row r="581" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H581">
+        <v>0.99999979374971903</v>
+      </c>
+      <c r="I581" s="1">
+        <v>2.06250281365757E-7</v>
+      </c>
+    </row>
+    <row r="582" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H582">
+        <v>0.99999983676634796</v>
+      </c>
+      <c r="I582" s="1">
+        <v>1.6323365217236101E-7</v>
+      </c>
+    </row>
+    <row r="583" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H583">
+        <v>0.99999821551374901</v>
+      </c>
+      <c r="I583" s="1">
+        <v>1.7844862515886199E-6</v>
+      </c>
+    </row>
+    <row r="584" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H584">
+        <v>0.99999998933162304</v>
+      </c>
+      <c r="I584" s="1">
+        <v>1.06683773435386E-8</v>
+      </c>
+    </row>
+    <row r="585" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H585">
+        <v>0.99999873407819995</v>
+      </c>
+      <c r="I585" s="1">
+        <v>1.2659218002551E-6</v>
+      </c>
+    </row>
+    <row r="586" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H586">
+        <v>0.99999908207099397</v>
+      </c>
+      <c r="I586" s="1">
+        <v>9.1792900646675497E-7</v>
+      </c>
+    </row>
+    <row r="587" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H587">
+        <v>0.99999986072783198</v>
+      </c>
+      <c r="I587" s="1">
+        <v>1.3927216784902901E-7</v>
+      </c>
+    </row>
+    <row r="588" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H588">
+        <v>0.99999986030494903</v>
+      </c>
+      <c r="I588" s="1">
+        <v>1.3969505049296E-7</v>
+      </c>
+    </row>
+    <row r="589" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H589">
+        <v>0.99999758616902901</v>
+      </c>
+      <c r="I589" s="1">
+        <v>2.4138309712888102E-6</v>
+      </c>
+    </row>
+    <row r="590" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H590">
+        <v>0.99999746880486995</v>
+      </c>
+      <c r="I590" s="1">
+        <v>2.5311951297629599E-6</v>
+      </c>
+    </row>
+    <row r="591" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H591">
+        <v>0.99999861738125095</v>
+      </c>
+      <c r="I591" s="1">
+        <v>1.3826187486916301E-6</v>
+      </c>
+    </row>
+    <row r="592" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H592">
+        <v>0.99998877213644399</v>
+      </c>
+      <c r="I592" s="1">
+        <v>1.12278635555016E-5</v>
+      </c>
+    </row>
+    <row r="593" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H593">
+        <v>0.99999985974612204</v>
+      </c>
+      <c r="I593" s="1">
+        <v>1.40253877871834E-7</v>
+      </c>
+    </row>
+    <row r="594" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H594">
+        <v>0.99999989017997304</v>
+      </c>
+      <c r="I594" s="1">
+        <v>1.09820027231951E-7</v>
+      </c>
+    </row>
+    <row r="595" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H595">
+        <v>0.999999499021345</v>
+      </c>
+      <c r="I595" s="1">
+        <v>5.0097865513256502E-7</v>
+      </c>
+    </row>
+    <row r="596" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H596">
+        <v>0.99999973276409404</v>
+      </c>
+      <c r="I596" s="1">
+        <v>2.67235905668314E-7</v>
+      </c>
+    </row>
+    <row r="597" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H597">
+        <v>0.99999774125368601</v>
+      </c>
+      <c r="I597" s="1">
+        <v>2.2587463138519202E-6</v>
+      </c>
+    </row>
+    <row r="598" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H598">
+        <v>0.99999728261024901</v>
+      </c>
+      <c r="I598" s="1">
+        <v>2.7173897512574E-6</v>
+      </c>
+    </row>
+    <row r="599" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H599">
+        <v>0.99999976664495105</v>
+      </c>
+      <c r="I599" s="1">
+        <v>2.3335504864102699E-7</v>
+      </c>
+    </row>
+    <row r="600" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H600">
+        <v>0.999996557110997</v>
+      </c>
+      <c r="I600" s="1">
+        <v>3.4428890032827198E-6</v>
+      </c>
+    </row>
+    <row r="601" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H601">
+        <v>0.99999981575533003</v>
+      </c>
+      <c r="I601" s="1">
+        <v>1.8424467021871199E-7</v>
+      </c>
+    </row>
+    <row r="602" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H602">
+        <v>0.999999843659233</v>
+      </c>
+      <c r="I602" s="1">
+        <v>1.5634076681450999E-7</v>
+      </c>
+    </row>
+    <row r="603" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H603">
+        <v>0.99999988964265196</v>
+      </c>
+      <c r="I603" s="1">
+        <v>1.10357347886277E-7</v>
+      </c>
+    </row>
+    <row r="604" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H604">
+        <v>0.99999988614982305</v>
+      </c>
+      <c r="I604" s="1">
+        <v>1.13850176674001E-7</v>
+      </c>
+    </row>
+    <row r="605" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H605">
+        <v>0.99999991528941701</v>
+      </c>
+      <c r="I605" s="1">
+        <v>8.4710583134002802E-8</v>
+      </c>
+    </row>
+    <row r="606" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H606">
+        <v>0.99999991543098299</v>
+      </c>
+      <c r="I606" s="1">
+        <v>8.4569017530609804E-8</v>
+      </c>
+    </row>
+    <row r="607" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H607">
+        <v>0.99999936587587401</v>
+      </c>
+      <c r="I607" s="1">
+        <v>6.3412412603581801E-7</v>
+      </c>
+    </row>
+    <row r="608" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H608">
+        <v>0.999996542065553</v>
+      </c>
+      <c r="I608" s="1">
+        <v>3.4579344473219399E-6</v>
+      </c>
+    </row>
+    <row r="609" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H609">
+        <v>0.99999912537883195</v>
+      </c>
+      <c r="I609" s="1">
+        <v>8.7462116759819804E-7</v>
+      </c>
+    </row>
+    <row r="610" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H610">
+        <v>0.99999985134477198</v>
+      </c>
+      <c r="I610" s="1">
+        <v>1.4865522758140699E-7</v>
+      </c>
+    </row>
+    <row r="611" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H611">
+        <v>0.99999577431195397</v>
+      </c>
+      <c r="I611" s="1">
+        <v>4.2256880454489696E-6</v>
+      </c>
+    </row>
+    <row r="612" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H612">
+        <v>0.99999716066311595</v>
+      </c>
+      <c r="I612" s="1">
+        <v>2.83933688395079E-6</v>
+      </c>
+    </row>
+    <row r="613" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H613">
+        <v>0.99999984048360802</v>
+      </c>
+      <c r="I613" s="1">
+        <v>1.5951639167976001E-7</v>
+      </c>
+    </row>
+    <row r="614" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H614">
+        <v>0.99999845886739602</v>
+      </c>
+      <c r="I614" s="1">
+        <v>1.5411326043598701E-6</v>
+      </c>
+    </row>
+    <row r="615" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H615">
+        <v>0.999998469463799</v>
+      </c>
+      <c r="I615" s="1">
+        <v>1.53053620127567E-6</v>
+      </c>
+    </row>
+    <row r="616" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H616">
+        <v>0.999999975267853</v>
+      </c>
+      <c r="I616" s="1">
+        <v>2.4732147028223899E-8</v>
+      </c>
+    </row>
+    <row r="617" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H617">
+        <v>0.99999612443425201</v>
+      </c>
+      <c r="I617" s="1">
+        <v>3.8755657484468104E-6</v>
+      </c>
+    </row>
+    <row r="618" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H618">
+        <v>0.99999697190291703</v>
+      </c>
+      <c r="I618" s="1">
+        <v>3.0280970834724102E-6</v>
+      </c>
+    </row>
+    <row r="619" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H619">
+        <v>0.99998506786506403</v>
+      </c>
+      <c r="I619" s="1">
+        <v>1.4932134936449599E-5</v>
+      </c>
+    </row>
+    <row r="620" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H620">
+        <v>0.99998947323179399</v>
+      </c>
+      <c r="I620" s="1">
+        <v>1.05267682062134E-5</v>
+      </c>
+    </row>
+    <row r="621" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H621">
+        <v>0.99999255773851103</v>
+      </c>
+      <c r="I621" s="1">
+        <v>7.4422614891759697E-6</v>
+      </c>
+    </row>
+    <row r="622" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H622">
+        <v>0.99999655196622905</v>
+      </c>
+      <c r="I622" s="1">
+        <v>3.4480337706672699E-6</v>
+      </c>
+    </row>
+    <row r="623" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H623">
+        <v>0.99999997107576599</v>
+      </c>
+      <c r="I623" s="1">
+        <v>2.8924233582947999E-8</v>
+      </c>
+    </row>
+    <row r="624" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H624">
+        <v>0.99999895079593604</v>
+      </c>
+      <c r="I624" s="1">
+        <v>1.0492040644268499E-6</v>
+      </c>
+    </row>
+    <row r="625" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H625">
+        <v>0.99999991798027799</v>
+      </c>
+      <c r="I625" s="1">
+        <v>8.2019721864671796E-8</v>
+      </c>
+    </row>
+    <row r="626" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H626">
+        <v>0.99999999766706305</v>
+      </c>
+      <c r="I626" s="1">
+        <v>2.3329365522404999E-9</v>
+      </c>
+    </row>
+    <row r="627" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H627">
+        <v>0.99999999969897402</v>
+      </c>
+      <c r="I627" s="1">
+        <v>3.01026030651547E-10</v>
+      </c>
+    </row>
+    <row r="628" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H628">
+        <v>0.99999999987987898</v>
+      </c>
+      <c r="I628" s="1">
+        <v>1.2012138929465599E-10</v>
+      </c>
+    </row>
+    <row r="629" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H629">
+        <v>0.99999999993341004</v>
+      </c>
+      <c r="I629" s="1">
+        <v>6.6590346454627504E-11</v>
+      </c>
+    </row>
+    <row r="630" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H630">
+        <v>0.99999999995714395</v>
+      </c>
+      <c r="I630" s="1">
+        <v>4.2856064076413999E-11</v>
+      </c>
+    </row>
+    <row r="631" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H631">
+        <v>0.99999999996380295</v>
+      </c>
+      <c r="I631" s="1">
+        <v>3.6196850681314103E-11</v>
+      </c>
+    </row>
+    <row r="632" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H632">
+        <v>0.99998682222422397</v>
+      </c>
+      <c r="I632" s="1">
+        <v>1.31777757760838E-5</v>
+      </c>
+    </row>
+    <row r="633" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H633">
+        <v>0.99997239792773995</v>
+      </c>
+      <c r="I633" s="1">
+        <v>2.7602072259824901E-5</v>
+      </c>
+    </row>
+    <row r="634" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H634">
+        <v>0.99997667410695201</v>
+      </c>
+      <c r="I634" s="1">
+        <v>2.3325893048389099E-5</v>
+      </c>
+    </row>
+    <row r="635" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H635">
+        <v>0.99998204492199505</v>
+      </c>
+      <c r="I635" s="1">
+        <v>1.7955078004873499E-5</v>
+      </c>
+    </row>
+    <row r="636" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H636">
+        <v>0.99998187416821505</v>
+      </c>
+      <c r="I636" s="1">
+        <v>1.8125831784692E-5</v>
+      </c>
+    </row>
+    <row r="637" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H637">
+        <v>0.99997690062308398</v>
+      </c>
+      <c r="I637" s="1">
+        <v>2.3099376915845699E-5</v>
+      </c>
+    </row>
+    <row r="638" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H638">
+        <v>0.99998148090999495</v>
+      </c>
+      <c r="I638" s="1">
+        <v>1.8519090005417101E-5</v>
+      </c>
+    </row>
+    <row r="639" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H639">
+        <v>0.99999863108667997</v>
+      </c>
+      <c r="I639" s="1">
+        <v>1.3689133199455999E-6</v>
+      </c>
+    </row>
+    <row r="640" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H640">
+        <v>0.99999890216523502</v>
+      </c>
+      <c r="I640" s="1">
+        <v>1.0978347652157699E-6</v>
+      </c>
+    </row>
+    <row r="641" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H641">
+        <v>0.99999887731016301</v>
+      </c>
+      <c r="I641" s="1">
+        <v>1.12268983725469E-6</v>
+      </c>
+    </row>
+    <row r="642" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H642">
+        <v>0.99999877244200297</v>
+      </c>
+      <c r="I642" s="1">
+        <v>1.22755799666095E-6</v>
+      </c>
+    </row>
+    <row r="643" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H643">
+        <v>0.99980954939703603</v>
+      </c>
+      <c r="I643">
+        <v>1.90450602963534E-4</v>
+      </c>
+    </row>
+    <row r="644" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H644">
+        <v>0.99984376451711499</v>
+      </c>
+      <c r="I644">
+        <v>1.56235482884667E-4</v>
+      </c>
+    </row>
+    <row r="645" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H645">
+        <v>0.99988977333154405</v>
+      </c>
+      <c r="I645">
+        <v>1.10226668456207E-4</v>
+      </c>
+    </row>
+    <row r="646" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H646">
+        <v>0.99966721772173295</v>
+      </c>
+      <c r="I646">
+        <v>3.3278227826729403E-4</v>
+      </c>
+    </row>
+    <row r="647" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H647">
+        <v>0.99982044609385801</v>
+      </c>
+      <c r="I647">
+        <v>1.7955390614175101E-4</v>
+      </c>
+    </row>
+    <row r="648" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H648">
+        <v>0.99989355545223602</v>
+      </c>
+      <c r="I648">
+        <v>1.06444547764497E-4</v>
+      </c>
+    </row>
+    <row r="649" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H649">
+        <v>0.99995196225233096</v>
+      </c>
+      <c r="I649" s="1">
+        <v>4.8037747668658398E-5</v>
+      </c>
+    </row>
+    <row r="650" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H650">
+        <v>0.99998091433422898</v>
+      </c>
+      <c r="I650" s="1">
+        <v>1.9085665770722899E-5</v>
+      </c>
+    </row>
+    <row r="651" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H651">
+        <v>0.99998152417595598</v>
+      </c>
+      <c r="I651" s="1">
+        <v>1.8475824044463601E-5</v>
+      </c>
+    </row>
+    <row r="652" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H652">
+        <v>0.99998200329475795</v>
+      </c>
+      <c r="I652" s="1">
+        <v>1.7996705241979499E-5</v>
+      </c>
+    </row>
+    <row r="653" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H653">
+        <v>0.999978047327583</v>
+      </c>
+      <c r="I653" s="1">
+        <v>2.1952672417359799E-5</v>
+      </c>
+    </row>
+    <row r="654" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H654">
+        <v>0.999978299415893</v>
+      </c>
+      <c r="I654" s="1">
+        <v>2.1700584106700201E-5</v>
+      </c>
+    </row>
+    <row r="655" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H655">
+        <v>0.99997780839595796</v>
+      </c>
+      <c r="I655" s="1">
+        <v>2.2191604042437401E-5</v>
+      </c>
+    </row>
+    <row r="656" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H656">
+        <v>0.99998217943938805</v>
+      </c>
+      <c r="I656" s="1">
+        <v>1.7820560611541299E-5</v>
+      </c>
+    </row>
+    <row r="657" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H657">
+        <v>0.99998747817695</v>
+      </c>
+      <c r="I657" s="1">
+        <v>1.25218230504261E-5</v>
+      </c>
+    </row>
+    <row r="658" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H658">
+        <v>0.99998650562492297</v>
+      </c>
+      <c r="I658" s="1">
+        <v>1.34943750775144E-5</v>
+      </c>
+    </row>
+    <row r="659" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H659">
+        <v>0.99997957113063796</v>
+      </c>
+      <c r="I659" s="1">
+        <v>2.0428869361768699E-5</v>
+      </c>
+    </row>
+    <row r="660" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H660">
+        <v>0.99995769923326705</v>
+      </c>
+      <c r="I660" s="1">
+        <v>4.2300766732940801E-5</v>
+      </c>
+    </row>
+    <row r="661" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H661">
+        <v>0.99996550994269395</v>
+      </c>
+      <c r="I661" s="1">
+        <v>3.4490057306417902E-5</v>
+      </c>
+    </row>
+    <row r="662" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H662">
+        <v>0.99998557033881597</v>
+      </c>
+      <c r="I662" s="1">
+        <v>1.4429661183781399E-5</v>
+      </c>
+    </row>
+    <row r="663" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H663">
+        <v>0.99996424246293303</v>
+      </c>
+      <c r="I663" s="1">
+        <v>3.5757537066786101E-5</v>
+      </c>
+    </row>
+    <row r="664" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H664">
+        <v>0.99999330450177004</v>
+      </c>
+      <c r="I664" s="1">
+        <v>6.6954982300131199E-6</v>
+      </c>
+    </row>
+    <row r="665" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H665">
+        <v>0.99999967050355298</v>
+      </c>
+      <c r="I665" s="1">
+        <v>3.29496446850343E-7</v>
+      </c>
+    </row>
+    <row r="666" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H666">
+        <v>0.99999973933409503</v>
+      </c>
+      <c r="I666" s="1">
+        <v>2.6066590451604898E-7</v>
+      </c>
+    </row>
+    <row r="667" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H667">
+        <v>0.99999320100275402</v>
+      </c>
+      <c r="I667" s="1">
+        <v>6.7989972462042002E-6</v>
+      </c>
+    </row>
+    <row r="668" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H668">
+        <v>0.99999316666151095</v>
+      </c>
+      <c r="I668" s="1">
+        <v>6.8333384886834803E-6</v>
+      </c>
+    </row>
+    <row r="669" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H669">
+        <v>0.99999301489942105</v>
+      </c>
+      <c r="I669" s="1">
+        <v>6.9851005794625104E-6</v>
+      </c>
+    </row>
+    <row r="670" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H670">
+        <v>0.99997296300501004</v>
+      </c>
+      <c r="I670" s="1">
+        <v>2.7036994990112098E-5</v>
+      </c>
+    </row>
+    <row r="671" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H671">
+        <v>0.99998902250664901</v>
+      </c>
+      <c r="I671" s="1">
+        <v>1.0977493351552101E-5</v>
+      </c>
+    </row>
+    <row r="672" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H672">
+        <v>0.99998903102801695</v>
+      </c>
+      <c r="I672" s="1">
+        <v>1.09689719825936E-5</v>
+      </c>
+    </row>
+    <row r="673" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H673">
+        <v>0.999984828394198</v>
+      </c>
+      <c r="I673" s="1">
+        <v>1.51716058024281E-5</v>
+      </c>
+    </row>
+    <row r="674" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H674">
+        <v>0.99999265727237696</v>
+      </c>
+      <c r="I674" s="1">
+        <v>7.3427276230567698E-6</v>
+      </c>
+    </row>
+    <row r="675" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H675">
+        <v>0.99998327456452396</v>
+      </c>
+      <c r="I675" s="1">
+        <v>1.67254354762139E-5</v>
+      </c>
+    </row>
+    <row r="676" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H676">
+        <v>0.99998275806510095</v>
+      </c>
+      <c r="I676" s="1">
+        <v>1.7241934898710402E-5</v>
+      </c>
+    </row>
+    <row r="677" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H677">
+        <v>0.99996750831814796</v>
+      </c>
+      <c r="I677" s="1">
+        <v>3.2491681851974802E-5</v>
+      </c>
+    </row>
+    <row r="678" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H678">
+        <v>0.99995518206165701</v>
+      </c>
+      <c r="I678" s="1">
+        <v>4.4817938342702199E-5</v>
+      </c>
+    </row>
+    <row r="679" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H679">
+        <v>0.99982154997771699</v>
+      </c>
+      <c r="I679">
+        <v>1.7845002228282901E-4</v>
+      </c>
+    </row>
+    <row r="680" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H680">
+        <v>0.99968942544829698</v>
+      </c>
+      <c r="I680">
+        <v>3.1057455170327002E-4</v>
+      </c>
+    </row>
+    <row r="681" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H681">
+        <v>0.99988375509574501</v>
+      </c>
+      <c r="I681">
+        <v>1.16244904254812E-4</v>
+      </c>
+    </row>
+    <row r="682" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H682">
+        <v>0.99990240806429298</v>
+      </c>
+      <c r="I682" s="1">
+        <v>9.7591935707247194E-5</v>
+      </c>
+    </row>
+    <row r="683" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H683">
+        <v>0.99990162030907004</v>
+      </c>
+      <c r="I683" s="1">
+        <v>9.8379690929509801E-5</v>
+      </c>
+    </row>
+    <row r="684" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H684">
+        <v>0.99990410752221803</v>
+      </c>
+      <c r="I684" s="1">
+        <v>9.5892477781703194E-5</v>
+      </c>
+    </row>
+    <row r="685" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H685">
+        <v>0.99990197021127103</v>
+      </c>
+      <c r="I685" s="1">
+        <v>9.8029788728861702E-5</v>
+      </c>
+    </row>
+    <row r="686" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H686">
+        <v>0.99990234714808901</v>
+      </c>
+      <c r="I686" s="1">
+        <v>9.7652851911551603E-5</v>
+      </c>
+    </row>
+    <row r="687" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H687">
+        <v>0.99989220526809597</v>
+      </c>
+      <c r="I687">
+        <v>1.0779473190440999E-4</v>
+      </c>
+    </row>
+    <row r="688" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H688">
+        <v>0.99988375904386095</v>
+      </c>
+      <c r="I688">
+        <v>1.16240956138734E-4</v>
+      </c>
+    </row>
+    <row r="689" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H689">
+        <v>0.99973284325400602</v>
+      </c>
+      <c r="I689">
+        <v>2.6715674599426202E-4</v>
+      </c>
+    </row>
+    <row r="690" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H690">
+        <v>0.99980235358427105</v>
+      </c>
+      <c r="I690">
+        <v>1.97646415728579E-4</v>
+      </c>
+    </row>
+    <row r="691" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H691">
+        <v>0.99980373374654696</v>
+      </c>
+      <c r="I691">
+        <v>1.96266253453068E-4</v>
+      </c>
+    </row>
+    <row r="692" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H692">
+        <v>0.99980504857927299</v>
+      </c>
+      <c r="I692">
+        <v>1.9495142072715999E-4</v>
+      </c>
+    </row>
+    <row r="693" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H693">
+        <v>0.99966687756393602</v>
+      </c>
+      <c r="I693">
+        <v>3.33122436064076E-4</v>
+      </c>
+    </row>
+    <row r="694" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H694">
+        <v>0.99980432899045302</v>
+      </c>
+      <c r="I694">
+        <v>1.9567100954690899E-4</v>
+      </c>
+    </row>
+    <row r="695" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H695">
+        <v>0.99985848894520801</v>
+      </c>
+      <c r="I695">
+        <v>1.4151105479197999E-4</v>
+      </c>
+    </row>
+    <row r="696" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H696">
+        <v>0.99992852388359099</v>
+      </c>
+      <c r="I696" s="1">
+        <v>7.1476116408960506E-5</v>
+      </c>
+    </row>
+    <row r="697" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H697">
+        <v>0.99989541525206005</v>
+      </c>
+      <c r="I697">
+        <v>1.04584747940203E-4</v>
+      </c>
+    </row>
+    <row r="698" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H698">
+        <v>0.99989549761666596</v>
+      </c>
+      <c r="I698">
+        <v>1.04502383334108E-4</v>
+      </c>
+    </row>
+    <row r="699" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H699">
+        <v>0.99986786387933502</v>
+      </c>
+      <c r="I699">
+        <v>1.3213612066530201E-4</v>
+      </c>
+    </row>
+    <row r="700" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H700">
+        <v>0.99989586527330998</v>
+      </c>
+      <c r="I700">
+        <v>1.04134726690327E-4</v>
+      </c>
+    </row>
+    <row r="701" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H701">
+        <v>0.99997652587298902</v>
+      </c>
+      <c r="I701" s="1">
+        <v>2.3474127010924601E-5</v>
+      </c>
+    </row>
+    <row r="702" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H702">
+        <v>0.99998004234027005</v>
+      </c>
+      <c r="I702" s="1">
+        <v>1.9957659730188399E-5</v>
+      </c>
+    </row>
+    <row r="703" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H703">
+        <v>0.99997314126154202</v>
+      </c>
+      <c r="I703" s="1">
+        <v>2.6858738458456601E-5</v>
+      </c>
+    </row>
+    <row r="704" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H704">
+        <v>0.99996416244714803</v>
+      </c>
+      <c r="I704" s="1">
+        <v>3.5837552851823101E-5</v>
+      </c>
+    </row>
+    <row r="705" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H705">
+        <v>0.99997953673143503</v>
+      </c>
+      <c r="I705" s="1">
+        <v>2.0463268564758001E-5</v>
+      </c>
+    </row>
+    <row r="706" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H706">
+        <v>0.99997360165387394</v>
+      </c>
+      <c r="I706" s="1">
+        <v>2.6398346125519E-5</v>
+      </c>
+    </row>
+    <row r="707" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H707">
+        <v>0.99998261589821902</v>
+      </c>
+      <c r="I707" s="1">
+        <v>1.73841017811792E-5</v>
+      </c>
+    </row>
+    <row r="708" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H708">
+        <v>0.99999343037103805</v>
+      </c>
+      <c r="I708" s="1">
+        <v>6.56962896245251E-6</v>
+      </c>
+    </row>
+    <row r="709" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H709">
+        <v>0.99999345477943502</v>
+      </c>
+      <c r="I709" s="1">
+        <v>6.5452205646554299E-6</v>
+      </c>
+    </row>
+    <row r="710" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H710">
+        <v>0.999976865061593</v>
+      </c>
+      <c r="I710" s="1">
+        <v>2.3134938407160801E-5</v>
+      </c>
+    </row>
+    <row r="711" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H711">
+        <v>0.99997089776758796</v>
+      </c>
+      <c r="I711" s="1">
+        <v>2.91022324121969E-5</v>
+      </c>
+    </row>
+    <row r="712" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H712">
+        <v>0.99996892575553897</v>
+      </c>
+      <c r="I712" s="1">
+        <v>3.1074244461217898E-5</v>
+      </c>
+    </row>
+    <row r="713" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H713">
+        <v>0.99996637887904405</v>
+      </c>
+      <c r="I713" s="1">
+        <v>3.3621120956067599E-5</v>
+      </c>
+    </row>
+    <row r="714" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H714">
+        <v>0.99997205352667395</v>
+      </c>
+      <c r="I714" s="1">
+        <v>2.7946473326049799E-5</v>
+      </c>
+    </row>
+    <row r="715" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H715">
+        <v>0.99999998014367897</v>
+      </c>
+      <c r="I715" s="1">
+        <v>1.98563212985782E-8</v>
+      </c>
+    </row>
+    <row r="716" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H716">
+        <v>0.99997313813023503</v>
+      </c>
+      <c r="I716" s="1">
+        <v>2.6861869765065199E-5</v>
+      </c>
+    </row>
+    <row r="717" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H717">
+        <v>0.99997255729637102</v>
+      </c>
+      <c r="I717" s="1">
+        <v>2.7442703628540099E-5</v>
+      </c>
+    </row>
+    <row r="718" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H718">
+        <v>0.99995921639376195</v>
+      </c>
+      <c r="I718" s="1">
+        <v>4.0783606237599101E-5</v>
+      </c>
+    </row>
+    <row r="719" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H719">
+        <v>0.99989624768769902</v>
+      </c>
+      <c r="I719">
+        <v>1.03752312301038E-4</v>
+      </c>
+    </row>
+    <row r="720" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H720">
+        <v>0.99987965640761101</v>
+      </c>
+      <c r="I720">
+        <v>1.20343592388857E-4</v>
+      </c>
+    </row>
+    <row r="721" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H721">
+        <v>0.999864029922505</v>
+      </c>
+      <c r="I721">
+        <v>1.3597007749500899E-4</v>
+      </c>
+    </row>
+    <row r="722" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H722">
+        <v>0.99994996865369601</v>
+      </c>
+      <c r="I722" s="1">
+        <v>5.00313463038035E-5</v>
+      </c>
+    </row>
+    <row r="723" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H723">
+        <v>0.99995198644683703</v>
+      </c>
+      <c r="I723" s="1">
+        <v>4.8013553163241798E-5</v>
+      </c>
+    </row>
+    <row r="724" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H724">
+        <v>0.99994787640637905</v>
+      </c>
+      <c r="I724" s="1">
+        <v>5.2123593620905302E-5</v>
+      </c>
+    </row>
+    <row r="725" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H725">
+        <v>0.99994740006842697</v>
+      </c>
+      <c r="I725" s="1">
+        <v>5.2599931573440698E-5</v>
+      </c>
+    </row>
+    <row r="726" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H726">
+        <v>0.99994545907318699</v>
+      </c>
+      <c r="I726" s="1">
+        <v>5.4540926813304498E-5</v>
+      </c>
+    </row>
+    <row r="727" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H727">
+        <v>0.99993489160918803</v>
+      </c>
+      <c r="I727" s="1">
+        <v>6.5108390811711905E-5</v>
+      </c>
+    </row>
+    <row r="728" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H728">
+        <v>0.99994674869284506</v>
+      </c>
+      <c r="I728" s="1">
+        <v>5.3251307155468E-5</v>
+      </c>
+    </row>
+    <row r="729" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H729">
+        <v>0.99995693622689796</v>
+      </c>
+      <c r="I729" s="1">
+        <v>4.3063773102317201E-5</v>
+      </c>
+    </row>
+    <row r="730" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H730">
+        <v>0.99996068948874495</v>
+      </c>
+      <c r="I730" s="1">
+        <v>3.9310511255218399E-5</v>
+      </c>
+    </row>
+    <row r="731" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H731">
+        <v>0.99996166832559197</v>
+      </c>
+      <c r="I731" s="1">
+        <v>3.8331674407948902E-5</v>
+      </c>
+    </row>
+    <row r="732" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H732">
+        <v>0.99996203167103503</v>
+      </c>
+      <c r="I732" s="1">
+        <v>3.7968328964781203E-5</v>
+      </c>
+    </row>
+    <row r="733" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H733">
+        <v>0.99996180221657205</v>
+      </c>
+      <c r="I733" s="1">
+        <v>3.8197783428161503E-5</v>
+      </c>
+    </row>
+    <row r="734" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H734">
+        <v>0.99996379209563702</v>
+      </c>
+      <c r="I734" s="1">
+        <v>3.6207904362701101E-5</v>
+      </c>
+    </row>
+    <row r="735" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H735">
+        <v>0.99996381813296698</v>
+      </c>
+      <c r="I735" s="1">
+        <v>3.6181867032571103E-5</v>
+      </c>
+    </row>
+    <row r="736" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H736">
+        <v>0.99995763121546899</v>
+      </c>
+      <c r="I736" s="1">
+        <v>4.2368784531412502E-5</v>
+      </c>
+    </row>
+    <row r="737" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H737">
+        <v>0.99995632351138197</v>
+      </c>
+      <c r="I737" s="1">
+        <v>4.3676488617966102E-5</v>
+      </c>
+    </row>
+    <row r="738" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H738">
+        <v>0.99996255390086597</v>
+      </c>
+      <c r="I738" s="1">
+        <v>3.74460991337473E-5</v>
+      </c>
+    </row>
+    <row r="739" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H739">
+        <v>0.99994794347248595</v>
+      </c>
+      <c r="I739" s="1">
+        <v>5.2056527513725102E-5</v>
+      </c>
+    </row>
+    <row r="740" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H740">
+        <v>0.99995372004540095</v>
+      </c>
+      <c r="I740" s="1">
+        <v>4.6279954598864699E-5</v>
+      </c>
+    </row>
+    <row r="741" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H741">
+        <v>0.999953295337213</v>
+      </c>
+      <c r="I741" s="1">
+        <v>4.6704662787288803E-5</v>
+      </c>
+    </row>
+    <row r="742" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H742">
+        <v>0.99995416593017805</v>
+      </c>
+      <c r="I742" s="1">
+        <v>4.58340698219293E-5</v>
+      </c>
+    </row>
+    <row r="743" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H743">
+        <v>0.99992862265462501</v>
+      </c>
+      <c r="I743" s="1">
+        <v>7.1377345374994301E-5</v>
+      </c>
+    </row>
+    <row r="744" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H744">
+        <v>0.99992056856291001</v>
+      </c>
+      <c r="I744" s="1">
+        <v>7.9431437089715894E-5</v>
+      </c>
+    </row>
+    <row r="745" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H745">
+        <v>0.99991726319224306</v>
+      </c>
+      <c r="I745" s="1">
+        <v>8.2736807757340794E-5</v>
+      </c>
+    </row>
+    <row r="746" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H746">
+        <v>0.999925692936389</v>
+      </c>
+      <c r="I746" s="1">
+        <v>7.4307063610884794E-5</v>
+      </c>
+    </row>
+    <row r="747" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H747">
+        <v>0.99837713930837202</v>
+      </c>
+      <c r="I747">
+        <v>1.62286069162779E-3</v>
+      </c>
+    </row>
+    <row r="748" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H748">
+        <v>0.99894623918109005</v>
+      </c>
+      <c r="I748">
+        <v>1.05376081890953E-3</v>
+      </c>
+    </row>
+    <row r="749" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H749">
+        <v>0.99910556084166902</v>
+      </c>
+      <c r="I749">
+        <v>8.9443915833054303E-4</v>
+      </c>
+    </row>
+    <row r="750" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H750">
+        <v>0.99942235305909399</v>
+      </c>
+      <c r="I750">
+        <v>5.7764694090602401E-4</v>
+      </c>
+    </row>
+    <row r="751" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H751">
+        <v>0.99872054928561405</v>
+      </c>
+      <c r="I751">
+        <v>1.27945071438571E-3</v>
+      </c>
+    </row>
+    <row r="752" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H752">
+        <v>0.99945834957183199</v>
+      </c>
+      <c r="I752">
+        <v>5.41650428168436E-4</v>
+      </c>
+    </row>
+    <row r="753" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H753">
+        <v>0.96044777881876597</v>
+      </c>
+      <c r="I753">
+        <v>3.9552221181233999E-2</v>
+      </c>
+    </row>
+    <row r="754" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H754">
+        <v>0.98305454198938602</v>
+      </c>
+      <c r="I754">
+        <v>1.6945458010613399E-2</v>
+      </c>
+    </row>
+    <row r="755" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H755">
+        <v>0.98329599376545695</v>
+      </c>
+      <c r="I755">
+        <v>1.6704006234543E-2</v>
+      </c>
+    </row>
+    <row r="756" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H756">
+        <v>0.98934892387666495</v>
+      </c>
+      <c r="I756">
+        <v>1.06510761233351E-2</v>
+      </c>
+    </row>
+    <row r="757" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H757">
+        <v>0.99756028291380305</v>
+      </c>
+      <c r="I757">
+        <v>2.4397170861964598E-3</v>
+      </c>
+    </row>
+    <row r="758" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H758">
+        <v>0.99959661243720699</v>
+      </c>
+      <c r="I758">
+        <v>4.0338756279327997E-4</v>
+      </c>
+    </row>
+    <row r="759" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H759">
+        <v>0.99974318130707596</v>
+      </c>
+      <c r="I759">
+        <v>2.5681869292420501E-4</v>
+      </c>
+    </row>
+    <row r="760" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H760">
+        <v>0.99999277159247102</v>
+      </c>
+      <c r="I760" s="1">
+        <v>7.2284075289855299E-6</v>
+      </c>
+    </row>
+    <row r="761" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H761">
+        <v>0.99975587448223902</v>
+      </c>
+      <c r="I761">
+        <v>2.4412551776054501E-4</v>
+      </c>
+    </row>
+    <row r="762" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H762">
+        <v>0.99976417469571</v>
+      </c>
+      <c r="I762">
+        <v>2.3582530429021699E-4</v>
+      </c>
+    </row>
+    <row r="763" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H763">
+        <v>0.99975907984287504</v>
+      </c>
+      <c r="I763">
+        <v>2.4092015712458899E-4</v>
+      </c>
+    </row>
+    <row r="764" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H764">
+        <v>0.99970070979435999</v>
+      </c>
+      <c r="I764">
+        <v>2.9929020564045802E-4</v>
+      </c>
+    </row>
+    <row r="765" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H765">
+        <v>0.99829313103167705</v>
+      </c>
+      <c r="I765">
+        <v>1.7068689683231999E-3</v>
+      </c>
+    </row>
+    <row r="766" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H766">
+        <v>0.99967471260782104</v>
+      </c>
+      <c r="I766">
+        <v>3.2528739217875101E-4</v>
+      </c>
+    </row>
+    <row r="767" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H767">
+        <v>0.99987318210308695</v>
+      </c>
+      <c r="I767">
+        <v>1.2681789691268999E-4</v>
+      </c>
+    </row>
+    <row r="768" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H768">
+        <v>0.99970449933063799</v>
+      </c>
+      <c r="I768">
+        <v>2.9550066936184598E-4</v>
+      </c>
+    </row>
+    <row r="769" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H769">
+        <v>0.99912403078688805</v>
+      </c>
+      <c r="I769">
+        <v>8.7596921311233603E-4</v>
+      </c>
+    </row>
+    <row r="770" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H770">
+        <v>0.99977406842183103</v>
+      </c>
+      <c r="I770">
+        <v>2.2593157816863001E-4</v>
+      </c>
+    </row>
+    <row r="771" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H771">
+        <v>0.99979844800832196</v>
+      </c>
+      <c r="I771">
+        <v>2.01551991678496E-4</v>
+      </c>
+    </row>
+    <row r="772" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H772">
+        <v>0.99979630692014698</v>
+      </c>
+      <c r="I772">
+        <v>2.0369307985284199E-4</v>
+      </c>
+    </row>
+    <row r="773" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H773">
+        <v>0.99982725003483297</v>
+      </c>
+      <c r="I773">
+        <v>1.72749965167209E-4</v>
+      </c>
+    </row>
+    <row r="774" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H774">
+        <v>0.99990378602984598</v>
+      </c>
+      <c r="I774" s="1">
+        <v>9.6213970153605897E-5</v>
+      </c>
+    </row>
+    <row r="775" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H775">
+        <v>0.99990068773173502</v>
+      </c>
+      <c r="I775" s="1">
+        <v>9.9312268264851306E-5</v>
+      </c>
+    </row>
+    <row r="776" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H776">
+        <v>0.99989350634903895</v>
+      </c>
+      <c r="I776">
+        <v>1.06493650961328E-4</v>
+      </c>
+    </row>
+    <row r="777" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H777">
+        <v>0.99994412187933202</v>
+      </c>
+      <c r="I777" s="1">
+        <v>5.5878120668116398E-5</v>
+      </c>
+    </row>
+    <row r="778" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H778">
+        <v>0.999905175730604</v>
+      </c>
+      <c r="I778" s="1">
+        <v>9.4824269396086899E-5</v>
+      </c>
+    </row>
+    <row r="779" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H779">
+        <v>0.99990638764190698</v>
+      </c>
+      <c r="I779" s="1">
+        <v>9.3612358092951502E-5</v>
+      </c>
+    </row>
+    <row r="780" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H780">
+        <v>0.99991084928255602</v>
+      </c>
+      <c r="I780" s="1">
+        <v>8.9150717443553797E-5</v>
+      </c>
+    </row>
+    <row r="781" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H781">
+        <v>0.99990878385210202</v>
+      </c>
+      <c r="I781" s="1">
+        <v>9.1216147898210797E-5</v>
+      </c>
+    </row>
+    <row r="782" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H782">
+        <v>0.99983447819563698</v>
+      </c>
+      <c r="I782">
+        <v>1.6552180436311899E-4</v>
+      </c>
+    </row>
+    <row r="783" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H783">
+        <v>0.99991824765499704</v>
+      </c>
+      <c r="I783" s="1">
+        <v>8.1752345002785996E-5</v>
+      </c>
+    </row>
+    <row r="784" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H784">
+        <v>0.99979047975135504</v>
+      </c>
+      <c r="I784">
+        <v>2.09520248644445E-4</v>
+      </c>
+    </row>
+    <row r="785" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H785">
+        <v>0.99969008714692598</v>
+      </c>
+      <c r="I785">
+        <v>3.0991285307383599E-4</v>
+      </c>
+    </row>
+    <row r="786" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H786">
+        <v>0.99984785493254102</v>
+      </c>
+      <c r="I786">
+        <v>1.52145067458769E-4</v>
+      </c>
+    </row>
+    <row r="787" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H787">
+        <v>0.99987238876524998</v>
+      </c>
+      <c r="I787">
+        <v>1.27611234750065E-4</v>
+      </c>
+    </row>
+    <row r="788" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H788">
+        <v>0.99993790025362805</v>
+      </c>
+      <c r="I788" s="1">
+        <v>6.2099746371949694E-5</v>
+      </c>
+    </row>
+    <row r="789" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H789">
+        <v>0.99999674005536998</v>
+      </c>
+      <c r="I789" s="1">
+        <v>3.25994463038768E-6</v>
+      </c>
+    </row>
+    <row r="790" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H790">
+        <v>0.99999736168933795</v>
+      </c>
+      <c r="I790" s="1">
+        <v>2.6383106621917502E-6</v>
+      </c>
+    </row>
+    <row r="791" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H791">
+        <v>0.99999961068169996</v>
+      </c>
+      <c r="I791" s="1">
+        <v>3.8931830040514599E-7</v>
+      </c>
+    </row>
+    <row r="792" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H792">
+        <v>0.999999701353813</v>
+      </c>
+      <c r="I792" s="1">
+        <v>2.9864618713254401E-7</v>
+      </c>
+    </row>
+    <row r="793" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H793">
+        <v>0.99999884976259701</v>
+      </c>
+      <c r="I793" s="1">
+        <v>1.15023740337405E-6</v>
+      </c>
+    </row>
+    <row r="794" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H794">
+        <v>0.99999876461415504</v>
+      </c>
+      <c r="I794" s="1">
+        <v>1.2353858449189001E-6</v>
+      </c>
+    </row>
+    <row r="795" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H795">
+        <v>0.99999847216923499</v>
+      </c>
+      <c r="I795" s="1">
+        <v>1.5278307647358499E-6</v>
+      </c>
+    </row>
+    <row r="796" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H796">
+        <v>0.99999934025501203</v>
+      </c>
+      <c r="I796" s="1">
+        <v>6.5974498849941004E-7</v>
+      </c>
+    </row>
+    <row r="797" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H797">
+        <v>0.99999897353914102</v>
+      </c>
+      <c r="I797" s="1">
+        <v>1.0264608594813199E-6</v>
+      </c>
+    </row>
+    <row r="798" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H798">
+        <v>0.99999959194321697</v>
+      </c>
+      <c r="I798" s="1">
+        <v>4.0805678318084301E-7</v>
+      </c>
+    </row>
+    <row r="799" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H799">
+        <v>0.99999960083179895</v>
+      </c>
+      <c r="I799" s="1">
+        <v>3.9916820093643201E-7</v>
+      </c>
+    </row>
+    <row r="800" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H800">
+        <v>0.99999949550558098</v>
+      </c>
+      <c r="I800" s="1">
+        <v>5.0449441896524399E-7</v>
+      </c>
+    </row>
+    <row r="801" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H801">
+        <v>0.99986415461232003</v>
+      </c>
+      <c r="I801">
+        <v>1.3584538768014699E-4</v>
+      </c>
+    </row>
+    <row r="802" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H802">
+        <v>0.99988582716564101</v>
+      </c>
+      <c r="I802">
+        <v>1.1417283435925E-4</v>
+      </c>
+    </row>
+    <row r="803" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H803">
+        <v>0.99975285307815198</v>
+      </c>
+      <c r="I803">
+        <v>2.4714692184784498E-4</v>
+      </c>
+    </row>
+    <row r="804" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H804">
+        <v>0.99983870547299003</v>
+      </c>
+      <c r="I804">
+        <v>1.6129452701031899E-4</v>
+      </c>
+    </row>
+    <row r="805" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H805">
+        <v>0.99987534536616396</v>
+      </c>
+      <c r="I805">
+        <v>1.2465463383583899E-4</v>
+      </c>
+    </row>
+    <row r="806" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H806">
+        <v>0.99987744509044496</v>
+      </c>
+      <c r="I806">
+        <v>1.2255490955504199E-4</v>
+      </c>
+    </row>
+    <row r="807" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H807">
+        <v>0.99998800071679605</v>
+      </c>
+      <c r="I807" s="1">
+        <v>1.19992832044503E-5</v>
+      </c>
+    </row>
+    <row r="808" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H808">
+        <v>0.99999777555008496</v>
+      </c>
+      <c r="I808" s="1">
+        <v>2.2244499154694E-6</v>
+      </c>
+    </row>
+    <row r="809" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H809">
+        <v>0.999904411343019</v>
+      </c>
+      <c r="I809" s="1">
+        <v>9.5588656981097597E-5</v>
+      </c>
+    </row>
+    <row r="810" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H810">
+        <v>0.99990898716815102</v>
+      </c>
+      <c r="I810" s="1">
+        <v>9.1012831848961704E-5</v>
+      </c>
+    </row>
+    <row r="811" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H811">
+        <v>0.99990777394297303</v>
+      </c>
+      <c r="I811" s="1">
+        <v>9.2226057026925196E-5</v>
+      </c>
+    </row>
+    <row r="812" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H812">
+        <v>0.99989247442324003</v>
+      </c>
+      <c r="I812">
+        <v>1.07525576760027E-4</v>
+      </c>
+    </row>
+    <row r="813" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H813">
+        <v>0.99991074164496896</v>
+      </c>
+      <c r="I813" s="1">
+        <v>8.9258355031335201E-5</v>
+      </c>
+    </row>
+    <row r="814" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H814">
+        <v>0.999916930849862</v>
+      </c>
+      <c r="I814" s="1">
+        <v>8.3069150137468701E-5</v>
+      </c>
+    </row>
+    <row r="815" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H815">
+        <v>0.99991882284098599</v>
+      </c>
+      <c r="I815" s="1">
+        <v>8.1177159014203401E-5</v>
+      </c>
+    </row>
+    <row r="816" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H816">
+        <v>0.99995490215502902</v>
+      </c>
+      <c r="I816" s="1">
+        <v>4.5097844971002698E-5</v>
+      </c>
+    </row>
+    <row r="817" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H817">
+        <v>0.999977460018311</v>
+      </c>
+      <c r="I817" s="1">
+        <v>2.2539981688701299E-5</v>
+      </c>
+    </row>
+    <row r="818" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H818">
+        <v>0.99996077465242905</v>
+      </c>
+      <c r="I818" s="1">
+        <v>3.92253475708969E-5</v>
+      </c>
+    </row>
+    <row r="819" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H819">
+        <v>0.99999996402633995</v>
+      </c>
+      <c r="I819" s="1">
+        <v>3.59736601314039E-8</v>
+      </c>
+    </row>
+    <row r="820" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H820">
+        <v>0.99764911690080005</v>
+      </c>
+      <c r="I820">
+        <v>2.3508830992003001E-3</v>
+      </c>
+    </row>
+    <row r="821" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H821">
+        <v>0.99952815866427602</v>
+      </c>
+      <c r="I821">
+        <v>4.7184133572405801E-4</v>
+      </c>
+    </row>
+    <row r="822" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H822">
+        <v>0.99962718161047504</v>
+      </c>
+      <c r="I822">
+        <v>3.7281838952512702E-4</v>
+      </c>
+    </row>
+    <row r="823" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H823">
+        <v>0.99995294576777605</v>
+      </c>
+      <c r="I823" s="1">
+        <v>4.7054232223772202E-5</v>
+      </c>
+    </row>
+    <row r="824" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H824">
+        <v>0.999554393752214</v>
+      </c>
+      <c r="I824">
+        <v>4.4560624778647198E-4</v>
+      </c>
+    </row>
+    <row r="825" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H825">
+        <v>0.999653729480668</v>
+      </c>
+      <c r="I825">
+        <v>3.4627051933243798E-4</v>
+      </c>
+    </row>
+    <row r="826" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H826">
+        <v>0.999666306464145</v>
+      </c>
+      <c r="I826">
+        <v>3.3369353585527598E-4</v>
+      </c>
+    </row>
+    <row r="827" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H827">
+        <v>0.99995158078415702</v>
+      </c>
+      <c r="I827" s="1">
+        <v>4.8419215843365803E-5</v>
+      </c>
+    </row>
+    <row r="828" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H828">
+        <v>0.99830404647652105</v>
+      </c>
+      <c r="I828">
+        <v>1.69595352347924E-3</v>
+      </c>
+    </row>
+    <row r="829" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H829">
+        <v>0.99894329980455698</v>
+      </c>
+      <c r="I829">
+        <v>1.05670019544263E-3</v>
+      </c>
+    </row>
+    <row r="830" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H830">
+        <v>0.99978235195128595</v>
+      </c>
+      <c r="I830">
+        <v>2.17648048714082E-4</v>
+      </c>
+    </row>
+    <row r="831" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H831">
+        <v>0.99980359687284703</v>
+      </c>
+      <c r="I831">
+        <v>1.9640312715278201E-4</v>
+      </c>
+    </row>
+    <row r="832" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H832">
+        <v>0.99987748430868995</v>
+      </c>
+      <c r="I832">
+        <v>1.22515691310793E-4</v>
+      </c>
+    </row>
+    <row r="833" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H833">
+        <v>0.99990578592099</v>
+      </c>
+      <c r="I833" s="1">
+        <v>9.4214079009674294E-5</v>
+      </c>
+    </row>
+    <row r="834" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H834">
+        <v>0.99990653210156299</v>
+      </c>
+      <c r="I834" s="1">
+        <v>9.3467898436828099E-5</v>
+      </c>
+    </row>
+    <row r="835" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H835">
+        <v>0.99991153502590202</v>
+      </c>
+      <c r="I835" s="1">
+        <v>8.8464974097649099E-5</v>
+      </c>
+    </row>
+    <row r="836" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H836">
+        <v>0.99996453267473295</v>
+      </c>
+      <c r="I836" s="1">
+        <v>3.54673252672907E-5</v>
+      </c>
+    </row>
+    <row r="837" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H837">
+        <v>0.99990056900077995</v>
+      </c>
+      <c r="I837" s="1">
+        <v>9.9430999219529806E-5</v>
+      </c>
+    </row>
+    <row r="838" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H838">
+        <v>0.99992742503298704</v>
+      </c>
+      <c r="I838" s="1">
+        <v>7.2574967013261201E-5</v>
+      </c>
+    </row>
+    <row r="839" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H839">
+        <v>0.99981419185661702</v>
+      </c>
+      <c r="I839">
+        <v>1.85808143383485E-4</v>
+      </c>
+    </row>
+    <row r="840" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H840">
+        <v>0.99984074347319596</v>
+      </c>
+      <c r="I840">
+        <v>1.5925652680408401E-4</v>
+      </c>
+    </row>
+    <row r="841" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H841">
+        <v>0.99983455855280401</v>
+      </c>
+      <c r="I841">
+        <v>1.65441447195545E-4</v>
+      </c>
+    </row>
+    <row r="842" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H842">
+        <v>0.99983882401091895</v>
+      </c>
+      <c r="I842">
+        <v>1.61175989081293E-4</v>
+      </c>
+    </row>
+    <row r="843" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H843">
+        <v>0.99982508214275601</v>
+      </c>
+      <c r="I843">
+        <v>1.7491785724393401E-4</v>
+      </c>
+    </row>
+    <row r="844" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H844">
+        <v>0.99954962845024697</v>
+      </c>
+      <c r="I844">
+        <v>4.5037154975288902E-4</v>
+      </c>
+    </row>
+    <row r="845" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H845">
+        <v>0.99967398505860605</v>
+      </c>
+      <c r="I845">
+        <v>3.2601494139381399E-4</v>
+      </c>
+    </row>
+    <row r="846" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H846">
+        <v>0.999703269911562</v>
+      </c>
+      <c r="I846">
+        <v>2.9673008843832398E-4</v>
+      </c>
+    </row>
+    <row r="847" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H847">
+        <v>0.99969937693178401</v>
+      </c>
+      <c r="I847">
+        <v>3.0062306821605799E-4</v>
+      </c>
+    </row>
+    <row r="848" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H848">
+        <v>0.99854064582773705</v>
+      </c>
+      <c r="I848">
+        <v>1.4593541722631299E-3</v>
+      </c>
+    </row>
+    <row r="849" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H849">
+        <v>0.99969464116386797</v>
+      </c>
+      <c r="I849">
+        <v>3.0535883613175502E-4</v>
+      </c>
+    </row>
+    <row r="850" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H850">
+        <v>0.99970497396339597</v>
+      </c>
+      <c r="I850">
+        <v>2.95026036604125E-4</v>
+      </c>
+    </row>
+    <row r="851" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H851">
+        <v>0.99970989945451805</v>
+      </c>
+      <c r="I851">
+        <v>2.9010054548165703E-4</v>
+      </c>
+    </row>
+    <row r="852" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H852">
+        <v>0.99992426413611202</v>
+      </c>
+      <c r="I852" s="1">
+        <v>7.5735863887835798E-5</v>
+      </c>
+    </row>
+    <row r="853" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H853">
+        <v>0.99969791232350202</v>
+      </c>
+      <c r="I853">
+        <v>3.0208767649803802E-4</v>
+      </c>
+    </row>
+    <row r="854" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H854">
+        <v>0.96785374249431699</v>
+      </c>
+      <c r="I854">
+        <v>3.2146257505683298E-2</v>
+      </c>
+    </row>
+    <row r="855" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H855">
+        <v>0.99870767639263502</v>
+      </c>
+      <c r="I855">
+        <v>1.2923236073646999E-3</v>
+      </c>
+    </row>
+    <row r="856" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H856">
+        <v>0.93561786134539604</v>
+      </c>
+      <c r="I856">
+        <v>6.4382138654603904E-2</v>
+      </c>
+    </row>
+    <row r="857" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H857">
+        <v>0.98255141230411103</v>
+      </c>
+      <c r="I857">
+        <v>1.7448587695888799E-2</v>
+      </c>
+    </row>
+    <row r="858" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H858">
+        <v>0.99878477951981104</v>
+      </c>
+      <c r="I858">
+        <v>1.21522048018858E-3</v>
+      </c>
+    </row>
+    <row r="859" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H859">
+        <v>0.99962712559662903</v>
+      </c>
+      <c r="I859">
+        <v>3.7287440337074E-4</v>
+      </c>
+    </row>
+    <row r="860" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H860">
+        <v>0.99969524762079798</v>
+      </c>
+      <c r="I860">
+        <v>3.0475237920212297E-4</v>
+      </c>
+    </row>
+    <row r="861" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H861">
+        <v>0.99969845786397105</v>
+      </c>
+      <c r="I861">
+        <v>3.0154213602929299E-4</v>
+      </c>
+    </row>
+    <row r="862" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H862">
+        <v>0.99979096385446298</v>
+      </c>
+      <c r="I862">
+        <v>2.0903614553681899E-4</v>
+      </c>
+    </row>
+    <row r="863" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H863">
+        <v>0.99969031390017005</v>
+      </c>
+      <c r="I863">
+        <v>3.0968609982964698E-4</v>
+      </c>
+    </row>
+    <row r="864" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H864">
+        <v>0.99969304564000905</v>
+      </c>
+      <c r="I864">
+        <v>3.0695435999143002E-4</v>
+      </c>
+    </row>
+    <row r="865" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H865">
+        <v>0.99959684410063099</v>
+      </c>
+      <c r="I865">
+        <v>4.0315589936906098E-4</v>
+      </c>
+    </row>
+    <row r="866" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H866">
+        <v>0.99983209565203401</v>
+      </c>
+      <c r="I866">
+        <v>1.6790434796580699E-4</v>
+      </c>
+    </row>
+    <row r="867" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H867">
+        <v>0.99346951190992405</v>
+      </c>
+      <c r="I867">
+        <v>6.53048809007573E-3</v>
+      </c>
+    </row>
+    <row r="868" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H868">
+        <v>0.99991811559261901</v>
+      </c>
+      <c r="I868" s="1">
+        <v>8.1884407380757306E-5</v>
+      </c>
+    </row>
+    <row r="869" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H869">
+        <v>0.99997983691122405</v>
+      </c>
+      <c r="I869" s="1">
+        <v>2.01630887760431E-5</v>
+      </c>
+    </row>
+    <row r="870" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H870">
+        <v>0.99958932716505999</v>
+      </c>
+      <c r="I870">
+        <v>4.1067283493991999E-4</v>
+      </c>
+    </row>
+    <row r="871" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H871">
+        <v>0.99958958892842598</v>
+      </c>
+      <c r="I871">
+        <v>4.10411071573975E-4</v>
+      </c>
+    </row>
+    <row r="872" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H872">
+        <v>0.99985625476547502</v>
+      </c>
+      <c r="I872">
+        <v>1.4374523452506999E-4</v>
+      </c>
+    </row>
+    <row r="873" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H873">
+        <v>0.98077945403868205</v>
+      </c>
+      <c r="I873">
+        <v>1.9220545961318398E-2</v>
+      </c>
+    </row>
+    <row r="874" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H874">
+        <v>0.99900705098057996</v>
+      </c>
+      <c r="I874">
+        <v>9.9294901942046905E-4</v>
+      </c>
+    </row>
+    <row r="875" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H875">
+        <v>0.99930175787489295</v>
+      </c>
+      <c r="I875">
+        <v>6.9824212510695904E-4</v>
+      </c>
+    </row>
+    <row r="876" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H876">
+        <v>0.99970592378280998</v>
+      </c>
+      <c r="I876">
+        <v>2.94076217190375E-4</v>
+      </c>
+    </row>
+    <row r="877" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H877">
+        <v>0.99973346403798102</v>
+      </c>
+      <c r="I877">
+        <v>2.66535962019008E-4</v>
+      </c>
+    </row>
+    <row r="878" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H878">
+        <v>0.99978614145089895</v>
+      </c>
+      <c r="I878">
+        <v>2.1385854910143699E-4</v>
+      </c>
+    </row>
+    <row r="879" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H879">
+        <v>0.99946294420882098</v>
+      </c>
+      <c r="I879">
+        <v>5.3705579117846003E-4</v>
+      </c>
+    </row>
+    <row r="880" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H880">
+        <v>0.99956516009924501</v>
+      </c>
+      <c r="I880">
+        <v>4.3483990075496E-4</v>
+      </c>
+    </row>
+    <row r="881" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H881">
+        <v>0.99858175653506698</v>
+      </c>
+      <c r="I881">
+        <v>1.41824346493289E-3</v>
+      </c>
+    </row>
+    <row r="882" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H882">
+        <v>0.99968417319882497</v>
+      </c>
+      <c r="I882">
+        <v>3.1582680117473599E-4</v>
+      </c>
+    </row>
+    <row r="883" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H883">
+        <v>0.99937322606722401</v>
+      </c>
+      <c r="I883">
+        <v>6.2677393277569095E-4</v>
+      </c>
+    </row>
+    <row r="884" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H884">
+        <v>0.99965506001256799</v>
+      </c>
+      <c r="I884">
+        <v>3.4493998743249498E-4</v>
+      </c>
+    </row>
+    <row r="885" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H885">
+        <v>0.99982698813889503</v>
+      </c>
+      <c r="I885">
+        <v>1.73011861104735E-4</v>
+      </c>
+    </row>
+    <row r="886" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H886">
+        <v>0.99993089005669999</v>
+      </c>
+      <c r="I886" s="1">
+        <v>6.9109943300272195E-5</v>
+      </c>
+    </row>
+    <row r="887" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H887">
+        <v>0.99996430392447599</v>
+      </c>
+      <c r="I887" s="1">
+        <v>3.56960755240196E-5</v>
+      </c>
+    </row>
+    <row r="888" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H888">
+        <v>0.20023559973133401</v>
+      </c>
+      <c r="I888">
+        <v>0.79976440026866602</v>
+      </c>
+    </row>
+    <row r="889" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H889">
+        <v>0.85436497782904997</v>
+      </c>
+      <c r="I889">
+        <v>0.14563502217095001</v>
+      </c>
+    </row>
+    <row r="890" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H890">
+        <v>0.99780645103223797</v>
+      </c>
+      <c r="I890">
+        <v>2.19354896776198E-3</v>
+      </c>
+    </row>
+    <row r="891" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H891">
+        <v>0.96496571907621398</v>
+      </c>
+      <c r="I891">
+        <v>3.5034280923786298E-2</v>
+      </c>
+    </row>
+    <row r="892" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H892">
+        <v>0.98523903934327905</v>
+      </c>
+      <c r="I892">
+        <v>1.47609606567215E-2</v>
+      </c>
+    </row>
+    <row r="893" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H893">
+        <v>0.99822164462538499</v>
+      </c>
+      <c r="I893">
+        <v>1.7783553746148499E-3</v>
+      </c>
+    </row>
+    <row r="894" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H894">
+        <v>0.99823433198529599</v>
+      </c>
+      <c r="I894">
+        <v>1.7656680147044E-3</v>
+      </c>
+    </row>
+    <row r="895" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H895">
+        <v>0.13671759646371401</v>
+      </c>
+      <c r="I895">
+        <v>0.86328240353628605</v>
+      </c>
+    </row>
+    <row r="896" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H896" s="1">
+        <v>9.8457519398327593E-5</v>
+      </c>
+      <c r="I896">
+        <v>0.99990154248060203</v>
+      </c>
+    </row>
+    <row r="897" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H897" s="1">
+        <v>4.4914550955631604E-6</v>
+      </c>
+      <c r="I897">
+        <v>0.99999550854490404</v>
+      </c>
+    </row>
+    <row r="898" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H898">
+        <v>0.140043635697714</v>
+      </c>
+      <c r="I898">
+        <v>0.85995636430228595</v>
+      </c>
+    </row>
+    <row r="899" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H899">
+        <v>0.18605524654897801</v>
+      </c>
+      <c r="I899">
+        <v>0.81394475345102202</v>
+      </c>
+    </row>
+    <row r="900" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H900">
+        <v>9.9869408378532296E-2</v>
+      </c>
+      <c r="I900">
+        <v>0.90013059162146802</v>
+      </c>
+    </row>
+    <row r="901" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H901">
+        <v>9.1504699628071201E-2</v>
+      </c>
+      <c r="I901">
+        <v>0.90849530037192905</v>
+      </c>
+    </row>
+    <row r="902" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H902">
+        <v>2.5142123882148499E-2</v>
+      </c>
+      <c r="I902">
+        <v>0.97485787611785102</v>
+      </c>
+    </row>
+    <row r="903" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H903">
+        <v>4.4933147180677103E-3</v>
+      </c>
+      <c r="I903">
+        <v>0.99550668528193198</v>
+      </c>
+    </row>
+    <row r="904" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H904">
+        <v>1.0459446847458601E-3</v>
+      </c>
+      <c r="I904">
+        <v>0.99895405531525405</v>
+      </c>
+    </row>
+    <row r="905" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H905">
+        <v>2.2731916726458499E-4</v>
+      </c>
+      <c r="I905">
+        <v>0.99977268083273496</v>
+      </c>
+    </row>
+    <row r="906" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H906">
+        <v>3.7591433260214101E-2</v>
+      </c>
+      <c r="I906">
+        <v>0.96240856673978603</v>
+      </c>
+    </row>
+    <row r="907" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H907">
+        <v>1.5492327816402499E-3</v>
+      </c>
+      <c r="I907">
+        <v>0.99845076721836001</v>
+      </c>
+    </row>
+    <row r="908" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H908">
+        <v>1.1427740439557299E-4</v>
+      </c>
+      <c r="I908">
+        <v>0.99988572259560404</v>
+      </c>
+    </row>
+    <row r="909" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H909">
+        <v>0.96972082069677601</v>
+      </c>
+      <c r="I909">
+        <v>3.0279179303223599E-2</v>
+      </c>
+    </row>
+    <row r="910" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H910">
+        <v>0.99459114562351103</v>
+      </c>
+      <c r="I910">
+        <v>5.4088543764890399E-3</v>
+      </c>
+    </row>
+    <row r="911" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H911">
+        <v>0.12741329502412099</v>
+      </c>
+      <c r="I911">
+        <v>0.87258670497587898</v>
+      </c>
+    </row>
+    <row r="912" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H912">
+        <v>2.89871527309849E-2</v>
+      </c>
+      <c r="I912">
+        <v>0.97101284726901504</v>
+      </c>
+    </row>
+    <row r="913" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H913">
+        <v>8.3569529874546605E-3</v>
+      </c>
+      <c r="I913">
+        <v>0.99164304701254502</v>
+      </c>
+    </row>
+    <row r="914" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H914">
+        <v>0.16324853169641601</v>
+      </c>
+      <c r="I914">
+        <v>0.83675146830358405</v>
+      </c>
+    </row>
+    <row r="915" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H915">
+        <v>8.0367369237364199E-3</v>
+      </c>
+      <c r="I915">
+        <v>0.99196326307626304</v>
+      </c>
+    </row>
+    <row r="916" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H916">
+        <v>0.138006182765081</v>
+      </c>
+      <c r="I916">
+        <v>0.86199381723491897</v>
+      </c>
+    </row>
+    <row r="917" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H917">
+        <v>0.132379669670808</v>
+      </c>
+      <c r="I917">
+        <v>0.86762033032919195</v>
+      </c>
+    </row>
+    <row r="918" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H918">
+        <v>9.1273331115357501E-2</v>
+      </c>
+      <c r="I918">
+        <v>0.90872666888464204</v>
+      </c>
+    </row>
+    <row r="919" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H919">
+        <v>9.4504642004679701E-2</v>
+      </c>
+      <c r="I919">
+        <v>0.90549535799531999</v>
+      </c>
+    </row>
+    <row r="920" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H920">
+        <v>0.13985897443780099</v>
+      </c>
+      <c r="I920">
+        <v>0.86014102556219896</v>
+      </c>
+    </row>
+    <row r="921" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H921">
+        <v>0.34580966548477599</v>
+      </c>
+      <c r="I921">
+        <v>0.65419033451522401</v>
+      </c>
+    </row>
+    <row r="922" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H922">
+        <v>0.40422181945517099</v>
+      </c>
+      <c r="I922">
+        <v>0.59577818054482901</v>
+      </c>
+    </row>
+    <row r="923" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H923">
+        <v>0.452958626921319</v>
+      </c>
+      <c r="I923">
+        <v>0.54704137307868195</v>
+      </c>
+    </row>
+    <row r="924" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H924">
+        <v>0.55433237694967497</v>
+      </c>
+      <c r="I924">
+        <v>0.44566762305032498</v>
+      </c>
+    </row>
+    <row r="925" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H925">
+        <v>0.56616714242504895</v>
+      </c>
+      <c r="I925">
+        <v>0.43383285757495099</v>
+      </c>
+    </row>
+    <row r="926" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H926">
+        <v>0.57044147553434099</v>
+      </c>
+      <c r="I926">
+        <v>0.42955852446565901</v>
+      </c>
+    </row>
+    <row r="927" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H927">
+        <v>0.57634651641907098</v>
+      </c>
+      <c r="I927">
+        <v>0.42365348358092902</v>
+      </c>
+    </row>
+    <row r="928" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H928">
+        <v>0.88062228896433503</v>
+      </c>
+      <c r="I928">
+        <v>0.119377711035665</v>
+      </c>
+    </row>
+    <row r="929" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H929">
+        <v>0.91307645702710205</v>
+      </c>
+      <c r="I929">
+        <v>8.6923542972898199E-2</v>
+      </c>
+    </row>
+    <row r="930" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H930">
+        <v>0.95576371654694403</v>
+      </c>
+      <c r="I930">
+        <v>4.4236283453055601E-2</v>
+      </c>
+    </row>
+    <row r="931" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H931">
+        <v>0.99455531012163301</v>
+      </c>
+      <c r="I931">
+        <v>5.4446898783669304E-3</v>
+      </c>
+    </row>
+    <row r="932" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H932">
+        <v>0.99481286757599097</v>
+      </c>
+      <c r="I932">
+        <v>5.1871324240089301E-3</v>
+      </c>
+    </row>
+    <row r="933" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H933">
+        <v>0.99571734713645699</v>
+      </c>
+      <c r="I933">
+        <v>4.2826528635427803E-3</v>
+      </c>
+    </row>
+    <row r="934" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H934">
+        <v>0.99573791666484202</v>
+      </c>
+      <c r="I934">
+        <v>4.2620833351581597E-3</v>
+      </c>
+    </row>
+    <row r="935" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H935">
+        <v>0.58139613679198898</v>
+      </c>
+      <c r="I935">
+        <v>0.41860386320801202</v>
+      </c>
+    </row>
+    <row r="936" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H936">
+        <v>0.94935158407170195</v>
+      </c>
+      <c r="I936">
+        <v>5.06484159282981E-2</v>
+      </c>
+    </row>
+    <row r="937" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H937">
+        <v>0.988696475161984</v>
+      </c>
+      <c r="I937">
+        <v>1.13035248380164E-2</v>
+      </c>
+    </row>
+    <row r="938" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H938">
+        <v>0.98897702500108398</v>
+      </c>
+      <c r="I938">
+        <v>1.1022974998916401E-2</v>
+      </c>
+    </row>
+    <row r="939" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H939">
+        <v>0.993924535814807</v>
+      </c>
+      <c r="I939">
+        <v>6.0754641851933798E-3</v>
+      </c>
+    </row>
+    <row r="940" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H940">
+        <v>0.990780834618743</v>
+      </c>
+      <c r="I940">
+        <v>9.2191653812572997E-3</v>
+      </c>
+    </row>
+    <row r="941" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H941">
+        <v>0.58504058791148605</v>
+      </c>
+      <c r="I941">
+        <v>0.414959412088514</v>
+      </c>
+    </row>
+    <row r="942" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H942">
+        <v>0.58654581904449599</v>
+      </c>
+      <c r="I942">
+        <v>0.41345418095550401</v>
+      </c>
+    </row>
+    <row r="943" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H943">
+        <v>0.912606047091293</v>
+      </c>
+      <c r="I943">
+        <v>8.7393952908706704E-2</v>
+      </c>
+    </row>
+    <row r="944" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H944">
+        <v>0.97675465226415603</v>
+      </c>
+      <c r="I944">
+        <v>2.32453477358435E-2</v>
+      </c>
+    </row>
+    <row r="945" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H945">
+        <v>0.59168972786358698</v>
+      </c>
+      <c r="I945">
+        <v>0.40831027213641302</v>
+      </c>
+    </row>
+    <row r="946" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H946">
+        <v>0.58780018877250895</v>
+      </c>
+      <c r="I946">
+        <v>0.412199811227491</v>
+      </c>
+    </row>
+    <row r="947" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H947">
+        <v>0.57016923062406599</v>
+      </c>
+      <c r="I947">
+        <v>0.42983076937593401</v>
+      </c>
+    </row>
+    <row r="948" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H948">
+        <v>0.95041789651326403</v>
+      </c>
+      <c r="I948">
+        <v>4.9582103486736001E-2</v>
+      </c>
+    </row>
+    <row r="949" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H949">
+        <v>0.95464184594604595</v>
+      </c>
+      <c r="I949">
+        <v>4.5358154053953603E-2</v>
+      </c>
+    </row>
+    <row r="950" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H950">
+        <v>0.97326613706274101</v>
+      </c>
+      <c r="I950">
+        <v>2.6733862937258698E-2</v>
+      </c>
+    </row>
+    <row r="951" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H951">
+        <v>0.99264759130047997</v>
+      </c>
+      <c r="I951">
+        <v>7.3524086995202399E-3</v>
+      </c>
+    </row>
+    <row r="952" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H952">
+        <v>0.99762553911781704</v>
+      </c>
+      <c r="I952">
+        <v>2.37446088218296E-3</v>
+      </c>
+    </row>
+    <row r="953" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H953">
+        <v>0.99856008071783697</v>
+      </c>
+      <c r="I953">
+        <v>1.4399192821632899E-3</v>
+      </c>
+    </row>
+    <row r="954" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H954">
+        <v>0.99970551154457898</v>
+      </c>
+      <c r="I954">
+        <v>2.94488455420863E-4</v>
+      </c>
+    </row>
+    <row r="955" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H955">
+        <v>0.99971053491595696</v>
+      </c>
+      <c r="I955">
+        <v>2.8946508404318499E-4</v>
+      </c>
+    </row>
+    <row r="956" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H956">
+        <v>0.56960021379320303</v>
+      </c>
+      <c r="I956">
+        <v>0.43039978620679697</v>
+      </c>
+    </row>
+    <row r="957" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H957">
+        <v>0.56927501725507701</v>
+      </c>
+      <c r="I957">
+        <v>0.43072498274492299</v>
+      </c>
+    </row>
+    <row r="958" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H958">
+        <v>0.56330539912278899</v>
+      </c>
+      <c r="I958">
+        <v>0.43669460087721101</v>
+      </c>
+    </row>
+    <row r="959" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H959">
+        <v>0.489210728952096</v>
+      </c>
+      <c r="I959">
+        <v>0.51078927104790395</v>
+      </c>
+    </row>
+    <row r="960" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H960">
+        <v>0.474040035551343</v>
+      </c>
+      <c r="I960">
+        <v>0.525959964448657</v>
+      </c>
+    </row>
+    <row r="961" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H961">
+        <v>0.47169983595295301</v>
+      </c>
+      <c r="I961">
+        <v>0.52830016404704705</v>
+      </c>
+    </row>
+    <row r="962" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H962">
+        <v>0.46556597753882401</v>
+      </c>
+      <c r="I962">
+        <v>0.53443402246117599</v>
+      </c>
+    </row>
+    <row r="963" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H963">
+        <v>0.46662068252613298</v>
+      </c>
+      <c r="I963">
+        <v>0.53337931747386702</v>
+      </c>
+    </row>
+    <row r="964" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H964">
+        <v>0.472439980780061</v>
+      </c>
+      <c r="I964">
+        <v>0.527560019219939</v>
+      </c>
+    </row>
+    <row r="965" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H965">
+        <v>0.50653673360324403</v>
+      </c>
+      <c r="I965">
+        <v>0.49346326639675597</v>
+      </c>
+    </row>
+    <row r="966" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H966">
+        <v>0.47171780750942699</v>
+      </c>
+      <c r="I966">
+        <v>0.52828219249057295</v>
+      </c>
+    </row>
+    <row r="967" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H967">
+        <v>0.47240443837143398</v>
+      </c>
+      <c r="I967">
+        <v>0.52759556162856602</v>
+      </c>
+    </row>
+    <row r="968" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H968">
+        <v>0.46931591333456901</v>
+      </c>
+      <c r="I968">
+        <v>0.53068408666543099</v>
+      </c>
+    </row>
+    <row r="969" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H969">
+        <v>0.82118841220620298</v>
+      </c>
+      <c r="I969">
+        <v>0.17881158779379699</v>
+      </c>
+    </row>
+    <row r="970" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H970">
+        <v>0.46152198245009202</v>
+      </c>
+      <c r="I970">
+        <v>0.53847801754990798</v>
+      </c>
+    </row>
+    <row r="971" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H971">
+        <v>0.83007060680656097</v>
+      </c>
+      <c r="I971">
+        <v>0.169929393193439</v>
+      </c>
+    </row>
+    <row r="972" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H972">
+        <v>0.88018596498091295</v>
+      </c>
+      <c r="I972">
+        <v>0.119814035019087</v>
+      </c>
+    </row>
+    <row r="973" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H973">
+        <v>0.88445233492289099</v>
+      </c>
+      <c r="I973">
+        <v>0.11554766507710899</v>
+      </c>
+    </row>
+    <row r="974" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H974">
+        <v>0.88723848244286396</v>
+      </c>
+      <c r="I974">
+        <v>0.112761517557136</v>
+      </c>
+    </row>
+    <row r="975" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H975">
+        <v>0.91933812175065299</v>
+      </c>
+      <c r="I975">
+        <v>8.0661878249347299E-2</v>
+      </c>
+    </row>
+    <row r="976" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H976">
+        <v>0.88973613266554497</v>
+      </c>
+      <c r="I976">
+        <v>0.11026386733445501</v>
+      </c>
+    </row>
+    <row r="977" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H977">
+        <v>0.95125696659295</v>
+      </c>
+      <c r="I977">
+        <v>4.8743033407050503E-2</v>
+      </c>
+    </row>
+    <row r="978" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H978">
+        <v>0.96811887391168605</v>
+      </c>
+      <c r="I978">
+        <v>3.1881126088313699E-2</v>
+      </c>
+    </row>
+    <row r="979" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H979">
+        <v>0.68357120541046001</v>
+      </c>
+      <c r="I979">
+        <v>0.31642879458953999</v>
+      </c>
+    </row>
+    <row r="980" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H980">
+        <v>0.74880556679393495</v>
+      </c>
+      <c r="I980">
+        <v>0.25119443320606499</v>
+      </c>
+    </row>
+    <row r="981" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H981">
+        <v>0.78964101585065205</v>
+      </c>
+      <c r="I981">
+        <v>0.21035898414934801</v>
+      </c>
+    </row>
+    <row r="982" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H982">
+        <v>0.80698962896396298</v>
+      </c>
+      <c r="I982">
+        <v>0.19301037103603699</v>
+      </c>
+    </row>
+    <row r="983" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H983">
+        <v>0.81147437687016699</v>
+      </c>
+      <c r="I983">
+        <v>0.18852562312983301</v>
+      </c>
+    </row>
+    <row r="984" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H984">
+        <v>0.92224939250014604</v>
+      </c>
+      <c r="I984">
+        <v>7.7750607499854199E-2</v>
+      </c>
+    </row>
+    <row r="985" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H985">
+        <v>0.95143352305915996</v>
+      </c>
+      <c r="I985">
+        <v>4.8566476940839598E-2</v>
+      </c>
+    </row>
+    <row r="986" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H986">
+        <v>0.97371809782589602</v>
+      </c>
+      <c r="I986">
+        <v>2.6281902174103901E-2</v>
+      </c>
+    </row>
+    <row r="987" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H987">
+        <v>0.68219283781236395</v>
+      </c>
+      <c r="I987">
+        <v>0.31780716218763599</v>
+      </c>
+    </row>
+    <row r="988" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H988">
+        <v>0.61957133424173005</v>
+      </c>
+      <c r="I988">
+        <v>0.38042866575827</v>
+      </c>
+    </row>
+    <row r="989" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H989">
+        <v>0.689085136038737</v>
+      </c>
+      <c r="I989">
+        <v>0.310914863961263</v>
+      </c>
+    </row>
+    <row r="990" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H990">
+        <v>0.870662048880809</v>
+      </c>
+      <c r="I990">
+        <v>0.129337951119191</v>
+      </c>
+    </row>
+    <row r="991" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H991">
+        <v>0.96400895624524496</v>
+      </c>
+      <c r="I991">
+        <v>3.5991043754754697E-2</v>
+      </c>
+    </row>
+    <row r="992" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H992">
+        <v>0.45538942606208499</v>
+      </c>
+      <c r="I992">
+        <v>0.54461057393791501</v>
+      </c>
+    </row>
+    <row r="993" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H993">
+        <v>0.45572950716911698</v>
+      </c>
+      <c r="I993">
+        <v>0.54427049283088302</v>
+      </c>
+    </row>
+    <row r="994" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H994">
+        <v>0.59577504976045403</v>
+      </c>
+      <c r="I994">
+        <v>0.40422495023954602</v>
+      </c>
+    </row>
+    <row r="995" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H995">
+        <v>0.93990694905181105</v>
+      </c>
+      <c r="I995">
+        <v>6.0093050948188897E-2</v>
+      </c>
+    </row>
+    <row r="996" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H996">
+        <v>0.95850631800530395</v>
+      </c>
+      <c r="I996">
+        <v>4.1493681994696503E-2</v>
+      </c>
+    </row>
+    <row r="997" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H997">
+        <v>0.96264952849118102</v>
+      </c>
+      <c r="I997">
+        <v>3.7350471508818997E-2</v>
+      </c>
+    </row>
+    <row r="998" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H998">
+        <v>0.62262098002670696</v>
+      </c>
+      <c r="I998">
+        <v>0.37737901997329298</v>
+      </c>
+    </row>
+    <row r="999" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H999">
+        <v>0.90469901123289498</v>
+      </c>
+      <c r="I999">
+        <v>9.5300988767105299E-2</v>
+      </c>
+    </row>
+    <row r="1000" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H1000">
+        <v>0.60022743940983403</v>
+      </c>
+      <c r="I1000">
+        <v>0.39977256059016603</v>
+      </c>
+    </row>
+    <row r="1001" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H1001">
+        <v>1.15485001411854E-2</v>
+      </c>
+      <c r="I1001">
+        <v>0.98845149985881497</v>
+      </c>
+    </row>
+    <row r="1002" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H1002">
+        <v>0.47413314259473099</v>
+      </c>
+      <c r="I1002">
+        <v>0.52586685740526895</v>
+      </c>
+    </row>
+    <row r="1003" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H1003">
+        <v>0.55993867286236099</v>
+      </c>
+      <c r="I1003">
+        <v>0.44006132713763901</v>
+      </c>
+    </row>
+    <row r="1004" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H1004">
+        <v>1.3699240156277199E-2</v>
+      </c>
+      <c r="I1004">
+        <v>0.98630075984372301</v>
+      </c>
+    </row>
+    <row r="1005" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H1005">
+        <v>4.3470032370801102E-3</v>
+      </c>
+      <c r="I1005">
+        <v>0.99565299676291996</v>
+      </c>
+    </row>
+    <row r="1006" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H1006">
+        <v>3.2713568469499199E-3</v>
+      </c>
+      <c r="I1006">
+        <v>0.99672864315304999</v>
+      </c>
+    </row>
+    <row r="1007" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H1007">
+        <v>2.40484784155797E-4</v>
+      </c>
+      <c r="I1007">
+        <v>0.99975951521584405</v>
+      </c>
+    </row>
+    <row r="1008" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H1008">
+        <v>1.68557888289622E-3</v>
+      </c>
+      <c r="I1008">
+        <v>0.998314421117104</v>
+      </c>
+    </row>
+    <row r="1009" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H1009">
+        <v>8.9837838149132499E-4</v>
+      </c>
+      <c r="I1009">
+        <v>0.99910162161850902</v>
+      </c>
+    </row>
+    <row r="1010" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H1010">
+        <v>1.2689838329110099E-3</v>
+      </c>
+      <c r="I1010">
+        <v>0.99873101616708904</v>
+      </c>
+    </row>
+    <row r="1011" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H1011">
+        <v>1.1597399189274E-3</v>
+      </c>
+      <c r="I1011">
+        <v>0.99884026008107296</v>
+      </c>
+    </row>
+    <row r="1012" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H1012">
+        <v>1.5338362335234599E-3</v>
+      </c>
+      <c r="I1012">
+        <v>0.99846616376647701</v>
+      </c>
+    </row>
+    <row r="1013" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H1013">
+        <v>0.131263888057748</v>
+      </c>
+      <c r="I1013">
+        <v>0.86873611194225198</v>
+      </c>
+    </row>
+    <row r="1014" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H1014">
+        <v>5.1056473797617997E-3</v>
+      </c>
+      <c r="I1014">
+        <v>0.99489435262023795</v>
+      </c>
+    </row>
+    <row r="1015" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H1015">
+        <v>9.9452993969533304E-2</v>
+      </c>
+      <c r="I1015">
+        <v>0.900547006030467</v>
+      </c>
+    </row>
+    <row r="1016" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H1016">
+        <v>0.101453408782866</v>
+      </c>
+      <c r="I1016">
+        <v>0.89854659121713398</v>
+      </c>
+    </row>
+    <row r="1017" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H1017">
+        <v>0.103461824816156</v>
+      </c>
+      <c r="I1017">
+        <v>0.89653817518384404</v>
+      </c>
+    </row>
+    <row r="1018" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H1018">
+        <v>0.10086693283934101</v>
+      </c>
+      <c r="I1018">
+        <v>0.89913306716065899</v>
+      </c>
+    </row>
+    <row r="1019" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H1019">
+        <v>1.7394712683789299E-2</v>
+      </c>
+      <c r="I1019">
+        <v>0.982605287316211</v>
+      </c>
+    </row>
+    <row r="1020" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H1020">
+        <v>8.2009283826025496E-4</v>
+      </c>
+      <c r="I1020">
+        <v>0.99917990716173999</v>
+      </c>
+    </row>
+    <row r="1021" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H1021">
+        <v>2.2697037189215E-4</v>
+      </c>
+      <c r="I1021">
+        <v>0.99977302962810799</v>
+      </c>
+    </row>
+    <row r="1022" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H1022" s="1">
+        <v>7.3211631988877695E-5</v>
+      </c>
+      <c r="I1022">
+        <v>0.99992678836801097</v>
+      </c>
+    </row>
+    <row r="1023" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H1023">
+        <v>1.21552474084703E-4</v>
+      </c>
+      <c r="I1023">
+        <v>0.99987844752591504</v>
+      </c>
+    </row>
+    <row r="1024" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H1024">
+        <v>2.0319267589173401E-4</v>
+      </c>
+      <c r="I1024">
+        <v>0.99979680732410803</v>
+      </c>
+    </row>
+    <row r="1025" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H1025" s="1">
+        <v>6.2455327521825996E-5</v>
+      </c>
+      <c r="I1025">
+        <v>0.99993754467247797</v>
+      </c>
+    </row>
+    <row r="1026" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H1026">
+        <v>3.3182903295375199E-4</v>
+      </c>
+      <c r="I1026">
+        <v>0.99966817096704597</v>
+      </c>
+    </row>
+    <row r="1027" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H1027" s="1">
+        <v>3.6731542292969798E-5</v>
+      </c>
+      <c r="I1027">
+        <v>0.999963268457707</v>
+      </c>
+    </row>
+    <row r="1028" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H1028">
+        <v>0.14077698615839401</v>
+      </c>
+      <c r="I1028">
+        <v>0.85922301384160604</v>
+      </c>
+    </row>
+    <row r="1029" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H1029">
+        <v>0.14158031565040199</v>
+      </c>
+      <c r="I1029">
+        <v>0.85841968434959803</v>
+      </c>
+    </row>
+    <row r="1030" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H1030">
+        <v>5.5242849795349297E-3</v>
+      </c>
+      <c r="I1030">
+        <v>0.99447571502046495</v>
+      </c>
+    </row>
+    <row r="1031" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H1031">
+        <v>0.97949414954436198</v>
+      </c>
+      <c r="I1031">
+        <v>2.05058504556377E-2</v>
+      </c>
+    </row>
+    <row r="1032" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H1032">
+        <v>0.99986962642947896</v>
+      </c>
+      <c r="I1032">
+        <v>1.3037357052136101E-4</v>
+      </c>
+    </row>
+    <row r="1033" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H1033">
+        <v>4.6610621502109401E-2</v>
+      </c>
+      <c r="I1033">
+        <v>0.95338937849789096</v>
+      </c>
+    </row>
+    <row r="1034" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H1034">
+        <v>1.85067860570058E-2</v>
+      </c>
+      <c r="I1034">
+        <v>0.98149321394299405</v>
+      </c>
+    </row>
+    <row r="1035" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H1035">
+        <v>1.3105748454380901E-3</v>
+      </c>
+      <c r="I1035">
+        <v>0.99868942515456205</v>
+      </c>
+    </row>
+    <row r="1036" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H1036">
+        <v>0.52593374766134204</v>
+      </c>
+      <c r="I1036">
+        <v>0.47406625233865701</v>
+      </c>
+    </row>
+    <row r="1037" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H1037">
+        <v>0.24220844118486201</v>
+      </c>
+      <c r="I1037">
+        <v>0.75779155881513804</v>
+      </c>
+    </row>
+    <row r="1038" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H1038">
+        <v>0.26328418203334902</v>
+      </c>
+      <c r="I1038">
+        <v>0.73671581796665098</v>
+      </c>
+    </row>
+    <row r="1039" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H1039">
+        <v>0.77144930686593405</v>
+      </c>
+      <c r="I1039">
+        <v>0.22855069313406601</v>
+      </c>
+    </row>
+    <row r="1040" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H1040">
+        <v>0.80781988268049998</v>
+      </c>
+      <c r="I1040">
+        <v>0.19218011731949999</v>
+      </c>
+    </row>
+    <row r="1041" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H1041">
+        <v>0.94768841546485605</v>
+      </c>
+      <c r="I1041">
+        <v>5.2311584535144201E-2</v>
+      </c>
+    </row>
+    <row r="1042" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H1042">
+        <v>0.88093770228505297</v>
+      </c>
+      <c r="I1042">
+        <v>0.119062297714947</v>
+      </c>
+    </row>
+    <row r="1043" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H1043">
+        <v>0.225215915322698</v>
+      </c>
+      <c r="I1043">
+        <v>0.77478408467730198</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC6BD61-4364-6B4B-8D9A-8CF3FE32BD1A}">
   <dimension ref="A1:P446"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S25" sqref="S25"/>
+      <selection activeCell="K3" sqref="K3:K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5166,7 +14412,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD5CD0A2-4516-6E40-BE60-CE570AFD6A5A}">
   <dimension ref="A1:P1718"/>
   <sheetViews>
@@ -19792,7 +29038,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3586A0E3-5B41-E14C-8A9F-EE231AF46D3E}">
   <dimension ref="A1:P1240"/>
   <sheetViews>
@@ -30593,7 +39839,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{939A348C-7769-E640-9628-3A70C08B74A2}">
   <dimension ref="A1:P1022"/>
   <sheetViews>
